--- a/BaocaoExcel/Plant_02_SignUp.xlsx
+++ b/BaocaoExcel/Plant_02_SignUp.xlsx
@@ -5,10 +5,10 @@
   <workbookPr saveExternalLinkValues="0" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Nam5\Tailieuthietke_ThayTru\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Nam5\baocao\BaocaoExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30DB55EE-E151-48F8-AB09-F2C6DC62F4AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6AAF4A-8615-4F0D-BFED-D479EFFD7E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="826" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="173">
   <si>
     <t>システム名称</t>
     <rPh sb="4" eb="6">
@@ -765,12 +765,6 @@
     <t>Đăng kí</t>
   </si>
   <si>
-    <t>Tìm việc</t>
-  </si>
-  <si>
-    <t>Tìm người làm</t>
-  </si>
-  <si>
     <t>(2) Xử lý đăng kí</t>
   </si>
   <si>
@@ -850,12 +844,6 @@
     <t xml:space="preserve">Đăng kí thành công </t>
   </si>
   <si>
-    <t>SIGNUP_SUCCESS</t>
-  </si>
-  <si>
-    <t>SIGNUP_FAIL</t>
-  </si>
-  <si>
     <t xml:space="preserve">Email đã tồn tại </t>
   </si>
   <si>
@@ -899,6 +887,15 @@
   </si>
   <si>
     <t>User.address</t>
+  </si>
+  <si>
+    <t>Signup</t>
+  </si>
+  <si>
+    <t>User created successfully</t>
+  </si>
+  <si>
+    <t>Email already exists. Please use a different email address.</t>
   </si>
 </sst>
 </file>
@@ -2644,6 +2641,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -3149,6 +3147,18 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="61" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="62" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="63" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3157,54 +3167,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="48" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="51" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="61" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="62" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="63" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -3238,6 +3200,42 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="63" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="48" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="51" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3338,7 +3336,6 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4288,7 +4285,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{953A3E4B-E510-E596-E23A-9286A66649FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18206,187 +18203,187 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:49" s="19" customFormat="1" ht="16.95" customHeight="1" thickTop="1">
-      <c r="A1" s="278" t="s">
+      <c r="A1" s="279" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="279"/>
-      <c r="C1" s="279"/>
-      <c r="D1" s="279"/>
-      <c r="E1" s="279"/>
-      <c r="F1" s="279"/>
-      <c r="G1" s="279"/>
-      <c r="H1" s="279"/>
-      <c r="I1" s="280"/>
-      <c r="J1" s="287" t="s">
+      <c r="B1" s="280"/>
+      <c r="C1" s="280"/>
+      <c r="D1" s="280"/>
+      <c r="E1" s="280"/>
+      <c r="F1" s="280"/>
+      <c r="G1" s="280"/>
+      <c r="H1" s="280"/>
+      <c r="I1" s="281"/>
+      <c r="J1" s="288" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="279"/>
-      <c r="L1" s="279"/>
-      <c r="M1" s="279"/>
-      <c r="N1" s="279"/>
-      <c r="O1" s="280"/>
-      <c r="P1" s="287" t="s">
+      <c r="K1" s="280"/>
+      <c r="L1" s="280"/>
+      <c r="M1" s="280"/>
+      <c r="N1" s="280"/>
+      <c r="O1" s="281"/>
+      <c r="P1" s="288" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="279"/>
-      <c r="R1" s="279"/>
-      <c r="S1" s="279"/>
-      <c r="T1" s="279"/>
-      <c r="U1" s="280"/>
-      <c r="V1" s="293" t="s">
+      <c r="Q1" s="280"/>
+      <c r="R1" s="280"/>
+      <c r="S1" s="280"/>
+      <c r="T1" s="280"/>
+      <c r="U1" s="281"/>
+      <c r="V1" s="294" t="s">
         <v>23</v>
       </c>
-      <c r="W1" s="294"/>
-      <c r="X1" s="294"/>
-      <c r="Y1" s="294"/>
-      <c r="Z1" s="295"/>
-      <c r="AA1" s="299" t="s">
-        <v>160</v>
-      </c>
-      <c r="AB1" s="279"/>
-      <c r="AC1" s="279"/>
-      <c r="AD1" s="279"/>
-      <c r="AE1" s="279"/>
-      <c r="AF1" s="279"/>
-      <c r="AG1" s="279"/>
-      <c r="AH1" s="279"/>
-      <c r="AI1" s="279"/>
-      <c r="AJ1" s="279"/>
-      <c r="AK1" s="279"/>
-      <c r="AL1" s="280"/>
-      <c r="AM1" s="288" t="s">
+      <c r="W1" s="295"/>
+      <c r="X1" s="295"/>
+      <c r="Y1" s="295"/>
+      <c r="Z1" s="296"/>
+      <c r="AA1" s="300" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB1" s="280"/>
+      <c r="AC1" s="280"/>
+      <c r="AD1" s="280"/>
+      <c r="AE1" s="280"/>
+      <c r="AF1" s="280"/>
+      <c r="AG1" s="280"/>
+      <c r="AH1" s="280"/>
+      <c r="AI1" s="280"/>
+      <c r="AJ1" s="280"/>
+      <c r="AK1" s="280"/>
+      <c r="AL1" s="281"/>
+      <c r="AM1" s="289" t="s">
         <v>24</v>
       </c>
-      <c r="AN1" s="289"/>
-      <c r="AO1" s="301" t="s">
-        <v>161</v>
-      </c>
-      <c r="AP1" s="302"/>
-      <c r="AQ1" s="303"/>
-      <c r="AR1" s="288" t="s">
+      <c r="AN1" s="290"/>
+      <c r="AO1" s="302" t="s">
+        <v>157</v>
+      </c>
+      <c r="AP1" s="303"/>
+      <c r="AQ1" s="304"/>
+      <c r="AR1" s="289" t="s">
         <v>26</v>
       </c>
-      <c r="AS1" s="289"/>
-      <c r="AT1" s="290">
+      <c r="AS1" s="290"/>
+      <c r="AT1" s="291">
         <v>45209</v>
       </c>
-      <c r="AU1" s="291"/>
-      <c r="AV1" s="291"/>
-      <c r="AW1" s="292"/>
+      <c r="AU1" s="292"/>
+      <c r="AV1" s="292"/>
+      <c r="AW1" s="293"/>
     </row>
     <row r="2" spans="1:49" s="19" customFormat="1" ht="16.95" customHeight="1">
-      <c r="A2" s="281"/>
-      <c r="B2" s="282"/>
-      <c r="C2" s="282"/>
-      <c r="D2" s="282"/>
-      <c r="E2" s="282"/>
-      <c r="F2" s="282"/>
-      <c r="G2" s="282"/>
-      <c r="H2" s="282"/>
-      <c r="I2" s="283"/>
-      <c r="J2" s="281"/>
-      <c r="K2" s="282"/>
-      <c r="L2" s="282"/>
-      <c r="M2" s="282"/>
-      <c r="N2" s="282"/>
-      <c r="O2" s="283"/>
-      <c r="P2" s="281"/>
-      <c r="Q2" s="282"/>
-      <c r="R2" s="282"/>
-      <c r="S2" s="282"/>
-      <c r="T2" s="282"/>
-      <c r="U2" s="283"/>
-      <c r="V2" s="296"/>
-      <c r="W2" s="297"/>
-      <c r="X2" s="297"/>
-      <c r="Y2" s="297"/>
-      <c r="Z2" s="298"/>
-      <c r="AA2" s="300"/>
-      <c r="AB2" s="282"/>
-      <c r="AC2" s="282"/>
-      <c r="AD2" s="282"/>
-      <c r="AE2" s="282"/>
-      <c r="AF2" s="282"/>
-      <c r="AG2" s="282"/>
-      <c r="AH2" s="282"/>
-      <c r="AI2" s="282"/>
-      <c r="AJ2" s="282"/>
-      <c r="AK2" s="282"/>
-      <c r="AL2" s="283"/>
-      <c r="AM2" s="314" t="s">
+      <c r="A2" s="282"/>
+      <c r="B2" s="283"/>
+      <c r="C2" s="283"/>
+      <c r="D2" s="283"/>
+      <c r="E2" s="283"/>
+      <c r="F2" s="283"/>
+      <c r="G2" s="283"/>
+      <c r="H2" s="283"/>
+      <c r="I2" s="284"/>
+      <c r="J2" s="282"/>
+      <c r="K2" s="283"/>
+      <c r="L2" s="283"/>
+      <c r="M2" s="283"/>
+      <c r="N2" s="283"/>
+      <c r="O2" s="284"/>
+      <c r="P2" s="282"/>
+      <c r="Q2" s="283"/>
+      <c r="R2" s="283"/>
+      <c r="S2" s="283"/>
+      <c r="T2" s="283"/>
+      <c r="U2" s="284"/>
+      <c r="V2" s="297"/>
+      <c r="W2" s="298"/>
+      <c r="X2" s="298"/>
+      <c r="Y2" s="298"/>
+      <c r="Z2" s="299"/>
+      <c r="AA2" s="301"/>
+      <c r="AB2" s="283"/>
+      <c r="AC2" s="283"/>
+      <c r="AD2" s="283"/>
+      <c r="AE2" s="283"/>
+      <c r="AF2" s="283"/>
+      <c r="AG2" s="283"/>
+      <c r="AH2" s="283"/>
+      <c r="AI2" s="283"/>
+      <c r="AJ2" s="283"/>
+      <c r="AK2" s="283"/>
+      <c r="AL2" s="284"/>
+      <c r="AM2" s="315" t="s">
         <v>25</v>
       </c>
-      <c r="AN2" s="315"/>
-      <c r="AO2" s="316"/>
-      <c r="AP2" s="317"/>
-      <c r="AQ2" s="318"/>
-      <c r="AR2" s="314" t="s">
+      <c r="AN2" s="316"/>
+      <c r="AO2" s="317"/>
+      <c r="AP2" s="318"/>
+      <c r="AQ2" s="319"/>
+      <c r="AR2" s="315" t="s">
         <v>27</v>
       </c>
-      <c r="AS2" s="315"/>
-      <c r="AT2" s="319"/>
-      <c r="AU2" s="320"/>
-      <c r="AV2" s="320"/>
-      <c r="AW2" s="321"/>
+      <c r="AS2" s="316"/>
+      <c r="AT2" s="320"/>
+      <c r="AU2" s="321"/>
+      <c r="AV2" s="321"/>
+      <c r="AW2" s="322"/>
     </row>
     <row r="3" spans="1:49" ht="16.95" customHeight="1" thickBot="1">
-      <c r="A3" s="284"/>
-      <c r="B3" s="285"/>
-      <c r="C3" s="285"/>
-      <c r="D3" s="285"/>
-      <c r="E3" s="285"/>
-      <c r="F3" s="285"/>
-      <c r="G3" s="285"/>
-      <c r="H3" s="285"/>
-      <c r="I3" s="286"/>
-      <c r="J3" s="284"/>
-      <c r="K3" s="285"/>
-      <c r="L3" s="285"/>
-      <c r="M3" s="285"/>
-      <c r="N3" s="285"/>
-      <c r="O3" s="286"/>
-      <c r="P3" s="284"/>
-      <c r="Q3" s="285"/>
-      <c r="R3" s="285"/>
-      <c r="S3" s="285"/>
-      <c r="T3" s="285"/>
-      <c r="U3" s="286"/>
-      <c r="V3" s="304" t="s">
+      <c r="A3" s="285"/>
+      <c r="B3" s="286"/>
+      <c r="C3" s="286"/>
+      <c r="D3" s="286"/>
+      <c r="E3" s="286"/>
+      <c r="F3" s="286"/>
+      <c r="G3" s="286"/>
+      <c r="H3" s="286"/>
+      <c r="I3" s="287"/>
+      <c r="J3" s="285"/>
+      <c r="K3" s="286"/>
+      <c r="L3" s="286"/>
+      <c r="M3" s="286"/>
+      <c r="N3" s="286"/>
+      <c r="O3" s="287"/>
+      <c r="P3" s="285"/>
+      <c r="Q3" s="286"/>
+      <c r="R3" s="286"/>
+      <c r="S3" s="286"/>
+      <c r="T3" s="286"/>
+      <c r="U3" s="287"/>
+      <c r="V3" s="305" t="s">
         <v>28</v>
       </c>
-      <c r="W3" s="305"/>
-      <c r="X3" s="305"/>
-      <c r="Y3" s="305"/>
-      <c r="Z3" s="306"/>
-      <c r="AA3" s="307" t="s">
+      <c r="W3" s="306"/>
+      <c r="X3" s="306"/>
+      <c r="Y3" s="306"/>
+      <c r="Z3" s="307"/>
+      <c r="AA3" s="308" t="s">
         <v>127</v>
       </c>
-      <c r="AB3" s="308"/>
-      <c r="AC3" s="308"/>
-      <c r="AD3" s="308"/>
-      <c r="AE3" s="308"/>
-      <c r="AF3" s="308"/>
-      <c r="AG3" s="309"/>
-      <c r="AH3" s="310" t="s">
+      <c r="AB3" s="309"/>
+      <c r="AC3" s="309"/>
+      <c r="AD3" s="309"/>
+      <c r="AE3" s="309"/>
+      <c r="AF3" s="309"/>
+      <c r="AG3" s="310"/>
+      <c r="AH3" s="311" t="s">
         <v>29</v>
       </c>
-      <c r="AI3" s="311"/>
-      <c r="AJ3" s="311"/>
-      <c r="AK3" s="311"/>
-      <c r="AL3" s="312"/>
-      <c r="AM3" s="307" t="s">
+      <c r="AI3" s="312"/>
+      <c r="AJ3" s="312"/>
+      <c r="AK3" s="312"/>
+      <c r="AL3" s="313"/>
+      <c r="AM3" s="308" t="s">
         <v>128</v>
       </c>
-      <c r="AN3" s="308"/>
-      <c r="AO3" s="308"/>
-      <c r="AP3" s="308"/>
-      <c r="AQ3" s="308"/>
-      <c r="AR3" s="308"/>
-      <c r="AS3" s="308"/>
-      <c r="AT3" s="308"/>
-      <c r="AU3" s="308"/>
-      <c r="AV3" s="308"/>
-      <c r="AW3" s="313"/>
+      <c r="AN3" s="309"/>
+      <c r="AO3" s="309"/>
+      <c r="AP3" s="309"/>
+      <c r="AQ3" s="309"/>
+      <c r="AR3" s="309"/>
+      <c r="AS3" s="309"/>
+      <c r="AT3" s="309"/>
+      <c r="AU3" s="309"/>
+      <c r="AV3" s="309"/>
+      <c r="AW3" s="314"/>
     </row>
     <row r="4" spans="1:49" ht="13.5" customHeight="1" thickTop="1">
       <c r="A4" s="21"/>
@@ -18614,259 +18611,259 @@
     </row>
     <row r="13" spans="1:49" ht="13.5" customHeight="1">
       <c r="A13" s="21"/>
-      <c r="B13" s="384" t="s">
+      <c r="B13" s="385" t="s">
         <v>97</v>
       </c>
-      <c r="C13" s="385"/>
-      <c r="D13" s="385"/>
-      <c r="E13" s="385"/>
-      <c r="F13" s="385"/>
-      <c r="G13" s="385"/>
-      <c r="H13" s="385"/>
-      <c r="I13" s="385"/>
-      <c r="J13" s="385"/>
-      <c r="K13" s="385"/>
-      <c r="L13" s="385"/>
-      <c r="M13" s="385"/>
-      <c r="N13" s="385"/>
-      <c r="O13" s="385"/>
-      <c r="P13" s="385"/>
-      <c r="Q13" s="385"/>
-      <c r="R13" s="385"/>
-      <c r="S13" s="385"/>
-      <c r="T13" s="385"/>
-      <c r="U13" s="385"/>
-      <c r="V13" s="385"/>
-      <c r="W13" s="385"/>
-      <c r="X13" s="385"/>
-      <c r="Y13" s="385"/>
-      <c r="Z13" s="385"/>
-      <c r="AA13" s="385"/>
-      <c r="AB13" s="385"/>
-      <c r="AC13" s="385"/>
-      <c r="AD13" s="385"/>
-      <c r="AE13" s="385"/>
-      <c r="AF13" s="385"/>
-      <c r="AG13" s="385"/>
-      <c r="AH13" s="385"/>
-      <c r="AI13" s="385"/>
-      <c r="AJ13" s="385"/>
-      <c r="AK13" s="385"/>
-      <c r="AL13" s="385"/>
-      <c r="AM13" s="385"/>
-      <c r="AN13" s="385"/>
-      <c r="AO13" s="385"/>
-      <c r="AP13" s="385"/>
-      <c r="AQ13" s="385"/>
-      <c r="AR13" s="385"/>
-      <c r="AS13" s="385"/>
-      <c r="AT13" s="385"/>
-      <c r="AU13" s="385"/>
-      <c r="AV13" s="385"/>
+      <c r="C13" s="386"/>
+      <c r="D13" s="386"/>
+      <c r="E13" s="386"/>
+      <c r="F13" s="386"/>
+      <c r="G13" s="386"/>
+      <c r="H13" s="386"/>
+      <c r="I13" s="386"/>
+      <c r="J13" s="386"/>
+      <c r="K13" s="386"/>
+      <c r="L13" s="386"/>
+      <c r="M13" s="386"/>
+      <c r="N13" s="386"/>
+      <c r="O13" s="386"/>
+      <c r="P13" s="386"/>
+      <c r="Q13" s="386"/>
+      <c r="R13" s="386"/>
+      <c r="S13" s="386"/>
+      <c r="T13" s="386"/>
+      <c r="U13" s="386"/>
+      <c r="V13" s="386"/>
+      <c r="W13" s="386"/>
+      <c r="X13" s="386"/>
+      <c r="Y13" s="386"/>
+      <c r="Z13" s="386"/>
+      <c r="AA13" s="386"/>
+      <c r="AB13" s="386"/>
+      <c r="AC13" s="386"/>
+      <c r="AD13" s="386"/>
+      <c r="AE13" s="386"/>
+      <c r="AF13" s="386"/>
+      <c r="AG13" s="386"/>
+      <c r="AH13" s="386"/>
+      <c r="AI13" s="386"/>
+      <c r="AJ13" s="386"/>
+      <c r="AK13" s="386"/>
+      <c r="AL13" s="386"/>
+      <c r="AM13" s="386"/>
+      <c r="AN13" s="386"/>
+      <c r="AO13" s="386"/>
+      <c r="AP13" s="386"/>
+      <c r="AQ13" s="386"/>
+      <c r="AR13" s="386"/>
+      <c r="AS13" s="386"/>
+      <c r="AT13" s="386"/>
+      <c r="AU13" s="386"/>
+      <c r="AV13" s="386"/>
       <c r="AW13" s="163"/>
     </row>
     <row r="14" spans="1:49" ht="13.5" customHeight="1">
       <c r="A14" s="21"/>
-      <c r="B14" s="385"/>
-      <c r="C14" s="385"/>
-      <c r="D14" s="385"/>
-      <c r="E14" s="385"/>
-      <c r="F14" s="385"/>
-      <c r="G14" s="385"/>
-      <c r="H14" s="385"/>
-      <c r="I14" s="385"/>
-      <c r="J14" s="385"/>
-      <c r="K14" s="385"/>
-      <c r="L14" s="385"/>
-      <c r="M14" s="385"/>
-      <c r="N14" s="385"/>
-      <c r="O14" s="385"/>
-      <c r="P14" s="385"/>
-      <c r="Q14" s="385"/>
-      <c r="R14" s="385"/>
-      <c r="S14" s="385"/>
-      <c r="T14" s="385"/>
-      <c r="U14" s="385"/>
-      <c r="V14" s="385"/>
-      <c r="W14" s="385"/>
-      <c r="X14" s="385"/>
-      <c r="Y14" s="385"/>
-      <c r="Z14" s="385"/>
-      <c r="AA14" s="385"/>
-      <c r="AB14" s="385"/>
-      <c r="AC14" s="385"/>
-      <c r="AD14" s="385"/>
-      <c r="AE14" s="385"/>
-      <c r="AF14" s="385"/>
-      <c r="AG14" s="385"/>
-      <c r="AH14" s="385"/>
-      <c r="AI14" s="385"/>
-      <c r="AJ14" s="385"/>
-      <c r="AK14" s="385"/>
-      <c r="AL14" s="385"/>
-      <c r="AM14" s="385"/>
-      <c r="AN14" s="385"/>
-      <c r="AO14" s="385"/>
-      <c r="AP14" s="385"/>
-      <c r="AQ14" s="385"/>
-      <c r="AR14" s="385"/>
-      <c r="AS14" s="385"/>
-      <c r="AT14" s="385"/>
-      <c r="AU14" s="385"/>
-      <c r="AV14" s="385"/>
+      <c r="B14" s="386"/>
+      <c r="C14" s="386"/>
+      <c r="D14" s="386"/>
+      <c r="E14" s="386"/>
+      <c r="F14" s="386"/>
+      <c r="G14" s="386"/>
+      <c r="H14" s="386"/>
+      <c r="I14" s="386"/>
+      <c r="J14" s="386"/>
+      <c r="K14" s="386"/>
+      <c r="L14" s="386"/>
+      <c r="M14" s="386"/>
+      <c r="N14" s="386"/>
+      <c r="O14" s="386"/>
+      <c r="P14" s="386"/>
+      <c r="Q14" s="386"/>
+      <c r="R14" s="386"/>
+      <c r="S14" s="386"/>
+      <c r="T14" s="386"/>
+      <c r="U14" s="386"/>
+      <c r="V14" s="386"/>
+      <c r="W14" s="386"/>
+      <c r="X14" s="386"/>
+      <c r="Y14" s="386"/>
+      <c r="Z14" s="386"/>
+      <c r="AA14" s="386"/>
+      <c r="AB14" s="386"/>
+      <c r="AC14" s="386"/>
+      <c r="AD14" s="386"/>
+      <c r="AE14" s="386"/>
+      <c r="AF14" s="386"/>
+      <c r="AG14" s="386"/>
+      <c r="AH14" s="386"/>
+      <c r="AI14" s="386"/>
+      <c r="AJ14" s="386"/>
+      <c r="AK14" s="386"/>
+      <c r="AL14" s="386"/>
+      <c r="AM14" s="386"/>
+      <c r="AN14" s="386"/>
+      <c r="AO14" s="386"/>
+      <c r="AP14" s="386"/>
+      <c r="AQ14" s="386"/>
+      <c r="AR14" s="386"/>
+      <c r="AS14" s="386"/>
+      <c r="AT14" s="386"/>
+      <c r="AU14" s="386"/>
+      <c r="AV14" s="386"/>
       <c r="AW14" s="163"/>
     </row>
     <row r="15" spans="1:49" ht="13.5" customHeight="1">
       <c r="A15" s="21"/>
-      <c r="B15" s="385"/>
-      <c r="C15" s="385"/>
-      <c r="D15" s="385"/>
-      <c r="E15" s="385"/>
-      <c r="F15" s="385"/>
-      <c r="G15" s="385"/>
-      <c r="H15" s="385"/>
-      <c r="I15" s="385"/>
-      <c r="J15" s="385"/>
-      <c r="K15" s="385"/>
-      <c r="L15" s="385"/>
-      <c r="M15" s="385"/>
-      <c r="N15" s="385"/>
-      <c r="O15" s="385"/>
-      <c r="P15" s="385"/>
-      <c r="Q15" s="385"/>
-      <c r="R15" s="385"/>
-      <c r="S15" s="385"/>
-      <c r="T15" s="385"/>
-      <c r="U15" s="385"/>
-      <c r="V15" s="385"/>
-      <c r="W15" s="385"/>
-      <c r="X15" s="385"/>
-      <c r="Y15" s="385"/>
-      <c r="Z15" s="385"/>
-      <c r="AA15" s="385"/>
-      <c r="AB15" s="385"/>
-      <c r="AC15" s="385"/>
-      <c r="AD15" s="385"/>
-      <c r="AE15" s="385"/>
-      <c r="AF15" s="385"/>
-      <c r="AG15" s="385"/>
-      <c r="AH15" s="385"/>
-      <c r="AI15" s="385"/>
-      <c r="AJ15" s="385"/>
-      <c r="AK15" s="385"/>
-      <c r="AL15" s="385"/>
-      <c r="AM15" s="385"/>
-      <c r="AN15" s="385"/>
-      <c r="AO15" s="385"/>
-      <c r="AP15" s="385"/>
-      <c r="AQ15" s="385"/>
-      <c r="AR15" s="385"/>
-      <c r="AS15" s="385"/>
-      <c r="AT15" s="385"/>
-      <c r="AU15" s="385"/>
-      <c r="AV15" s="385"/>
+      <c r="B15" s="386"/>
+      <c r="C15" s="386"/>
+      <c r="D15" s="386"/>
+      <c r="E15" s="386"/>
+      <c r="F15" s="386"/>
+      <c r="G15" s="386"/>
+      <c r="H15" s="386"/>
+      <c r="I15" s="386"/>
+      <c r="J15" s="386"/>
+      <c r="K15" s="386"/>
+      <c r="L15" s="386"/>
+      <c r="M15" s="386"/>
+      <c r="N15" s="386"/>
+      <c r="O15" s="386"/>
+      <c r="P15" s="386"/>
+      <c r="Q15" s="386"/>
+      <c r="R15" s="386"/>
+      <c r="S15" s="386"/>
+      <c r="T15" s="386"/>
+      <c r="U15" s="386"/>
+      <c r="V15" s="386"/>
+      <c r="W15" s="386"/>
+      <c r="X15" s="386"/>
+      <c r="Y15" s="386"/>
+      <c r="Z15" s="386"/>
+      <c r="AA15" s="386"/>
+      <c r="AB15" s="386"/>
+      <c r="AC15" s="386"/>
+      <c r="AD15" s="386"/>
+      <c r="AE15" s="386"/>
+      <c r="AF15" s="386"/>
+      <c r="AG15" s="386"/>
+      <c r="AH15" s="386"/>
+      <c r="AI15" s="386"/>
+      <c r="AJ15" s="386"/>
+      <c r="AK15" s="386"/>
+      <c r="AL15" s="386"/>
+      <c r="AM15" s="386"/>
+      <c r="AN15" s="386"/>
+      <c r="AO15" s="386"/>
+      <c r="AP15" s="386"/>
+      <c r="AQ15" s="386"/>
+      <c r="AR15" s="386"/>
+      <c r="AS15" s="386"/>
+      <c r="AT15" s="386"/>
+      <c r="AU15" s="386"/>
+      <c r="AV15" s="386"/>
       <c r="AW15" s="163"/>
     </row>
     <row r="16" spans="1:49" ht="13.5" customHeight="1">
       <c r="A16" s="21"/>
-      <c r="B16" s="385"/>
-      <c r="C16" s="385"/>
-      <c r="D16" s="385"/>
-      <c r="E16" s="385"/>
-      <c r="F16" s="385"/>
-      <c r="G16" s="385"/>
-      <c r="H16" s="385"/>
-      <c r="I16" s="385"/>
-      <c r="J16" s="385"/>
-      <c r="K16" s="385"/>
-      <c r="L16" s="385"/>
-      <c r="M16" s="385"/>
-      <c r="N16" s="385"/>
-      <c r="O16" s="385"/>
-      <c r="P16" s="385"/>
-      <c r="Q16" s="385"/>
-      <c r="R16" s="385"/>
-      <c r="S16" s="385"/>
-      <c r="T16" s="385"/>
-      <c r="U16" s="385"/>
-      <c r="V16" s="385"/>
-      <c r="W16" s="385"/>
-      <c r="X16" s="385"/>
-      <c r="Y16" s="385"/>
-      <c r="Z16" s="385"/>
-      <c r="AA16" s="385"/>
-      <c r="AB16" s="385"/>
-      <c r="AC16" s="385"/>
-      <c r="AD16" s="385"/>
-      <c r="AE16" s="385"/>
-      <c r="AF16" s="385"/>
-      <c r="AG16" s="385"/>
-      <c r="AH16" s="385"/>
-      <c r="AI16" s="385"/>
-      <c r="AJ16" s="385"/>
-      <c r="AK16" s="385"/>
-      <c r="AL16" s="385"/>
-      <c r="AM16" s="385"/>
-      <c r="AN16" s="385"/>
-      <c r="AO16" s="385"/>
-      <c r="AP16" s="385"/>
-      <c r="AQ16" s="385"/>
-      <c r="AR16" s="385"/>
-      <c r="AS16" s="385"/>
-      <c r="AT16" s="385"/>
-      <c r="AU16" s="385"/>
-      <c r="AV16" s="385"/>
+      <c r="B16" s="386"/>
+      <c r="C16" s="386"/>
+      <c r="D16" s="386"/>
+      <c r="E16" s="386"/>
+      <c r="F16" s="386"/>
+      <c r="G16" s="386"/>
+      <c r="H16" s="386"/>
+      <c r="I16" s="386"/>
+      <c r="J16" s="386"/>
+      <c r="K16" s="386"/>
+      <c r="L16" s="386"/>
+      <c r="M16" s="386"/>
+      <c r="N16" s="386"/>
+      <c r="O16" s="386"/>
+      <c r="P16" s="386"/>
+      <c r="Q16" s="386"/>
+      <c r="R16" s="386"/>
+      <c r="S16" s="386"/>
+      <c r="T16" s="386"/>
+      <c r="U16" s="386"/>
+      <c r="V16" s="386"/>
+      <c r="W16" s="386"/>
+      <c r="X16" s="386"/>
+      <c r="Y16" s="386"/>
+      <c r="Z16" s="386"/>
+      <c r="AA16" s="386"/>
+      <c r="AB16" s="386"/>
+      <c r="AC16" s="386"/>
+      <c r="AD16" s="386"/>
+      <c r="AE16" s="386"/>
+      <c r="AF16" s="386"/>
+      <c r="AG16" s="386"/>
+      <c r="AH16" s="386"/>
+      <c r="AI16" s="386"/>
+      <c r="AJ16" s="386"/>
+      <c r="AK16" s="386"/>
+      <c r="AL16" s="386"/>
+      <c r="AM16" s="386"/>
+      <c r="AN16" s="386"/>
+      <c r="AO16" s="386"/>
+      <c r="AP16" s="386"/>
+      <c r="AQ16" s="386"/>
+      <c r="AR16" s="386"/>
+      <c r="AS16" s="386"/>
+      <c r="AT16" s="386"/>
+      <c r="AU16" s="386"/>
+      <c r="AV16" s="386"/>
       <c r="AW16" s="163"/>
     </row>
     <row r="17" spans="1:49" ht="13.5" customHeight="1">
       <c r="A17" s="21"/>
-      <c r="B17" s="385"/>
-      <c r="C17" s="385"/>
-      <c r="D17" s="385"/>
-      <c r="E17" s="385"/>
-      <c r="F17" s="385"/>
-      <c r="G17" s="385"/>
-      <c r="H17" s="385"/>
-      <c r="I17" s="385"/>
-      <c r="J17" s="385"/>
-      <c r="K17" s="385"/>
-      <c r="L17" s="385"/>
-      <c r="M17" s="385"/>
-      <c r="N17" s="385"/>
-      <c r="O17" s="385"/>
-      <c r="P17" s="385"/>
-      <c r="Q17" s="385"/>
-      <c r="R17" s="385"/>
-      <c r="S17" s="385"/>
-      <c r="T17" s="385"/>
-      <c r="U17" s="385"/>
-      <c r="V17" s="385"/>
-      <c r="W17" s="385"/>
-      <c r="X17" s="385"/>
-      <c r="Y17" s="385"/>
-      <c r="Z17" s="385"/>
-      <c r="AA17" s="385"/>
-      <c r="AB17" s="385"/>
-      <c r="AC17" s="385"/>
-      <c r="AD17" s="385"/>
-      <c r="AE17" s="385"/>
-      <c r="AF17" s="385"/>
-      <c r="AG17" s="385"/>
-      <c r="AH17" s="385"/>
-      <c r="AI17" s="385"/>
-      <c r="AJ17" s="385"/>
-      <c r="AK17" s="385"/>
-      <c r="AL17" s="385"/>
-      <c r="AM17" s="385"/>
-      <c r="AN17" s="385"/>
-      <c r="AO17" s="385"/>
-      <c r="AP17" s="385"/>
-      <c r="AQ17" s="385"/>
-      <c r="AR17" s="385"/>
-      <c r="AS17" s="385"/>
-      <c r="AT17" s="385"/>
-      <c r="AU17" s="385"/>
-      <c r="AV17" s="385"/>
+      <c r="B17" s="386"/>
+      <c r="C17" s="386"/>
+      <c r="D17" s="386"/>
+      <c r="E17" s="386"/>
+      <c r="F17" s="386"/>
+      <c r="G17" s="386"/>
+      <c r="H17" s="386"/>
+      <c r="I17" s="386"/>
+      <c r="J17" s="386"/>
+      <c r="K17" s="386"/>
+      <c r="L17" s="386"/>
+      <c r="M17" s="386"/>
+      <c r="N17" s="386"/>
+      <c r="O17" s="386"/>
+      <c r="P17" s="386"/>
+      <c r="Q17" s="386"/>
+      <c r="R17" s="386"/>
+      <c r="S17" s="386"/>
+      <c r="T17" s="386"/>
+      <c r="U17" s="386"/>
+      <c r="V17" s="386"/>
+      <c r="W17" s="386"/>
+      <c r="X17" s="386"/>
+      <c r="Y17" s="386"/>
+      <c r="Z17" s="386"/>
+      <c r="AA17" s="386"/>
+      <c r="AB17" s="386"/>
+      <c r="AC17" s="386"/>
+      <c r="AD17" s="386"/>
+      <c r="AE17" s="386"/>
+      <c r="AF17" s="386"/>
+      <c r="AG17" s="386"/>
+      <c r="AH17" s="386"/>
+      <c r="AI17" s="386"/>
+      <c r="AJ17" s="386"/>
+      <c r="AK17" s="386"/>
+      <c r="AL17" s="386"/>
+      <c r="AM17" s="386"/>
+      <c r="AN17" s="386"/>
+      <c r="AO17" s="386"/>
+      <c r="AP17" s="386"/>
+      <c r="AQ17" s="386"/>
+      <c r="AR17" s="386"/>
+      <c r="AS17" s="386"/>
+      <c r="AT17" s="386"/>
+      <c r="AU17" s="386"/>
+      <c r="AV17" s="386"/>
       <c r="AW17" s="163"/>
     </row>
     <row r="18" spans="1:49" ht="13.5" customHeight="1">
@@ -18938,208 +18935,208 @@
     </row>
     <row r="23" spans="1:49" ht="13.5" customHeight="1">
       <c r="A23" s="21"/>
-      <c r="B23" s="386" t="s">
+      <c r="B23" s="387" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="386"/>
-      <c r="D23" s="386"/>
-      <c r="E23" s="386"/>
-      <c r="F23" s="386"/>
-      <c r="G23" s="386"/>
-      <c r="H23" s="386"/>
-      <c r="I23" s="386"/>
-      <c r="J23" s="386"/>
-      <c r="K23" s="386"/>
-      <c r="L23" s="386"/>
-      <c r="M23" s="386"/>
-      <c r="N23" s="386"/>
-      <c r="O23" s="386"/>
-      <c r="P23" s="386"/>
-      <c r="Q23" s="386"/>
-      <c r="R23" s="386"/>
-      <c r="S23" s="386"/>
-      <c r="T23" s="386"/>
-      <c r="U23" s="386"/>
-      <c r="V23" s="386"/>
-      <c r="W23" s="386"/>
-      <c r="X23" s="386"/>
-      <c r="Y23" s="386"/>
-      <c r="Z23" s="386"/>
-      <c r="AA23" s="386"/>
-      <c r="AB23" s="386"/>
-      <c r="AC23" s="386"/>
-      <c r="AD23" s="386"/>
-      <c r="AE23" s="386"/>
-      <c r="AF23" s="386"/>
-      <c r="AG23" s="386"/>
-      <c r="AH23" s="386"/>
-      <c r="AI23" s="386"/>
-      <c r="AJ23" s="386"/>
-      <c r="AK23" s="386"/>
-      <c r="AL23" s="386"/>
-      <c r="AM23" s="386"/>
-      <c r="AN23" s="386"/>
-      <c r="AO23" s="386"/>
-      <c r="AP23" s="386"/>
-      <c r="AQ23" s="386"/>
-      <c r="AR23" s="386"/>
-      <c r="AS23" s="386"/>
-      <c r="AT23" s="386"/>
-      <c r="AU23" s="386"/>
-      <c r="AV23" s="386"/>
+      <c r="C23" s="387"/>
+      <c r="D23" s="387"/>
+      <c r="E23" s="387"/>
+      <c r="F23" s="387"/>
+      <c r="G23" s="387"/>
+      <c r="H23" s="387"/>
+      <c r="I23" s="387"/>
+      <c r="J23" s="387"/>
+      <c r="K23" s="387"/>
+      <c r="L23" s="387"/>
+      <c r="M23" s="387"/>
+      <c r="N23" s="387"/>
+      <c r="O23" s="387"/>
+      <c r="P23" s="387"/>
+      <c r="Q23" s="387"/>
+      <c r="R23" s="387"/>
+      <c r="S23" s="387"/>
+      <c r="T23" s="387"/>
+      <c r="U23" s="387"/>
+      <c r="V23" s="387"/>
+      <c r="W23" s="387"/>
+      <c r="X23" s="387"/>
+      <c r="Y23" s="387"/>
+      <c r="Z23" s="387"/>
+      <c r="AA23" s="387"/>
+      <c r="AB23" s="387"/>
+      <c r="AC23" s="387"/>
+      <c r="AD23" s="387"/>
+      <c r="AE23" s="387"/>
+      <c r="AF23" s="387"/>
+      <c r="AG23" s="387"/>
+      <c r="AH23" s="387"/>
+      <c r="AI23" s="387"/>
+      <c r="AJ23" s="387"/>
+      <c r="AK23" s="387"/>
+      <c r="AL23" s="387"/>
+      <c r="AM23" s="387"/>
+      <c r="AN23" s="387"/>
+      <c r="AO23" s="387"/>
+      <c r="AP23" s="387"/>
+      <c r="AQ23" s="387"/>
+      <c r="AR23" s="387"/>
+      <c r="AS23" s="387"/>
+      <c r="AT23" s="387"/>
+      <c r="AU23" s="387"/>
+      <c r="AV23" s="387"/>
       <c r="AW23" s="163"/>
     </row>
     <row r="24" spans="1:49" ht="13.5" customHeight="1">
       <c r="A24" s="21"/>
-      <c r="B24" s="386"/>
-      <c r="C24" s="386"/>
-      <c r="D24" s="386"/>
-      <c r="E24" s="386"/>
-      <c r="F24" s="386"/>
-      <c r="G24" s="386"/>
-      <c r="H24" s="386"/>
-      <c r="I24" s="386"/>
-      <c r="J24" s="386"/>
-      <c r="K24" s="386"/>
-      <c r="L24" s="386"/>
-      <c r="M24" s="386"/>
-      <c r="N24" s="386"/>
-      <c r="O24" s="386"/>
-      <c r="P24" s="386"/>
-      <c r="Q24" s="386"/>
-      <c r="R24" s="386"/>
-      <c r="S24" s="386"/>
-      <c r="T24" s="386"/>
-      <c r="U24" s="386"/>
-      <c r="V24" s="386"/>
-      <c r="W24" s="386"/>
-      <c r="X24" s="386"/>
-      <c r="Y24" s="386"/>
-      <c r="Z24" s="386"/>
-      <c r="AA24" s="386"/>
-      <c r="AB24" s="386"/>
-      <c r="AC24" s="386"/>
-      <c r="AD24" s="386"/>
-      <c r="AE24" s="386"/>
-      <c r="AF24" s="386"/>
-      <c r="AG24" s="386"/>
-      <c r="AH24" s="386"/>
-      <c r="AI24" s="386"/>
-      <c r="AJ24" s="386"/>
-      <c r="AK24" s="386"/>
-      <c r="AL24" s="386"/>
-      <c r="AM24" s="386"/>
-      <c r="AN24" s="386"/>
-      <c r="AO24" s="386"/>
-      <c r="AP24" s="386"/>
-      <c r="AQ24" s="386"/>
-      <c r="AR24" s="386"/>
-      <c r="AS24" s="386"/>
-      <c r="AT24" s="386"/>
-      <c r="AU24" s="386"/>
-      <c r="AV24" s="386"/>
+      <c r="B24" s="387"/>
+      <c r="C24" s="387"/>
+      <c r="D24" s="387"/>
+      <c r="E24" s="387"/>
+      <c r="F24" s="387"/>
+      <c r="G24" s="387"/>
+      <c r="H24" s="387"/>
+      <c r="I24" s="387"/>
+      <c r="J24" s="387"/>
+      <c r="K24" s="387"/>
+      <c r="L24" s="387"/>
+      <c r="M24" s="387"/>
+      <c r="N24" s="387"/>
+      <c r="O24" s="387"/>
+      <c r="P24" s="387"/>
+      <c r="Q24" s="387"/>
+      <c r="R24" s="387"/>
+      <c r="S24" s="387"/>
+      <c r="T24" s="387"/>
+      <c r="U24" s="387"/>
+      <c r="V24" s="387"/>
+      <c r="W24" s="387"/>
+      <c r="X24" s="387"/>
+      <c r="Y24" s="387"/>
+      <c r="Z24" s="387"/>
+      <c r="AA24" s="387"/>
+      <c r="AB24" s="387"/>
+      <c r="AC24" s="387"/>
+      <c r="AD24" s="387"/>
+      <c r="AE24" s="387"/>
+      <c r="AF24" s="387"/>
+      <c r="AG24" s="387"/>
+      <c r="AH24" s="387"/>
+      <c r="AI24" s="387"/>
+      <c r="AJ24" s="387"/>
+      <c r="AK24" s="387"/>
+      <c r="AL24" s="387"/>
+      <c r="AM24" s="387"/>
+      <c r="AN24" s="387"/>
+      <c r="AO24" s="387"/>
+      <c r="AP24" s="387"/>
+      <c r="AQ24" s="387"/>
+      <c r="AR24" s="387"/>
+      <c r="AS24" s="387"/>
+      <c r="AT24" s="387"/>
+      <c r="AU24" s="387"/>
+      <c r="AV24" s="387"/>
       <c r="AW24" s="163"/>
     </row>
     <row r="25" spans="1:49" ht="13.5" customHeight="1">
       <c r="A25" s="21"/>
-      <c r="B25" s="386"/>
-      <c r="C25" s="386"/>
-      <c r="D25" s="386"/>
-      <c r="E25" s="386"/>
-      <c r="F25" s="386"/>
-      <c r="G25" s="386"/>
-      <c r="H25" s="386"/>
-      <c r="I25" s="386"/>
-      <c r="J25" s="386"/>
-      <c r="K25" s="386"/>
-      <c r="L25" s="386"/>
-      <c r="M25" s="386"/>
-      <c r="N25" s="386"/>
-      <c r="O25" s="386"/>
-      <c r="P25" s="386"/>
-      <c r="Q25" s="386"/>
-      <c r="R25" s="386"/>
-      <c r="S25" s="386"/>
-      <c r="T25" s="386"/>
-      <c r="U25" s="386"/>
-      <c r="V25" s="386"/>
-      <c r="W25" s="386"/>
-      <c r="X25" s="386"/>
-      <c r="Y25" s="386"/>
-      <c r="Z25" s="386"/>
-      <c r="AA25" s="386"/>
-      <c r="AB25" s="386"/>
-      <c r="AC25" s="386"/>
-      <c r="AD25" s="386"/>
-      <c r="AE25" s="386"/>
-      <c r="AF25" s="386"/>
-      <c r="AG25" s="386"/>
-      <c r="AH25" s="386"/>
-      <c r="AI25" s="386"/>
-      <c r="AJ25" s="386"/>
-      <c r="AK25" s="386"/>
-      <c r="AL25" s="386"/>
-      <c r="AM25" s="386"/>
-      <c r="AN25" s="386"/>
-      <c r="AO25" s="386"/>
-      <c r="AP25" s="386"/>
-      <c r="AQ25" s="386"/>
-      <c r="AR25" s="386"/>
-      <c r="AS25" s="386"/>
-      <c r="AT25" s="386"/>
-      <c r="AU25" s="386"/>
-      <c r="AV25" s="386"/>
+      <c r="B25" s="387"/>
+      <c r="C25" s="387"/>
+      <c r="D25" s="387"/>
+      <c r="E25" s="387"/>
+      <c r="F25" s="387"/>
+      <c r="G25" s="387"/>
+      <c r="H25" s="387"/>
+      <c r="I25" s="387"/>
+      <c r="J25" s="387"/>
+      <c r="K25" s="387"/>
+      <c r="L25" s="387"/>
+      <c r="M25" s="387"/>
+      <c r="N25" s="387"/>
+      <c r="O25" s="387"/>
+      <c r="P25" s="387"/>
+      <c r="Q25" s="387"/>
+      <c r="R25" s="387"/>
+      <c r="S25" s="387"/>
+      <c r="T25" s="387"/>
+      <c r="U25" s="387"/>
+      <c r="V25" s="387"/>
+      <c r="W25" s="387"/>
+      <c r="X25" s="387"/>
+      <c r="Y25" s="387"/>
+      <c r="Z25" s="387"/>
+      <c r="AA25" s="387"/>
+      <c r="AB25" s="387"/>
+      <c r="AC25" s="387"/>
+      <c r="AD25" s="387"/>
+      <c r="AE25" s="387"/>
+      <c r="AF25" s="387"/>
+      <c r="AG25" s="387"/>
+      <c r="AH25" s="387"/>
+      <c r="AI25" s="387"/>
+      <c r="AJ25" s="387"/>
+      <c r="AK25" s="387"/>
+      <c r="AL25" s="387"/>
+      <c r="AM25" s="387"/>
+      <c r="AN25" s="387"/>
+      <c r="AO25" s="387"/>
+      <c r="AP25" s="387"/>
+      <c r="AQ25" s="387"/>
+      <c r="AR25" s="387"/>
+      <c r="AS25" s="387"/>
+      <c r="AT25" s="387"/>
+      <c r="AU25" s="387"/>
+      <c r="AV25" s="387"/>
       <c r="AW25" s="163"/>
     </row>
     <row r="26" spans="1:49" ht="13.5" customHeight="1">
       <c r="A26" s="21"/>
-      <c r="B26" s="386"/>
-      <c r="C26" s="386"/>
-      <c r="D26" s="386"/>
-      <c r="E26" s="386"/>
-      <c r="F26" s="386"/>
-      <c r="G26" s="386"/>
-      <c r="H26" s="386"/>
-      <c r="I26" s="386"/>
-      <c r="J26" s="386"/>
-      <c r="K26" s="386"/>
-      <c r="L26" s="386"/>
-      <c r="M26" s="386"/>
-      <c r="N26" s="386"/>
-      <c r="O26" s="386"/>
-      <c r="P26" s="386"/>
-      <c r="Q26" s="386"/>
-      <c r="R26" s="386"/>
-      <c r="S26" s="386"/>
-      <c r="T26" s="386"/>
-      <c r="U26" s="386"/>
-      <c r="V26" s="386"/>
-      <c r="W26" s="386"/>
-      <c r="X26" s="386"/>
-      <c r="Y26" s="386"/>
-      <c r="Z26" s="386"/>
-      <c r="AA26" s="386"/>
-      <c r="AB26" s="386"/>
-      <c r="AC26" s="386"/>
-      <c r="AD26" s="386"/>
-      <c r="AE26" s="386"/>
-      <c r="AF26" s="386"/>
-      <c r="AG26" s="386"/>
-      <c r="AH26" s="386"/>
-      <c r="AI26" s="386"/>
-      <c r="AJ26" s="386"/>
-      <c r="AK26" s="386"/>
-      <c r="AL26" s="386"/>
-      <c r="AM26" s="386"/>
-      <c r="AN26" s="386"/>
-      <c r="AO26" s="386"/>
-      <c r="AP26" s="386"/>
-      <c r="AQ26" s="386"/>
-      <c r="AR26" s="386"/>
-      <c r="AS26" s="386"/>
-      <c r="AT26" s="386"/>
-      <c r="AU26" s="386"/>
-      <c r="AV26" s="386"/>
+      <c r="B26" s="387"/>
+      <c r="C26" s="387"/>
+      <c r="D26" s="387"/>
+      <c r="E26" s="387"/>
+      <c r="F26" s="387"/>
+      <c r="G26" s="387"/>
+      <c r="H26" s="387"/>
+      <c r="I26" s="387"/>
+      <c r="J26" s="387"/>
+      <c r="K26" s="387"/>
+      <c r="L26" s="387"/>
+      <c r="M26" s="387"/>
+      <c r="N26" s="387"/>
+      <c r="O26" s="387"/>
+      <c r="P26" s="387"/>
+      <c r="Q26" s="387"/>
+      <c r="R26" s="387"/>
+      <c r="S26" s="387"/>
+      <c r="T26" s="387"/>
+      <c r="U26" s="387"/>
+      <c r="V26" s="387"/>
+      <c r="W26" s="387"/>
+      <c r="X26" s="387"/>
+      <c r="Y26" s="387"/>
+      <c r="Z26" s="387"/>
+      <c r="AA26" s="387"/>
+      <c r="AB26" s="387"/>
+      <c r="AC26" s="387"/>
+      <c r="AD26" s="387"/>
+      <c r="AE26" s="387"/>
+      <c r="AF26" s="387"/>
+      <c r="AG26" s="387"/>
+      <c r="AH26" s="387"/>
+      <c r="AI26" s="387"/>
+      <c r="AJ26" s="387"/>
+      <c r="AK26" s="387"/>
+      <c r="AL26" s="387"/>
+      <c r="AM26" s="387"/>
+      <c r="AN26" s="387"/>
+      <c r="AO26" s="387"/>
+      <c r="AP26" s="387"/>
+      <c r="AQ26" s="387"/>
+      <c r="AR26" s="387"/>
+      <c r="AS26" s="387"/>
+      <c r="AT26" s="387"/>
+      <c r="AU26" s="387"/>
+      <c r="AV26" s="387"/>
       <c r="AW26" s="163"/>
     </row>
     <row r="27" spans="1:49" ht="13.5" customHeight="1">
@@ -19656,187 +19653,187 @@
       <c r="AW40" s="168"/>
     </row>
     <row r="41" spans="1:49" s="19" customFormat="1" ht="16.95" customHeight="1" thickTop="1">
-      <c r="A41" s="278" t="s">
+      <c r="A41" s="279" t="s">
         <v>96</v>
       </c>
-      <c r="B41" s="279"/>
-      <c r="C41" s="279"/>
-      <c r="D41" s="279"/>
-      <c r="E41" s="279"/>
-      <c r="F41" s="279"/>
-      <c r="G41" s="279"/>
-      <c r="H41" s="279"/>
-      <c r="I41" s="280"/>
-      <c r="J41" s="287" t="s">
+      <c r="B41" s="280"/>
+      <c r="C41" s="280"/>
+      <c r="D41" s="280"/>
+      <c r="E41" s="280"/>
+      <c r="F41" s="280"/>
+      <c r="G41" s="280"/>
+      <c r="H41" s="280"/>
+      <c r="I41" s="281"/>
+      <c r="J41" s="288" t="s">
         <v>19</v>
       </c>
-      <c r="K41" s="279"/>
-      <c r="L41" s="279"/>
-      <c r="M41" s="279"/>
-      <c r="N41" s="279"/>
-      <c r="O41" s="280"/>
-      <c r="P41" s="287" t="s">
+      <c r="K41" s="280"/>
+      <c r="L41" s="280"/>
+      <c r="M41" s="280"/>
+      <c r="N41" s="280"/>
+      <c r="O41" s="281"/>
+      <c r="P41" s="288" t="s">
         <v>20</v>
       </c>
-      <c r="Q41" s="279"/>
-      <c r="R41" s="279"/>
-      <c r="S41" s="279"/>
-      <c r="T41" s="279"/>
-      <c r="U41" s="280"/>
-      <c r="V41" s="293" t="s">
+      <c r="Q41" s="280"/>
+      <c r="R41" s="280"/>
+      <c r="S41" s="280"/>
+      <c r="T41" s="280"/>
+      <c r="U41" s="281"/>
+      <c r="V41" s="294" t="s">
         <v>23</v>
       </c>
-      <c r="W41" s="294"/>
-      <c r="X41" s="294"/>
-      <c r="Y41" s="294"/>
-      <c r="Z41" s="295"/>
-      <c r="AA41" s="299" t="s">
+      <c r="W41" s="295"/>
+      <c r="X41" s="295"/>
+      <c r="Y41" s="295"/>
+      <c r="Z41" s="296"/>
+      <c r="AA41" s="300" t="s">
         <v>98</v>
       </c>
-      <c r="AB41" s="279"/>
-      <c r="AC41" s="279"/>
-      <c r="AD41" s="279"/>
-      <c r="AE41" s="279"/>
-      <c r="AF41" s="279"/>
-      <c r="AG41" s="279"/>
-      <c r="AH41" s="279"/>
-      <c r="AI41" s="279"/>
-      <c r="AJ41" s="279"/>
-      <c r="AK41" s="279"/>
-      <c r="AL41" s="280"/>
-      <c r="AM41" s="288" t="s">
+      <c r="AB41" s="280"/>
+      <c r="AC41" s="280"/>
+      <c r="AD41" s="280"/>
+      <c r="AE41" s="280"/>
+      <c r="AF41" s="280"/>
+      <c r="AG41" s="280"/>
+      <c r="AH41" s="280"/>
+      <c r="AI41" s="280"/>
+      <c r="AJ41" s="280"/>
+      <c r="AK41" s="280"/>
+      <c r="AL41" s="281"/>
+      <c r="AM41" s="289" t="s">
         <v>24</v>
       </c>
-      <c r="AN41" s="289"/>
-      <c r="AO41" s="301" t="s">
-        <v>161</v>
-      </c>
-      <c r="AP41" s="302"/>
-      <c r="AQ41" s="303"/>
-      <c r="AR41" s="288" t="s">
+      <c r="AN41" s="290"/>
+      <c r="AO41" s="302" t="s">
+        <v>157</v>
+      </c>
+      <c r="AP41" s="303"/>
+      <c r="AQ41" s="304"/>
+      <c r="AR41" s="289" t="s">
         <v>26</v>
       </c>
-      <c r="AS41" s="289"/>
-      <c r="AT41" s="290">
+      <c r="AS41" s="290"/>
+      <c r="AT41" s="291">
         <v>45209</v>
       </c>
-      <c r="AU41" s="291"/>
-      <c r="AV41" s="291"/>
-      <c r="AW41" s="292"/>
+      <c r="AU41" s="292"/>
+      <c r="AV41" s="292"/>
+      <c r="AW41" s="293"/>
     </row>
     <row r="42" spans="1:49" s="19" customFormat="1" ht="16.95" customHeight="1">
-      <c r="A42" s="281"/>
-      <c r="B42" s="282"/>
-      <c r="C42" s="282"/>
-      <c r="D42" s="282"/>
-      <c r="E42" s="282"/>
-      <c r="F42" s="282"/>
-      <c r="G42" s="282"/>
-      <c r="H42" s="282"/>
-      <c r="I42" s="283"/>
-      <c r="J42" s="281"/>
-      <c r="K42" s="282"/>
-      <c r="L42" s="282"/>
-      <c r="M42" s="282"/>
-      <c r="N42" s="282"/>
-      <c r="O42" s="283"/>
-      <c r="P42" s="281"/>
-      <c r="Q42" s="282"/>
-      <c r="R42" s="282"/>
-      <c r="S42" s="282"/>
-      <c r="T42" s="282"/>
-      <c r="U42" s="283"/>
-      <c r="V42" s="296"/>
-      <c r="W42" s="297"/>
-      <c r="X42" s="297"/>
-      <c r="Y42" s="297"/>
-      <c r="Z42" s="298"/>
-      <c r="AA42" s="300"/>
-      <c r="AB42" s="282"/>
-      <c r="AC42" s="282"/>
-      <c r="AD42" s="282"/>
-      <c r="AE42" s="282"/>
-      <c r="AF42" s="282"/>
-      <c r="AG42" s="282"/>
-      <c r="AH42" s="282"/>
-      <c r="AI42" s="282"/>
-      <c r="AJ42" s="282"/>
-      <c r="AK42" s="282"/>
-      <c r="AL42" s="283"/>
-      <c r="AM42" s="314" t="s">
+      <c r="A42" s="282"/>
+      <c r="B42" s="283"/>
+      <c r="C42" s="283"/>
+      <c r="D42" s="283"/>
+      <c r="E42" s="283"/>
+      <c r="F42" s="283"/>
+      <c r="G42" s="283"/>
+      <c r="H42" s="283"/>
+      <c r="I42" s="284"/>
+      <c r="J42" s="282"/>
+      <c r="K42" s="283"/>
+      <c r="L42" s="283"/>
+      <c r="M42" s="283"/>
+      <c r="N42" s="283"/>
+      <c r="O42" s="284"/>
+      <c r="P42" s="282"/>
+      <c r="Q42" s="283"/>
+      <c r="R42" s="283"/>
+      <c r="S42" s="283"/>
+      <c r="T42" s="283"/>
+      <c r="U42" s="284"/>
+      <c r="V42" s="297"/>
+      <c r="W42" s="298"/>
+      <c r="X42" s="298"/>
+      <c r="Y42" s="298"/>
+      <c r="Z42" s="299"/>
+      <c r="AA42" s="301"/>
+      <c r="AB42" s="283"/>
+      <c r="AC42" s="283"/>
+      <c r="AD42" s="283"/>
+      <c r="AE42" s="283"/>
+      <c r="AF42" s="283"/>
+      <c r="AG42" s="283"/>
+      <c r="AH42" s="283"/>
+      <c r="AI42" s="283"/>
+      <c r="AJ42" s="283"/>
+      <c r="AK42" s="283"/>
+      <c r="AL42" s="284"/>
+      <c r="AM42" s="315" t="s">
         <v>25</v>
       </c>
-      <c r="AN42" s="315"/>
-      <c r="AO42" s="316"/>
-      <c r="AP42" s="317"/>
-      <c r="AQ42" s="318"/>
-      <c r="AR42" s="314" t="s">
+      <c r="AN42" s="316"/>
+      <c r="AO42" s="317"/>
+      <c r="AP42" s="318"/>
+      <c r="AQ42" s="319"/>
+      <c r="AR42" s="315" t="s">
         <v>27</v>
       </c>
-      <c r="AS42" s="315"/>
-      <c r="AT42" s="319"/>
-      <c r="AU42" s="320"/>
-      <c r="AV42" s="320"/>
-      <c r="AW42" s="321"/>
+      <c r="AS42" s="316"/>
+      <c r="AT42" s="320"/>
+      <c r="AU42" s="321"/>
+      <c r="AV42" s="321"/>
+      <c r="AW42" s="322"/>
     </row>
     <row r="43" spans="1:49" ht="16.95" customHeight="1" thickBot="1">
-      <c r="A43" s="284"/>
-      <c r="B43" s="285"/>
-      <c r="C43" s="285"/>
-      <c r="D43" s="285"/>
-      <c r="E43" s="285"/>
-      <c r="F43" s="285"/>
-      <c r="G43" s="285"/>
-      <c r="H43" s="285"/>
-      <c r="I43" s="286"/>
-      <c r="J43" s="284"/>
-      <c r="K43" s="285"/>
-      <c r="L43" s="285"/>
-      <c r="M43" s="285"/>
-      <c r="N43" s="285"/>
-      <c r="O43" s="286"/>
-      <c r="P43" s="284"/>
-      <c r="Q43" s="285"/>
-      <c r="R43" s="285"/>
-      <c r="S43" s="285"/>
-      <c r="T43" s="285"/>
-      <c r="U43" s="286"/>
-      <c r="V43" s="304" t="s">
+      <c r="A43" s="285"/>
+      <c r="B43" s="286"/>
+      <c r="C43" s="286"/>
+      <c r="D43" s="286"/>
+      <c r="E43" s="286"/>
+      <c r="F43" s="286"/>
+      <c r="G43" s="286"/>
+      <c r="H43" s="286"/>
+      <c r="I43" s="287"/>
+      <c r="J43" s="285"/>
+      <c r="K43" s="286"/>
+      <c r="L43" s="286"/>
+      <c r="M43" s="286"/>
+      <c r="N43" s="286"/>
+      <c r="O43" s="287"/>
+      <c r="P43" s="285"/>
+      <c r="Q43" s="286"/>
+      <c r="R43" s="286"/>
+      <c r="S43" s="286"/>
+      <c r="T43" s="286"/>
+      <c r="U43" s="287"/>
+      <c r="V43" s="305" t="s">
         <v>28</v>
       </c>
-      <c r="W43" s="305"/>
-      <c r="X43" s="305"/>
-      <c r="Y43" s="305"/>
-      <c r="Z43" s="306"/>
-      <c r="AA43" s="307" t="s">
+      <c r="W43" s="306"/>
+      <c r="X43" s="306"/>
+      <c r="Y43" s="306"/>
+      <c r="Z43" s="307"/>
+      <c r="AA43" s="308" t="s">
         <v>127</v>
       </c>
-      <c r="AB43" s="308"/>
-      <c r="AC43" s="308"/>
-      <c r="AD43" s="308"/>
-      <c r="AE43" s="308"/>
-      <c r="AF43" s="308"/>
-      <c r="AG43" s="309"/>
-      <c r="AH43" s="310" t="s">
+      <c r="AB43" s="309"/>
+      <c r="AC43" s="309"/>
+      <c r="AD43" s="309"/>
+      <c r="AE43" s="309"/>
+      <c r="AF43" s="309"/>
+      <c r="AG43" s="310"/>
+      <c r="AH43" s="311" t="s">
         <v>29</v>
       </c>
-      <c r="AI43" s="311"/>
-      <c r="AJ43" s="311"/>
-      <c r="AK43" s="311"/>
-      <c r="AL43" s="312"/>
-      <c r="AM43" s="307" t="s">
+      <c r="AI43" s="312"/>
+      <c r="AJ43" s="312"/>
+      <c r="AK43" s="312"/>
+      <c r="AL43" s="313"/>
+      <c r="AM43" s="308" t="s">
         <v>128</v>
       </c>
-      <c r="AN43" s="308"/>
-      <c r="AO43" s="308"/>
-      <c r="AP43" s="308"/>
-      <c r="AQ43" s="308"/>
-      <c r="AR43" s="308"/>
-      <c r="AS43" s="308"/>
-      <c r="AT43" s="308"/>
-      <c r="AU43" s="308"/>
-      <c r="AV43" s="308"/>
-      <c r="AW43" s="313"/>
+      <c r="AN43" s="309"/>
+      <c r="AO43" s="309"/>
+      <c r="AP43" s="309"/>
+      <c r="AQ43" s="309"/>
+      <c r="AR43" s="309"/>
+      <c r="AS43" s="309"/>
+      <c r="AT43" s="309"/>
+      <c r="AU43" s="309"/>
+      <c r="AV43" s="309"/>
+      <c r="AW43" s="314"/>
     </row>
     <row r="44" spans="1:49" ht="13.5" customHeight="1" thickTop="1">
       <c r="A44" s="21"/>
@@ -19950,1658 +19947,1658 @@
     </row>
     <row r="47" spans="1:49" ht="13.5" customHeight="1">
       <c r="A47" s="21"/>
-      <c r="B47" s="387" t="s">
+      <c r="B47" s="388" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="388"/>
-      <c r="D47" s="345" t="s">
+      <c r="C47" s="389"/>
+      <c r="D47" s="346" t="s">
         <v>27</v>
       </c>
-      <c r="E47" s="346"/>
-      <c r="F47" s="346"/>
-      <c r="G47" s="346"/>
-      <c r="H47" s="347"/>
-      <c r="I47" s="387" t="s">
+      <c r="E47" s="347"/>
+      <c r="F47" s="347"/>
+      <c r="G47" s="347"/>
+      <c r="H47" s="348"/>
+      <c r="I47" s="388" t="s">
         <v>38</v>
       </c>
-      <c r="J47" s="388"/>
-      <c r="K47" s="388"/>
-      <c r="L47" s="388"/>
-      <c r="M47" s="388"/>
-      <c r="N47" s="388"/>
-      <c r="O47" s="388"/>
-      <c r="P47" s="388"/>
-      <c r="Q47" s="388"/>
-      <c r="R47" s="388"/>
-      <c r="S47" s="388"/>
-      <c r="T47" s="388"/>
-      <c r="U47" s="388"/>
-      <c r="V47" s="388"/>
-      <c r="W47" s="388"/>
-      <c r="X47" s="388"/>
-      <c r="Y47" s="388"/>
-      <c r="Z47" s="391"/>
-      <c r="AA47" s="345" t="s">
+      <c r="J47" s="389"/>
+      <c r="K47" s="389"/>
+      <c r="L47" s="389"/>
+      <c r="M47" s="389"/>
+      <c r="N47" s="389"/>
+      <c r="O47" s="389"/>
+      <c r="P47" s="389"/>
+      <c r="Q47" s="389"/>
+      <c r="R47" s="389"/>
+      <c r="S47" s="389"/>
+      <c r="T47" s="389"/>
+      <c r="U47" s="389"/>
+      <c r="V47" s="389"/>
+      <c r="W47" s="389"/>
+      <c r="X47" s="389"/>
+      <c r="Y47" s="389"/>
+      <c r="Z47" s="392"/>
+      <c r="AA47" s="346" t="s">
         <v>25</v>
       </c>
-      <c r="AB47" s="346"/>
-      <c r="AC47" s="346"/>
-      <c r="AD47" s="347"/>
-      <c r="AE47" s="351"/>
-      <c r="AF47" s="352"/>
-      <c r="AG47" s="352"/>
-      <c r="AH47" s="352"/>
-      <c r="AI47" s="352"/>
-      <c r="AJ47" s="352"/>
-      <c r="AK47" s="352"/>
-      <c r="AL47" s="352"/>
-      <c r="AM47" s="353"/>
-      <c r="AN47" s="354"/>
-      <c r="AO47" s="355"/>
-      <c r="AP47" s="355"/>
-      <c r="AQ47" s="355"/>
-      <c r="AR47" s="355"/>
-      <c r="AS47" s="355"/>
-      <c r="AT47" s="355"/>
-      <c r="AU47" s="355"/>
-      <c r="AV47" s="356"/>
+      <c r="AB47" s="347"/>
+      <c r="AC47" s="347"/>
+      <c r="AD47" s="348"/>
+      <c r="AE47" s="352"/>
+      <c r="AF47" s="353"/>
+      <c r="AG47" s="353"/>
+      <c r="AH47" s="353"/>
+      <c r="AI47" s="353"/>
+      <c r="AJ47" s="353"/>
+      <c r="AK47" s="353"/>
+      <c r="AL47" s="353"/>
+      <c r="AM47" s="354"/>
+      <c r="AN47" s="355"/>
+      <c r="AO47" s="356"/>
+      <c r="AP47" s="356"/>
+      <c r="AQ47" s="356"/>
+      <c r="AR47" s="356"/>
+      <c r="AS47" s="356"/>
+      <c r="AT47" s="356"/>
+      <c r="AU47" s="356"/>
+      <c r="AV47" s="357"/>
       <c r="AW47" s="163"/>
     </row>
     <row r="48" spans="1:49" ht="13.5" customHeight="1">
       <c r="A48" s="21"/>
-      <c r="B48" s="389"/>
-      <c r="C48" s="390"/>
-      <c r="D48" s="348"/>
-      <c r="E48" s="349"/>
-      <c r="F48" s="349"/>
-      <c r="G48" s="349"/>
-      <c r="H48" s="350"/>
-      <c r="I48" s="389"/>
-      <c r="J48" s="390"/>
-      <c r="K48" s="390"/>
-      <c r="L48" s="390"/>
-      <c r="M48" s="390"/>
-      <c r="N48" s="390"/>
-      <c r="O48" s="390"/>
-      <c r="P48" s="390"/>
-      <c r="Q48" s="390"/>
-      <c r="R48" s="390"/>
-      <c r="S48" s="390"/>
-      <c r="T48" s="390"/>
-      <c r="U48" s="390"/>
-      <c r="V48" s="390"/>
-      <c r="W48" s="390"/>
-      <c r="X48" s="390"/>
-      <c r="Y48" s="390"/>
-      <c r="Z48" s="392"/>
-      <c r="AA48" s="348"/>
-      <c r="AB48" s="349"/>
-      <c r="AC48" s="349"/>
-      <c r="AD48" s="350"/>
-      <c r="AE48" s="351" t="s">
+      <c r="B48" s="390"/>
+      <c r="C48" s="391"/>
+      <c r="D48" s="349"/>
+      <c r="E48" s="350"/>
+      <c r="F48" s="350"/>
+      <c r="G48" s="350"/>
+      <c r="H48" s="351"/>
+      <c r="I48" s="390"/>
+      <c r="J48" s="391"/>
+      <c r="K48" s="391"/>
+      <c r="L48" s="391"/>
+      <c r="M48" s="391"/>
+      <c r="N48" s="391"/>
+      <c r="O48" s="391"/>
+      <c r="P48" s="391"/>
+      <c r="Q48" s="391"/>
+      <c r="R48" s="391"/>
+      <c r="S48" s="391"/>
+      <c r="T48" s="391"/>
+      <c r="U48" s="391"/>
+      <c r="V48" s="391"/>
+      <c r="W48" s="391"/>
+      <c r="X48" s="391"/>
+      <c r="Y48" s="391"/>
+      <c r="Z48" s="393"/>
+      <c r="AA48" s="349"/>
+      <c r="AB48" s="350"/>
+      <c r="AC48" s="350"/>
+      <c r="AD48" s="351"/>
+      <c r="AE48" s="352" t="s">
         <v>39</v>
       </c>
-      <c r="AF48" s="352"/>
-      <c r="AG48" s="352"/>
-      <c r="AH48" s="352"/>
-      <c r="AI48" s="353"/>
-      <c r="AJ48" s="351" t="s">
+      <c r="AF48" s="353"/>
+      <c r="AG48" s="353"/>
+      <c r="AH48" s="353"/>
+      <c r="AI48" s="354"/>
+      <c r="AJ48" s="352" t="s">
         <v>40</v>
       </c>
-      <c r="AK48" s="352"/>
-      <c r="AL48" s="352"/>
-      <c r="AM48" s="353"/>
-      <c r="AN48" s="351" t="s">
+      <c r="AK48" s="353"/>
+      <c r="AL48" s="353"/>
+      <c r="AM48" s="354"/>
+      <c r="AN48" s="352" t="s">
         <v>39</v>
       </c>
-      <c r="AO48" s="352"/>
-      <c r="AP48" s="352"/>
-      <c r="AQ48" s="352"/>
-      <c r="AR48" s="353"/>
-      <c r="AS48" s="351" t="s">
+      <c r="AO48" s="353"/>
+      <c r="AP48" s="353"/>
+      <c r="AQ48" s="353"/>
+      <c r="AR48" s="354"/>
+      <c r="AS48" s="352" t="s">
         <v>40</v>
       </c>
-      <c r="AT48" s="352"/>
-      <c r="AU48" s="352"/>
-      <c r="AV48" s="353"/>
+      <c r="AT48" s="353"/>
+      <c r="AU48" s="353"/>
+      <c r="AV48" s="354"/>
       <c r="AW48" s="163"/>
     </row>
     <row r="49" spans="1:49" ht="13.5" customHeight="1">
       <c r="A49" s="21"/>
-      <c r="B49" s="365">
+      <c r="B49" s="366">
         <v>1</v>
       </c>
-      <c r="C49" s="366"/>
-      <c r="D49" s="369">
+      <c r="C49" s="367"/>
+      <c r="D49" s="370">
         <v>45209</v>
       </c>
-      <c r="E49" s="370"/>
-      <c r="F49" s="370"/>
-      <c r="G49" s="370"/>
-      <c r="H49" s="371"/>
-      <c r="I49" s="375" t="s">
+      <c r="E49" s="371"/>
+      <c r="F49" s="371"/>
+      <c r="G49" s="371"/>
+      <c r="H49" s="372"/>
+      <c r="I49" s="376" t="s">
         <v>41</v>
       </c>
-      <c r="J49" s="376"/>
-      <c r="K49" s="376"/>
-      <c r="L49" s="376"/>
-      <c r="M49" s="376"/>
-      <c r="N49" s="376"/>
-      <c r="O49" s="376"/>
-      <c r="P49" s="376"/>
-      <c r="Q49" s="376"/>
-      <c r="R49" s="376"/>
-      <c r="S49" s="376"/>
-      <c r="T49" s="376"/>
-      <c r="U49" s="376"/>
-      <c r="V49" s="376"/>
-      <c r="W49" s="376"/>
-      <c r="X49" s="376"/>
-      <c r="Y49" s="376"/>
-      <c r="Z49" s="377"/>
-      <c r="AA49" s="357" t="s">
-        <v>161</v>
-      </c>
-      <c r="AB49" s="358"/>
-      <c r="AC49" s="358"/>
-      <c r="AD49" s="359"/>
-      <c r="AE49" s="369"/>
-      <c r="AF49" s="370"/>
-      <c r="AG49" s="370"/>
-      <c r="AH49" s="370"/>
-      <c r="AI49" s="371"/>
-      <c r="AJ49" s="357"/>
-      <c r="AK49" s="358"/>
-      <c r="AL49" s="358"/>
-      <c r="AM49" s="359"/>
-      <c r="AN49" s="369"/>
-      <c r="AO49" s="370"/>
-      <c r="AP49" s="370"/>
-      <c r="AQ49" s="370"/>
-      <c r="AR49" s="371"/>
-      <c r="AS49" s="357"/>
-      <c r="AT49" s="358"/>
-      <c r="AU49" s="358"/>
-      <c r="AV49" s="359"/>
+      <c r="J49" s="377"/>
+      <c r="K49" s="377"/>
+      <c r="L49" s="377"/>
+      <c r="M49" s="377"/>
+      <c r="N49" s="377"/>
+      <c r="O49" s="377"/>
+      <c r="P49" s="377"/>
+      <c r="Q49" s="377"/>
+      <c r="R49" s="377"/>
+      <c r="S49" s="377"/>
+      <c r="T49" s="377"/>
+      <c r="U49" s="377"/>
+      <c r="V49" s="377"/>
+      <c r="W49" s="377"/>
+      <c r="X49" s="377"/>
+      <c r="Y49" s="377"/>
+      <c r="Z49" s="378"/>
+      <c r="AA49" s="358" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB49" s="359"/>
+      <c r="AC49" s="359"/>
+      <c r="AD49" s="360"/>
+      <c r="AE49" s="370"/>
+      <c r="AF49" s="371"/>
+      <c r="AG49" s="371"/>
+      <c r="AH49" s="371"/>
+      <c r="AI49" s="372"/>
+      <c r="AJ49" s="358"/>
+      <c r="AK49" s="359"/>
+      <c r="AL49" s="359"/>
+      <c r="AM49" s="360"/>
+      <c r="AN49" s="370"/>
+      <c r="AO49" s="371"/>
+      <c r="AP49" s="371"/>
+      <c r="AQ49" s="371"/>
+      <c r="AR49" s="372"/>
+      <c r="AS49" s="358"/>
+      <c r="AT49" s="359"/>
+      <c r="AU49" s="359"/>
+      <c r="AV49" s="360"/>
       <c r="AW49" s="163"/>
     </row>
     <row r="50" spans="1:49" ht="13.5" customHeight="1">
       <c r="A50" s="21"/>
-      <c r="B50" s="367"/>
-      <c r="C50" s="368"/>
-      <c r="D50" s="372"/>
-      <c r="E50" s="373"/>
-      <c r="F50" s="373"/>
-      <c r="G50" s="373"/>
-      <c r="H50" s="374"/>
-      <c r="I50" s="378"/>
-      <c r="J50" s="379"/>
-      <c r="K50" s="379"/>
-      <c r="L50" s="379"/>
-      <c r="M50" s="379"/>
-      <c r="N50" s="379"/>
-      <c r="O50" s="379"/>
-      <c r="P50" s="379"/>
-      <c r="Q50" s="379"/>
-      <c r="R50" s="379"/>
-      <c r="S50" s="379"/>
-      <c r="T50" s="379"/>
-      <c r="U50" s="379"/>
-      <c r="V50" s="379"/>
-      <c r="W50" s="379"/>
-      <c r="X50" s="379"/>
-      <c r="Y50" s="379"/>
-      <c r="Z50" s="380"/>
-      <c r="AA50" s="360"/>
-      <c r="AB50" s="361"/>
-      <c r="AC50" s="361"/>
-      <c r="AD50" s="362"/>
-      <c r="AE50" s="372"/>
-      <c r="AF50" s="373"/>
-      <c r="AG50" s="373"/>
-      <c r="AH50" s="373"/>
-      <c r="AI50" s="374"/>
-      <c r="AJ50" s="360"/>
-      <c r="AK50" s="361"/>
-      <c r="AL50" s="361"/>
-      <c r="AM50" s="362"/>
-      <c r="AN50" s="372"/>
-      <c r="AO50" s="373"/>
-      <c r="AP50" s="373"/>
-      <c r="AQ50" s="373"/>
-      <c r="AR50" s="374"/>
-      <c r="AS50" s="360"/>
-      <c r="AT50" s="361"/>
-      <c r="AU50" s="361"/>
-      <c r="AV50" s="362"/>
+      <c r="B50" s="368"/>
+      <c r="C50" s="369"/>
+      <c r="D50" s="373"/>
+      <c r="E50" s="374"/>
+      <c r="F50" s="374"/>
+      <c r="G50" s="374"/>
+      <c r="H50" s="375"/>
+      <c r="I50" s="379"/>
+      <c r="J50" s="380"/>
+      <c r="K50" s="380"/>
+      <c r="L50" s="380"/>
+      <c r="M50" s="380"/>
+      <c r="N50" s="380"/>
+      <c r="O50" s="380"/>
+      <c r="P50" s="380"/>
+      <c r="Q50" s="380"/>
+      <c r="R50" s="380"/>
+      <c r="S50" s="380"/>
+      <c r="T50" s="380"/>
+      <c r="U50" s="380"/>
+      <c r="V50" s="380"/>
+      <c r="W50" s="380"/>
+      <c r="X50" s="380"/>
+      <c r="Y50" s="380"/>
+      <c r="Z50" s="381"/>
+      <c r="AA50" s="361"/>
+      <c r="AB50" s="362"/>
+      <c r="AC50" s="362"/>
+      <c r="AD50" s="363"/>
+      <c r="AE50" s="373"/>
+      <c r="AF50" s="374"/>
+      <c r="AG50" s="374"/>
+      <c r="AH50" s="374"/>
+      <c r="AI50" s="375"/>
+      <c r="AJ50" s="361"/>
+      <c r="AK50" s="362"/>
+      <c r="AL50" s="362"/>
+      <c r="AM50" s="363"/>
+      <c r="AN50" s="373"/>
+      <c r="AO50" s="374"/>
+      <c r="AP50" s="374"/>
+      <c r="AQ50" s="374"/>
+      <c r="AR50" s="375"/>
+      <c r="AS50" s="361"/>
+      <c r="AT50" s="362"/>
+      <c r="AU50" s="362"/>
+      <c r="AV50" s="363"/>
       <c r="AW50" s="163"/>
     </row>
     <row r="51" spans="1:49" ht="13.5" customHeight="1">
       <c r="A51" s="21"/>
-      <c r="B51" s="322"/>
-      <c r="C51" s="323"/>
-      <c r="D51" s="324"/>
-      <c r="E51" s="325"/>
-      <c r="F51" s="325"/>
-      <c r="G51" s="325"/>
-      <c r="H51" s="326"/>
-      <c r="I51" s="330"/>
-      <c r="J51" s="331"/>
-      <c r="K51" s="331"/>
-      <c r="L51" s="331"/>
-      <c r="M51" s="331"/>
-      <c r="N51" s="331"/>
-      <c r="O51" s="331"/>
-      <c r="P51" s="331"/>
-      <c r="Q51" s="331"/>
-      <c r="R51" s="331"/>
-      <c r="S51" s="331"/>
-      <c r="T51" s="331"/>
-      <c r="U51" s="331"/>
-      <c r="V51" s="331"/>
-      <c r="W51" s="331"/>
-      <c r="X51" s="331"/>
-      <c r="Y51" s="331"/>
-      <c r="Z51" s="332"/>
-      <c r="AA51" s="333"/>
-      <c r="AB51" s="334"/>
-      <c r="AC51" s="334"/>
-      <c r="AD51" s="335"/>
-      <c r="AE51" s="336"/>
-      <c r="AF51" s="337"/>
-      <c r="AG51" s="337"/>
-      <c r="AH51" s="337"/>
-      <c r="AI51" s="338"/>
-      <c r="AJ51" s="333"/>
-      <c r="AK51" s="334"/>
-      <c r="AL51" s="334"/>
-      <c r="AM51" s="335"/>
-      <c r="AN51" s="336"/>
-      <c r="AO51" s="337"/>
-      <c r="AP51" s="337"/>
-      <c r="AQ51" s="337"/>
-      <c r="AR51" s="338"/>
-      <c r="AS51" s="333"/>
-      <c r="AT51" s="334"/>
-      <c r="AU51" s="334"/>
-      <c r="AV51" s="335"/>
+      <c r="B51" s="323"/>
+      <c r="C51" s="324"/>
+      <c r="D51" s="325"/>
+      <c r="E51" s="326"/>
+      <c r="F51" s="326"/>
+      <c r="G51" s="326"/>
+      <c r="H51" s="327"/>
+      <c r="I51" s="331"/>
+      <c r="J51" s="332"/>
+      <c r="K51" s="332"/>
+      <c r="L51" s="332"/>
+      <c r="M51" s="332"/>
+      <c r="N51" s="332"/>
+      <c r="O51" s="332"/>
+      <c r="P51" s="332"/>
+      <c r="Q51" s="332"/>
+      <c r="R51" s="332"/>
+      <c r="S51" s="332"/>
+      <c r="T51" s="332"/>
+      <c r="U51" s="332"/>
+      <c r="V51" s="332"/>
+      <c r="W51" s="332"/>
+      <c r="X51" s="332"/>
+      <c r="Y51" s="332"/>
+      <c r="Z51" s="333"/>
+      <c r="AA51" s="334"/>
+      <c r="AB51" s="335"/>
+      <c r="AC51" s="335"/>
+      <c r="AD51" s="336"/>
+      <c r="AE51" s="337"/>
+      <c r="AF51" s="338"/>
+      <c r="AG51" s="338"/>
+      <c r="AH51" s="338"/>
+      <c r="AI51" s="339"/>
+      <c r="AJ51" s="334"/>
+      <c r="AK51" s="335"/>
+      <c r="AL51" s="335"/>
+      <c r="AM51" s="336"/>
+      <c r="AN51" s="337"/>
+      <c r="AO51" s="338"/>
+      <c r="AP51" s="338"/>
+      <c r="AQ51" s="338"/>
+      <c r="AR51" s="339"/>
+      <c r="AS51" s="334"/>
+      <c r="AT51" s="335"/>
+      <c r="AU51" s="335"/>
+      <c r="AV51" s="336"/>
       <c r="AW51" s="163"/>
     </row>
     <row r="52" spans="1:49" ht="13.5" customHeight="1">
       <c r="A52" s="21"/>
-      <c r="B52" s="268"/>
-      <c r="C52" s="269"/>
-      <c r="D52" s="327"/>
-      <c r="E52" s="328"/>
-      <c r="F52" s="328"/>
-      <c r="G52" s="328"/>
-      <c r="H52" s="329"/>
-      <c r="I52" s="270"/>
-      <c r="J52" s="271"/>
-      <c r="K52" s="271"/>
-      <c r="L52" s="271"/>
-      <c r="M52" s="271"/>
-      <c r="N52" s="271"/>
-      <c r="O52" s="271"/>
-      <c r="P52" s="271"/>
-      <c r="Q52" s="271"/>
-      <c r="R52" s="271"/>
-      <c r="S52" s="271"/>
-      <c r="T52" s="271"/>
-      <c r="U52" s="271"/>
-      <c r="V52" s="271"/>
-      <c r="W52" s="271"/>
-      <c r="X52" s="271"/>
-      <c r="Y52" s="271"/>
-      <c r="Z52" s="272"/>
-      <c r="AA52" s="262"/>
-      <c r="AB52" s="263"/>
-      <c r="AC52" s="263"/>
-      <c r="AD52" s="264"/>
-      <c r="AE52" s="256"/>
-      <c r="AF52" s="257"/>
-      <c r="AG52" s="257"/>
-      <c r="AH52" s="257"/>
-      <c r="AI52" s="258"/>
-      <c r="AJ52" s="262"/>
-      <c r="AK52" s="263"/>
-      <c r="AL52" s="263"/>
-      <c r="AM52" s="264"/>
-      <c r="AN52" s="256"/>
-      <c r="AO52" s="257"/>
-      <c r="AP52" s="257"/>
-      <c r="AQ52" s="257"/>
-      <c r="AR52" s="258"/>
-      <c r="AS52" s="262"/>
-      <c r="AT52" s="263"/>
-      <c r="AU52" s="263"/>
-      <c r="AV52" s="264"/>
+      <c r="B52" s="269"/>
+      <c r="C52" s="270"/>
+      <c r="D52" s="328"/>
+      <c r="E52" s="329"/>
+      <c r="F52" s="329"/>
+      <c r="G52" s="329"/>
+      <c r="H52" s="330"/>
+      <c r="I52" s="271"/>
+      <c r="J52" s="272"/>
+      <c r="K52" s="272"/>
+      <c r="L52" s="272"/>
+      <c r="M52" s="272"/>
+      <c r="N52" s="272"/>
+      <c r="O52" s="272"/>
+      <c r="P52" s="272"/>
+      <c r="Q52" s="272"/>
+      <c r="R52" s="272"/>
+      <c r="S52" s="272"/>
+      <c r="T52" s="272"/>
+      <c r="U52" s="272"/>
+      <c r="V52" s="272"/>
+      <c r="W52" s="272"/>
+      <c r="X52" s="272"/>
+      <c r="Y52" s="272"/>
+      <c r="Z52" s="273"/>
+      <c r="AA52" s="263"/>
+      <c r="AB52" s="264"/>
+      <c r="AC52" s="264"/>
+      <c r="AD52" s="265"/>
+      <c r="AE52" s="257"/>
+      <c r="AF52" s="258"/>
+      <c r="AG52" s="258"/>
+      <c r="AH52" s="258"/>
+      <c r="AI52" s="259"/>
+      <c r="AJ52" s="263"/>
+      <c r="AK52" s="264"/>
+      <c r="AL52" s="264"/>
+      <c r="AM52" s="265"/>
+      <c r="AN52" s="257"/>
+      <c r="AO52" s="258"/>
+      <c r="AP52" s="258"/>
+      <c r="AQ52" s="258"/>
+      <c r="AR52" s="259"/>
+      <c r="AS52" s="263"/>
+      <c r="AT52" s="264"/>
+      <c r="AU52" s="264"/>
+      <c r="AV52" s="265"/>
       <c r="AW52" s="163"/>
     </row>
     <row r="53" spans="1:49" ht="13.5" customHeight="1">
       <c r="A53" s="21"/>
-      <c r="B53" s="268"/>
-      <c r="C53" s="269"/>
-      <c r="D53" s="256"/>
-      <c r="E53" s="257"/>
-      <c r="F53" s="257"/>
-      <c r="G53" s="257"/>
-      <c r="H53" s="258"/>
-      <c r="I53" s="270"/>
-      <c r="J53" s="271"/>
-      <c r="K53" s="271"/>
-      <c r="L53" s="271"/>
-      <c r="M53" s="271"/>
-      <c r="N53" s="271"/>
-      <c r="O53" s="271"/>
-      <c r="P53" s="271"/>
-      <c r="Q53" s="271"/>
-      <c r="R53" s="271"/>
-      <c r="S53" s="271"/>
-      <c r="T53" s="271"/>
-      <c r="U53" s="271"/>
-      <c r="V53" s="271"/>
-      <c r="W53" s="271"/>
-      <c r="X53" s="271"/>
-      <c r="Y53" s="271"/>
-      <c r="Z53" s="272"/>
-      <c r="AA53" s="262"/>
-      <c r="AB53" s="263"/>
-      <c r="AC53" s="263"/>
-      <c r="AD53" s="264"/>
-      <c r="AE53" s="256"/>
-      <c r="AF53" s="257"/>
-      <c r="AG53" s="257"/>
-      <c r="AH53" s="257"/>
-      <c r="AI53" s="258"/>
-      <c r="AJ53" s="262"/>
-      <c r="AK53" s="263"/>
-      <c r="AL53" s="263"/>
-      <c r="AM53" s="264"/>
-      <c r="AN53" s="256"/>
-      <c r="AO53" s="257"/>
-      <c r="AP53" s="257"/>
-      <c r="AQ53" s="257"/>
-      <c r="AR53" s="258"/>
-      <c r="AS53" s="262"/>
-      <c r="AT53" s="263"/>
-      <c r="AU53" s="263"/>
-      <c r="AV53" s="264"/>
+      <c r="B53" s="269"/>
+      <c r="C53" s="270"/>
+      <c r="D53" s="257"/>
+      <c r="E53" s="258"/>
+      <c r="F53" s="258"/>
+      <c r="G53" s="258"/>
+      <c r="H53" s="259"/>
+      <c r="I53" s="271"/>
+      <c r="J53" s="272"/>
+      <c r="K53" s="272"/>
+      <c r="L53" s="272"/>
+      <c r="M53" s="272"/>
+      <c r="N53" s="272"/>
+      <c r="O53" s="272"/>
+      <c r="P53" s="272"/>
+      <c r="Q53" s="272"/>
+      <c r="R53" s="272"/>
+      <c r="S53" s="272"/>
+      <c r="T53" s="272"/>
+      <c r="U53" s="272"/>
+      <c r="V53" s="272"/>
+      <c r="W53" s="272"/>
+      <c r="X53" s="272"/>
+      <c r="Y53" s="272"/>
+      <c r="Z53" s="273"/>
+      <c r="AA53" s="263"/>
+      <c r="AB53" s="264"/>
+      <c r="AC53" s="264"/>
+      <c r="AD53" s="265"/>
+      <c r="AE53" s="257"/>
+      <c r="AF53" s="258"/>
+      <c r="AG53" s="258"/>
+      <c r="AH53" s="258"/>
+      <c r="AI53" s="259"/>
+      <c r="AJ53" s="263"/>
+      <c r="AK53" s="264"/>
+      <c r="AL53" s="264"/>
+      <c r="AM53" s="265"/>
+      <c r="AN53" s="257"/>
+      <c r="AO53" s="258"/>
+      <c r="AP53" s="258"/>
+      <c r="AQ53" s="258"/>
+      <c r="AR53" s="259"/>
+      <c r="AS53" s="263"/>
+      <c r="AT53" s="264"/>
+      <c r="AU53" s="264"/>
+      <c r="AV53" s="265"/>
       <c r="AW53" s="163"/>
     </row>
     <row r="54" spans="1:49" ht="13.5" customHeight="1">
       <c r="A54" s="21"/>
-      <c r="B54" s="268"/>
-      <c r="C54" s="269"/>
-      <c r="D54" s="256"/>
-      <c r="E54" s="257"/>
-      <c r="F54" s="257"/>
-      <c r="G54" s="257"/>
-      <c r="H54" s="258"/>
-      <c r="I54" s="270"/>
-      <c r="J54" s="271"/>
-      <c r="K54" s="271"/>
-      <c r="L54" s="271"/>
-      <c r="M54" s="271"/>
-      <c r="N54" s="271"/>
-      <c r="O54" s="271"/>
-      <c r="P54" s="271"/>
-      <c r="Q54" s="271"/>
-      <c r="R54" s="271"/>
-      <c r="S54" s="271"/>
-      <c r="T54" s="271"/>
-      <c r="U54" s="271"/>
-      <c r="V54" s="271"/>
-      <c r="W54" s="271"/>
-      <c r="X54" s="271"/>
-      <c r="Y54" s="271"/>
-      <c r="Z54" s="272"/>
-      <c r="AA54" s="262"/>
-      <c r="AB54" s="263"/>
-      <c r="AC54" s="263"/>
-      <c r="AD54" s="264"/>
-      <c r="AE54" s="256"/>
-      <c r="AF54" s="257"/>
-      <c r="AG54" s="257"/>
-      <c r="AH54" s="257"/>
-      <c r="AI54" s="258"/>
-      <c r="AJ54" s="262"/>
-      <c r="AK54" s="263"/>
-      <c r="AL54" s="263"/>
-      <c r="AM54" s="264"/>
-      <c r="AN54" s="256"/>
-      <c r="AO54" s="257"/>
-      <c r="AP54" s="257"/>
-      <c r="AQ54" s="257"/>
-      <c r="AR54" s="258"/>
-      <c r="AS54" s="262"/>
-      <c r="AT54" s="263"/>
-      <c r="AU54" s="263"/>
-      <c r="AV54" s="264"/>
+      <c r="B54" s="269"/>
+      <c r="C54" s="270"/>
+      <c r="D54" s="257"/>
+      <c r="E54" s="258"/>
+      <c r="F54" s="258"/>
+      <c r="G54" s="258"/>
+      <c r="H54" s="259"/>
+      <c r="I54" s="271"/>
+      <c r="J54" s="272"/>
+      <c r="K54" s="272"/>
+      <c r="L54" s="272"/>
+      <c r="M54" s="272"/>
+      <c r="N54" s="272"/>
+      <c r="O54" s="272"/>
+      <c r="P54" s="272"/>
+      <c r="Q54" s="272"/>
+      <c r="R54" s="272"/>
+      <c r="S54" s="272"/>
+      <c r="T54" s="272"/>
+      <c r="U54" s="272"/>
+      <c r="V54" s="272"/>
+      <c r="W54" s="272"/>
+      <c r="X54" s="272"/>
+      <c r="Y54" s="272"/>
+      <c r="Z54" s="273"/>
+      <c r="AA54" s="263"/>
+      <c r="AB54" s="264"/>
+      <c r="AC54" s="264"/>
+      <c r="AD54" s="265"/>
+      <c r="AE54" s="257"/>
+      <c r="AF54" s="258"/>
+      <c r="AG54" s="258"/>
+      <c r="AH54" s="258"/>
+      <c r="AI54" s="259"/>
+      <c r="AJ54" s="263"/>
+      <c r="AK54" s="264"/>
+      <c r="AL54" s="264"/>
+      <c r="AM54" s="265"/>
+      <c r="AN54" s="257"/>
+      <c r="AO54" s="258"/>
+      <c r="AP54" s="258"/>
+      <c r="AQ54" s="258"/>
+      <c r="AR54" s="259"/>
+      <c r="AS54" s="263"/>
+      <c r="AT54" s="264"/>
+      <c r="AU54" s="264"/>
+      <c r="AV54" s="265"/>
       <c r="AW54" s="163"/>
     </row>
     <row r="55" spans="1:49" ht="13.5" customHeight="1">
       <c r="A55" s="21"/>
-      <c r="B55" s="363"/>
-      <c r="C55" s="364"/>
-      <c r="D55" s="342"/>
-      <c r="E55" s="343"/>
-      <c r="F55" s="343"/>
-      <c r="G55" s="343"/>
-      <c r="H55" s="344"/>
-      <c r="I55" s="381"/>
-      <c r="J55" s="382"/>
-      <c r="K55" s="382"/>
-      <c r="L55" s="382"/>
-      <c r="M55" s="382"/>
-      <c r="N55" s="382"/>
-      <c r="O55" s="382"/>
-      <c r="P55" s="382"/>
-      <c r="Q55" s="382"/>
-      <c r="R55" s="382"/>
-      <c r="S55" s="382"/>
-      <c r="T55" s="382"/>
-      <c r="U55" s="382"/>
-      <c r="V55" s="382"/>
-      <c r="W55" s="382"/>
-      <c r="X55" s="382"/>
-      <c r="Y55" s="382"/>
-      <c r="Z55" s="383"/>
-      <c r="AA55" s="339"/>
-      <c r="AB55" s="340"/>
-      <c r="AC55" s="340"/>
-      <c r="AD55" s="341"/>
-      <c r="AE55" s="342"/>
-      <c r="AF55" s="343"/>
-      <c r="AG55" s="343"/>
-      <c r="AH55" s="343"/>
-      <c r="AI55" s="344"/>
-      <c r="AJ55" s="339"/>
-      <c r="AK55" s="340"/>
-      <c r="AL55" s="340"/>
-      <c r="AM55" s="341"/>
-      <c r="AN55" s="342"/>
-      <c r="AO55" s="343"/>
-      <c r="AP55" s="343"/>
-      <c r="AQ55" s="343"/>
-      <c r="AR55" s="344"/>
-      <c r="AS55" s="339"/>
-      <c r="AT55" s="340"/>
-      <c r="AU55" s="340"/>
-      <c r="AV55" s="341"/>
+      <c r="B55" s="364"/>
+      <c r="C55" s="365"/>
+      <c r="D55" s="343"/>
+      <c r="E55" s="344"/>
+      <c r="F55" s="344"/>
+      <c r="G55" s="344"/>
+      <c r="H55" s="345"/>
+      <c r="I55" s="382"/>
+      <c r="J55" s="383"/>
+      <c r="K55" s="383"/>
+      <c r="L55" s="383"/>
+      <c r="M55" s="383"/>
+      <c r="N55" s="383"/>
+      <c r="O55" s="383"/>
+      <c r="P55" s="383"/>
+      <c r="Q55" s="383"/>
+      <c r="R55" s="383"/>
+      <c r="S55" s="383"/>
+      <c r="T55" s="383"/>
+      <c r="U55" s="383"/>
+      <c r="V55" s="383"/>
+      <c r="W55" s="383"/>
+      <c r="X55" s="383"/>
+      <c r="Y55" s="383"/>
+      <c r="Z55" s="384"/>
+      <c r="AA55" s="340"/>
+      <c r="AB55" s="341"/>
+      <c r="AC55" s="341"/>
+      <c r="AD55" s="342"/>
+      <c r="AE55" s="343"/>
+      <c r="AF55" s="344"/>
+      <c r="AG55" s="344"/>
+      <c r="AH55" s="344"/>
+      <c r="AI55" s="345"/>
+      <c r="AJ55" s="340"/>
+      <c r="AK55" s="341"/>
+      <c r="AL55" s="341"/>
+      <c r="AM55" s="342"/>
+      <c r="AN55" s="343"/>
+      <c r="AO55" s="344"/>
+      <c r="AP55" s="344"/>
+      <c r="AQ55" s="344"/>
+      <c r="AR55" s="345"/>
+      <c r="AS55" s="340"/>
+      <c r="AT55" s="341"/>
+      <c r="AU55" s="341"/>
+      <c r="AV55" s="342"/>
       <c r="AW55" s="163"/>
     </row>
     <row r="56" spans="1:49" ht="13.5" customHeight="1">
       <c r="A56" s="21"/>
-      <c r="B56" s="363"/>
-      <c r="C56" s="364"/>
-      <c r="D56" s="342"/>
-      <c r="E56" s="343"/>
-      <c r="F56" s="343"/>
-      <c r="G56" s="343"/>
-      <c r="H56" s="344"/>
-      <c r="I56" s="381"/>
-      <c r="J56" s="382"/>
-      <c r="K56" s="382"/>
-      <c r="L56" s="382"/>
-      <c r="M56" s="382"/>
-      <c r="N56" s="382"/>
-      <c r="O56" s="382"/>
-      <c r="P56" s="382"/>
-      <c r="Q56" s="382"/>
-      <c r="R56" s="382"/>
-      <c r="S56" s="382"/>
-      <c r="T56" s="382"/>
-      <c r="U56" s="382"/>
-      <c r="V56" s="382"/>
-      <c r="W56" s="382"/>
-      <c r="X56" s="382"/>
-      <c r="Y56" s="382"/>
-      <c r="Z56" s="383"/>
-      <c r="AA56" s="339"/>
-      <c r="AB56" s="340"/>
-      <c r="AC56" s="340"/>
-      <c r="AD56" s="341"/>
-      <c r="AE56" s="342"/>
-      <c r="AF56" s="343"/>
-      <c r="AG56" s="343"/>
-      <c r="AH56" s="343"/>
-      <c r="AI56" s="344"/>
-      <c r="AJ56" s="339"/>
-      <c r="AK56" s="340"/>
-      <c r="AL56" s="340"/>
-      <c r="AM56" s="341"/>
-      <c r="AN56" s="342"/>
-      <c r="AO56" s="343"/>
-      <c r="AP56" s="343"/>
-      <c r="AQ56" s="343"/>
-      <c r="AR56" s="344"/>
-      <c r="AS56" s="339"/>
-      <c r="AT56" s="340"/>
-      <c r="AU56" s="340"/>
-      <c r="AV56" s="341"/>
+      <c r="B56" s="364"/>
+      <c r="C56" s="365"/>
+      <c r="D56" s="343"/>
+      <c r="E56" s="344"/>
+      <c r="F56" s="344"/>
+      <c r="G56" s="344"/>
+      <c r="H56" s="345"/>
+      <c r="I56" s="382"/>
+      <c r="J56" s="383"/>
+      <c r="K56" s="383"/>
+      <c r="L56" s="383"/>
+      <c r="M56" s="383"/>
+      <c r="N56" s="383"/>
+      <c r="O56" s="383"/>
+      <c r="P56" s="383"/>
+      <c r="Q56" s="383"/>
+      <c r="R56" s="383"/>
+      <c r="S56" s="383"/>
+      <c r="T56" s="383"/>
+      <c r="U56" s="383"/>
+      <c r="V56" s="383"/>
+      <c r="W56" s="383"/>
+      <c r="X56" s="383"/>
+      <c r="Y56" s="383"/>
+      <c r="Z56" s="384"/>
+      <c r="AA56" s="340"/>
+      <c r="AB56" s="341"/>
+      <c r="AC56" s="341"/>
+      <c r="AD56" s="342"/>
+      <c r="AE56" s="343"/>
+      <c r="AF56" s="344"/>
+      <c r="AG56" s="344"/>
+      <c r="AH56" s="344"/>
+      <c r="AI56" s="345"/>
+      <c r="AJ56" s="340"/>
+      <c r="AK56" s="341"/>
+      <c r="AL56" s="341"/>
+      <c r="AM56" s="342"/>
+      <c r="AN56" s="343"/>
+      <c r="AO56" s="344"/>
+      <c r="AP56" s="344"/>
+      <c r="AQ56" s="344"/>
+      <c r="AR56" s="345"/>
+      <c r="AS56" s="340"/>
+      <c r="AT56" s="341"/>
+      <c r="AU56" s="341"/>
+      <c r="AV56" s="342"/>
       <c r="AW56" s="163"/>
     </row>
     <row r="57" spans="1:49" ht="13.5" customHeight="1">
       <c r="A57" s="21"/>
-      <c r="B57" s="363"/>
-      <c r="C57" s="364"/>
-      <c r="D57" s="342"/>
-      <c r="E57" s="343"/>
-      <c r="F57" s="343"/>
-      <c r="G57" s="343"/>
-      <c r="H57" s="344"/>
-      <c r="I57" s="381"/>
-      <c r="J57" s="382"/>
-      <c r="K57" s="382"/>
-      <c r="L57" s="382"/>
-      <c r="M57" s="382"/>
-      <c r="N57" s="382"/>
-      <c r="O57" s="382"/>
-      <c r="P57" s="382"/>
-      <c r="Q57" s="382"/>
-      <c r="R57" s="382"/>
-      <c r="S57" s="382"/>
-      <c r="T57" s="382"/>
-      <c r="U57" s="382"/>
-      <c r="V57" s="382"/>
-      <c r="W57" s="382"/>
-      <c r="X57" s="382"/>
-      <c r="Y57" s="382"/>
-      <c r="Z57" s="383"/>
-      <c r="AA57" s="339"/>
-      <c r="AB57" s="340"/>
-      <c r="AC57" s="340"/>
-      <c r="AD57" s="341"/>
-      <c r="AE57" s="342"/>
-      <c r="AF57" s="343"/>
-      <c r="AG57" s="343"/>
-      <c r="AH57" s="343"/>
-      <c r="AI57" s="344"/>
-      <c r="AJ57" s="339"/>
-      <c r="AK57" s="340"/>
-      <c r="AL57" s="340"/>
-      <c r="AM57" s="341"/>
-      <c r="AN57" s="342"/>
-      <c r="AO57" s="343"/>
-      <c r="AP57" s="343"/>
-      <c r="AQ57" s="343"/>
-      <c r="AR57" s="344"/>
-      <c r="AS57" s="339"/>
-      <c r="AT57" s="340"/>
-      <c r="AU57" s="340"/>
-      <c r="AV57" s="341"/>
+      <c r="B57" s="364"/>
+      <c r="C57" s="365"/>
+      <c r="D57" s="343"/>
+      <c r="E57" s="344"/>
+      <c r="F57" s="344"/>
+      <c r="G57" s="344"/>
+      <c r="H57" s="345"/>
+      <c r="I57" s="382"/>
+      <c r="J57" s="383"/>
+      <c r="K57" s="383"/>
+      <c r="L57" s="383"/>
+      <c r="M57" s="383"/>
+      <c r="N57" s="383"/>
+      <c r="O57" s="383"/>
+      <c r="P57" s="383"/>
+      <c r="Q57" s="383"/>
+      <c r="R57" s="383"/>
+      <c r="S57" s="383"/>
+      <c r="T57" s="383"/>
+      <c r="U57" s="383"/>
+      <c r="V57" s="383"/>
+      <c r="W57" s="383"/>
+      <c r="X57" s="383"/>
+      <c r="Y57" s="383"/>
+      <c r="Z57" s="384"/>
+      <c r="AA57" s="340"/>
+      <c r="AB57" s="341"/>
+      <c r="AC57" s="341"/>
+      <c r="AD57" s="342"/>
+      <c r="AE57" s="343"/>
+      <c r="AF57" s="344"/>
+      <c r="AG57" s="344"/>
+      <c r="AH57" s="344"/>
+      <c r="AI57" s="345"/>
+      <c r="AJ57" s="340"/>
+      <c r="AK57" s="341"/>
+      <c r="AL57" s="341"/>
+      <c r="AM57" s="342"/>
+      <c r="AN57" s="343"/>
+      <c r="AO57" s="344"/>
+      <c r="AP57" s="344"/>
+      <c r="AQ57" s="344"/>
+      <c r="AR57" s="345"/>
+      <c r="AS57" s="340"/>
+      <c r="AT57" s="341"/>
+      <c r="AU57" s="341"/>
+      <c r="AV57" s="342"/>
       <c r="AW57" s="163"/>
     </row>
     <row r="58" spans="1:49" ht="13.5" customHeight="1">
       <c r="A58" s="21"/>
-      <c r="B58" s="363"/>
-      <c r="C58" s="364"/>
-      <c r="D58" s="342"/>
-      <c r="E58" s="343"/>
-      <c r="F58" s="343"/>
-      <c r="G58" s="343"/>
-      <c r="H58" s="344"/>
-      <c r="I58" s="381"/>
-      <c r="J58" s="382"/>
-      <c r="K58" s="382"/>
-      <c r="L58" s="382"/>
-      <c r="M58" s="382"/>
-      <c r="N58" s="382"/>
-      <c r="O58" s="382"/>
-      <c r="P58" s="382"/>
-      <c r="Q58" s="382"/>
-      <c r="R58" s="382"/>
-      <c r="S58" s="382"/>
-      <c r="T58" s="382"/>
-      <c r="U58" s="382"/>
-      <c r="V58" s="382"/>
-      <c r="W58" s="382"/>
-      <c r="X58" s="382"/>
-      <c r="Y58" s="382"/>
-      <c r="Z58" s="383"/>
-      <c r="AA58" s="339"/>
-      <c r="AB58" s="340"/>
-      <c r="AC58" s="340"/>
-      <c r="AD58" s="341"/>
-      <c r="AE58" s="342"/>
-      <c r="AF58" s="343"/>
-      <c r="AG58" s="343"/>
-      <c r="AH58" s="343"/>
-      <c r="AI58" s="344"/>
-      <c r="AJ58" s="339"/>
-      <c r="AK58" s="340"/>
-      <c r="AL58" s="340"/>
-      <c r="AM58" s="341"/>
-      <c r="AN58" s="342"/>
-      <c r="AO58" s="343"/>
-      <c r="AP58" s="343"/>
-      <c r="AQ58" s="343"/>
-      <c r="AR58" s="344"/>
-      <c r="AS58" s="339"/>
-      <c r="AT58" s="340"/>
-      <c r="AU58" s="340"/>
-      <c r="AV58" s="341"/>
+      <c r="B58" s="364"/>
+      <c r="C58" s="365"/>
+      <c r="D58" s="343"/>
+      <c r="E58" s="344"/>
+      <c r="F58" s="344"/>
+      <c r="G58" s="344"/>
+      <c r="H58" s="345"/>
+      <c r="I58" s="382"/>
+      <c r="J58" s="383"/>
+      <c r="K58" s="383"/>
+      <c r="L58" s="383"/>
+      <c r="M58" s="383"/>
+      <c r="N58" s="383"/>
+      <c r="O58" s="383"/>
+      <c r="P58" s="383"/>
+      <c r="Q58" s="383"/>
+      <c r="R58" s="383"/>
+      <c r="S58" s="383"/>
+      <c r="T58" s="383"/>
+      <c r="U58" s="383"/>
+      <c r="V58" s="383"/>
+      <c r="W58" s="383"/>
+      <c r="X58" s="383"/>
+      <c r="Y58" s="383"/>
+      <c r="Z58" s="384"/>
+      <c r="AA58" s="340"/>
+      <c r="AB58" s="341"/>
+      <c r="AC58" s="341"/>
+      <c r="AD58" s="342"/>
+      <c r="AE58" s="343"/>
+      <c r="AF58" s="344"/>
+      <c r="AG58" s="344"/>
+      <c r="AH58" s="344"/>
+      <c r="AI58" s="345"/>
+      <c r="AJ58" s="340"/>
+      <c r="AK58" s="341"/>
+      <c r="AL58" s="341"/>
+      <c r="AM58" s="342"/>
+      <c r="AN58" s="343"/>
+      <c r="AO58" s="344"/>
+      <c r="AP58" s="344"/>
+      <c r="AQ58" s="344"/>
+      <c r="AR58" s="345"/>
+      <c r="AS58" s="340"/>
+      <c r="AT58" s="341"/>
+      <c r="AU58" s="341"/>
+      <c r="AV58" s="342"/>
       <c r="AW58" s="163"/>
     </row>
     <row r="59" spans="1:49" ht="13.5" customHeight="1">
       <c r="A59" s="21"/>
-      <c r="B59" s="268"/>
-      <c r="C59" s="269"/>
-      <c r="D59" s="256"/>
-      <c r="E59" s="257"/>
-      <c r="F59" s="257"/>
-      <c r="G59" s="257"/>
-      <c r="H59" s="258"/>
-      <c r="I59" s="270"/>
-      <c r="J59" s="271"/>
-      <c r="K59" s="271"/>
-      <c r="L59" s="271"/>
-      <c r="M59" s="271"/>
-      <c r="N59" s="271"/>
-      <c r="O59" s="271"/>
-      <c r="P59" s="271"/>
-      <c r="Q59" s="271"/>
-      <c r="R59" s="271"/>
-      <c r="S59" s="271"/>
-      <c r="T59" s="271"/>
-      <c r="U59" s="271"/>
-      <c r="V59" s="271"/>
-      <c r="W59" s="271"/>
-      <c r="X59" s="271"/>
-      <c r="Y59" s="271"/>
-      <c r="Z59" s="272"/>
-      <c r="AA59" s="262"/>
-      <c r="AB59" s="263"/>
-      <c r="AC59" s="263"/>
-      <c r="AD59" s="264"/>
-      <c r="AE59" s="256"/>
-      <c r="AF59" s="257"/>
-      <c r="AG59" s="257"/>
-      <c r="AH59" s="257"/>
-      <c r="AI59" s="258"/>
-      <c r="AJ59" s="262"/>
-      <c r="AK59" s="263"/>
-      <c r="AL59" s="263"/>
-      <c r="AM59" s="264"/>
-      <c r="AN59" s="256"/>
-      <c r="AO59" s="257"/>
-      <c r="AP59" s="257"/>
-      <c r="AQ59" s="257"/>
-      <c r="AR59" s="258"/>
-      <c r="AS59" s="262"/>
-      <c r="AT59" s="263"/>
-      <c r="AU59" s="263"/>
-      <c r="AV59" s="264"/>
+      <c r="B59" s="269"/>
+      <c r="C59" s="270"/>
+      <c r="D59" s="257"/>
+      <c r="E59" s="258"/>
+      <c r="F59" s="258"/>
+      <c r="G59" s="258"/>
+      <c r="H59" s="259"/>
+      <c r="I59" s="271"/>
+      <c r="J59" s="272"/>
+      <c r="K59" s="272"/>
+      <c r="L59" s="272"/>
+      <c r="M59" s="272"/>
+      <c r="N59" s="272"/>
+      <c r="O59" s="272"/>
+      <c r="P59" s="272"/>
+      <c r="Q59" s="272"/>
+      <c r="R59" s="272"/>
+      <c r="S59" s="272"/>
+      <c r="T59" s="272"/>
+      <c r="U59" s="272"/>
+      <c r="V59" s="272"/>
+      <c r="W59" s="272"/>
+      <c r="X59" s="272"/>
+      <c r="Y59" s="272"/>
+      <c r="Z59" s="273"/>
+      <c r="AA59" s="263"/>
+      <c r="AB59" s="264"/>
+      <c r="AC59" s="264"/>
+      <c r="AD59" s="265"/>
+      <c r="AE59" s="257"/>
+      <c r="AF59" s="258"/>
+      <c r="AG59" s="258"/>
+      <c r="AH59" s="258"/>
+      <c r="AI59" s="259"/>
+      <c r="AJ59" s="263"/>
+      <c r="AK59" s="264"/>
+      <c r="AL59" s="264"/>
+      <c r="AM59" s="265"/>
+      <c r="AN59" s="257"/>
+      <c r="AO59" s="258"/>
+      <c r="AP59" s="258"/>
+      <c r="AQ59" s="258"/>
+      <c r="AR59" s="259"/>
+      <c r="AS59" s="263"/>
+      <c r="AT59" s="264"/>
+      <c r="AU59" s="264"/>
+      <c r="AV59" s="265"/>
       <c r="AW59" s="163"/>
     </row>
     <row r="60" spans="1:49" ht="13.5" customHeight="1">
       <c r="A60" s="21"/>
-      <c r="B60" s="268"/>
-      <c r="C60" s="269"/>
-      <c r="D60" s="256"/>
-      <c r="E60" s="257"/>
-      <c r="F60" s="257"/>
-      <c r="G60" s="257"/>
-      <c r="H60" s="258"/>
-      <c r="I60" s="270"/>
-      <c r="J60" s="271"/>
-      <c r="K60" s="271"/>
-      <c r="L60" s="271"/>
-      <c r="M60" s="271"/>
-      <c r="N60" s="271"/>
-      <c r="O60" s="271"/>
-      <c r="P60" s="271"/>
-      <c r="Q60" s="271"/>
-      <c r="R60" s="271"/>
-      <c r="S60" s="271"/>
-      <c r="T60" s="271"/>
-      <c r="U60" s="271"/>
-      <c r="V60" s="271"/>
-      <c r="W60" s="271"/>
-      <c r="X60" s="271"/>
-      <c r="Y60" s="271"/>
-      <c r="Z60" s="272"/>
-      <c r="AA60" s="262"/>
-      <c r="AB60" s="263"/>
-      <c r="AC60" s="263"/>
-      <c r="AD60" s="264"/>
-      <c r="AE60" s="256"/>
-      <c r="AF60" s="257"/>
-      <c r="AG60" s="257"/>
-      <c r="AH60" s="257"/>
-      <c r="AI60" s="258"/>
-      <c r="AJ60" s="262"/>
-      <c r="AK60" s="263"/>
-      <c r="AL60" s="263"/>
-      <c r="AM60" s="264"/>
-      <c r="AN60" s="256"/>
-      <c r="AO60" s="257"/>
-      <c r="AP60" s="257"/>
-      <c r="AQ60" s="257"/>
-      <c r="AR60" s="258"/>
-      <c r="AS60" s="262"/>
-      <c r="AT60" s="263"/>
-      <c r="AU60" s="263"/>
-      <c r="AV60" s="264"/>
+      <c r="B60" s="269"/>
+      <c r="C60" s="270"/>
+      <c r="D60" s="257"/>
+      <c r="E60" s="258"/>
+      <c r="F60" s="258"/>
+      <c r="G60" s="258"/>
+      <c r="H60" s="259"/>
+      <c r="I60" s="271"/>
+      <c r="J60" s="272"/>
+      <c r="K60" s="272"/>
+      <c r="L60" s="272"/>
+      <c r="M60" s="272"/>
+      <c r="N60" s="272"/>
+      <c r="O60" s="272"/>
+      <c r="P60" s="272"/>
+      <c r="Q60" s="272"/>
+      <c r="R60" s="272"/>
+      <c r="S60" s="272"/>
+      <c r="T60" s="272"/>
+      <c r="U60" s="272"/>
+      <c r="V60" s="272"/>
+      <c r="W60" s="272"/>
+      <c r="X60" s="272"/>
+      <c r="Y60" s="272"/>
+      <c r="Z60" s="273"/>
+      <c r="AA60" s="263"/>
+      <c r="AB60" s="264"/>
+      <c r="AC60" s="264"/>
+      <c r="AD60" s="265"/>
+      <c r="AE60" s="257"/>
+      <c r="AF60" s="258"/>
+      <c r="AG60" s="258"/>
+      <c r="AH60" s="258"/>
+      <c r="AI60" s="259"/>
+      <c r="AJ60" s="263"/>
+      <c r="AK60" s="264"/>
+      <c r="AL60" s="264"/>
+      <c r="AM60" s="265"/>
+      <c r="AN60" s="257"/>
+      <c r="AO60" s="258"/>
+      <c r="AP60" s="258"/>
+      <c r="AQ60" s="258"/>
+      <c r="AR60" s="259"/>
+      <c r="AS60" s="263"/>
+      <c r="AT60" s="264"/>
+      <c r="AU60" s="264"/>
+      <c r="AV60" s="265"/>
       <c r="AW60" s="163"/>
     </row>
     <row r="61" spans="1:49" ht="13.5" customHeight="1">
       <c r="A61" s="21"/>
-      <c r="B61" s="268"/>
-      <c r="C61" s="269"/>
-      <c r="D61" s="256"/>
-      <c r="E61" s="257"/>
-      <c r="F61" s="257"/>
-      <c r="G61" s="257"/>
-      <c r="H61" s="258"/>
-      <c r="I61" s="270"/>
-      <c r="J61" s="271"/>
-      <c r="K61" s="271"/>
-      <c r="L61" s="271"/>
-      <c r="M61" s="271"/>
-      <c r="N61" s="271"/>
-      <c r="O61" s="271"/>
-      <c r="P61" s="271"/>
-      <c r="Q61" s="271"/>
-      <c r="R61" s="271"/>
-      <c r="S61" s="271"/>
-      <c r="T61" s="271"/>
-      <c r="U61" s="271"/>
-      <c r="V61" s="271"/>
-      <c r="W61" s="271"/>
-      <c r="X61" s="271"/>
-      <c r="Y61" s="271"/>
-      <c r="Z61" s="272"/>
-      <c r="AA61" s="262"/>
-      <c r="AB61" s="263"/>
-      <c r="AC61" s="263"/>
-      <c r="AD61" s="264"/>
-      <c r="AE61" s="256"/>
-      <c r="AF61" s="257"/>
-      <c r="AG61" s="257"/>
-      <c r="AH61" s="257"/>
-      <c r="AI61" s="258"/>
-      <c r="AJ61" s="262"/>
-      <c r="AK61" s="263"/>
-      <c r="AL61" s="263"/>
-      <c r="AM61" s="264"/>
-      <c r="AN61" s="256"/>
-      <c r="AO61" s="257"/>
-      <c r="AP61" s="257"/>
-      <c r="AQ61" s="257"/>
-      <c r="AR61" s="258"/>
-      <c r="AS61" s="262"/>
-      <c r="AT61" s="263"/>
-      <c r="AU61" s="263"/>
-      <c r="AV61" s="264"/>
+      <c r="B61" s="269"/>
+      <c r="C61" s="270"/>
+      <c r="D61" s="257"/>
+      <c r="E61" s="258"/>
+      <c r="F61" s="258"/>
+      <c r="G61" s="258"/>
+      <c r="H61" s="259"/>
+      <c r="I61" s="271"/>
+      <c r="J61" s="272"/>
+      <c r="K61" s="272"/>
+      <c r="L61" s="272"/>
+      <c r="M61" s="272"/>
+      <c r="N61" s="272"/>
+      <c r="O61" s="272"/>
+      <c r="P61" s="272"/>
+      <c r="Q61" s="272"/>
+      <c r="R61" s="272"/>
+      <c r="S61" s="272"/>
+      <c r="T61" s="272"/>
+      <c r="U61" s="272"/>
+      <c r="V61" s="272"/>
+      <c r="W61" s="272"/>
+      <c r="X61" s="272"/>
+      <c r="Y61" s="272"/>
+      <c r="Z61" s="273"/>
+      <c r="AA61" s="263"/>
+      <c r="AB61" s="264"/>
+      <c r="AC61" s="264"/>
+      <c r="AD61" s="265"/>
+      <c r="AE61" s="257"/>
+      <c r="AF61" s="258"/>
+      <c r="AG61" s="258"/>
+      <c r="AH61" s="258"/>
+      <c r="AI61" s="259"/>
+      <c r="AJ61" s="263"/>
+      <c r="AK61" s="264"/>
+      <c r="AL61" s="264"/>
+      <c r="AM61" s="265"/>
+      <c r="AN61" s="257"/>
+      <c r="AO61" s="258"/>
+      <c r="AP61" s="258"/>
+      <c r="AQ61" s="258"/>
+      <c r="AR61" s="259"/>
+      <c r="AS61" s="263"/>
+      <c r="AT61" s="264"/>
+      <c r="AU61" s="264"/>
+      <c r="AV61" s="265"/>
       <c r="AW61" s="163"/>
     </row>
     <row r="62" spans="1:49" ht="13.5" customHeight="1">
       <c r="A62" s="21"/>
-      <c r="B62" s="268"/>
-      <c r="C62" s="269"/>
-      <c r="D62" s="256"/>
-      <c r="E62" s="257"/>
-      <c r="F62" s="257"/>
-      <c r="G62" s="257"/>
-      <c r="H62" s="258"/>
-      <c r="I62" s="270"/>
-      <c r="J62" s="271"/>
-      <c r="K62" s="271"/>
-      <c r="L62" s="271"/>
-      <c r="M62" s="271"/>
-      <c r="N62" s="271"/>
-      <c r="O62" s="271"/>
-      <c r="P62" s="271"/>
-      <c r="Q62" s="271"/>
-      <c r="R62" s="271"/>
-      <c r="S62" s="271"/>
-      <c r="T62" s="271"/>
-      <c r="U62" s="271"/>
-      <c r="V62" s="271"/>
-      <c r="W62" s="271"/>
-      <c r="X62" s="271"/>
-      <c r="Y62" s="271"/>
-      <c r="Z62" s="272"/>
-      <c r="AA62" s="262"/>
-      <c r="AB62" s="263"/>
-      <c r="AC62" s="263"/>
-      <c r="AD62" s="264"/>
-      <c r="AE62" s="256"/>
-      <c r="AF62" s="257"/>
-      <c r="AG62" s="257"/>
-      <c r="AH62" s="257"/>
-      <c r="AI62" s="258"/>
-      <c r="AJ62" s="262"/>
-      <c r="AK62" s="263"/>
-      <c r="AL62" s="263"/>
-      <c r="AM62" s="264"/>
-      <c r="AN62" s="256"/>
-      <c r="AO62" s="257"/>
-      <c r="AP62" s="257"/>
-      <c r="AQ62" s="257"/>
-      <c r="AR62" s="258"/>
-      <c r="AS62" s="262"/>
-      <c r="AT62" s="263"/>
-      <c r="AU62" s="263"/>
-      <c r="AV62" s="264"/>
+      <c r="B62" s="269"/>
+      <c r="C62" s="270"/>
+      <c r="D62" s="257"/>
+      <c r="E62" s="258"/>
+      <c r="F62" s="258"/>
+      <c r="G62" s="258"/>
+      <c r="H62" s="259"/>
+      <c r="I62" s="271"/>
+      <c r="J62" s="272"/>
+      <c r="K62" s="272"/>
+      <c r="L62" s="272"/>
+      <c r="M62" s="272"/>
+      <c r="N62" s="272"/>
+      <c r="O62" s="272"/>
+      <c r="P62" s="272"/>
+      <c r="Q62" s="272"/>
+      <c r="R62" s="272"/>
+      <c r="S62" s="272"/>
+      <c r="T62" s="272"/>
+      <c r="U62" s="272"/>
+      <c r="V62" s="272"/>
+      <c r="W62" s="272"/>
+      <c r="X62" s="272"/>
+      <c r="Y62" s="272"/>
+      <c r="Z62" s="273"/>
+      <c r="AA62" s="263"/>
+      <c r="AB62" s="264"/>
+      <c r="AC62" s="264"/>
+      <c r="AD62" s="265"/>
+      <c r="AE62" s="257"/>
+      <c r="AF62" s="258"/>
+      <c r="AG62" s="258"/>
+      <c r="AH62" s="258"/>
+      <c r="AI62" s="259"/>
+      <c r="AJ62" s="263"/>
+      <c r="AK62" s="264"/>
+      <c r="AL62" s="264"/>
+      <c r="AM62" s="265"/>
+      <c r="AN62" s="257"/>
+      <c r="AO62" s="258"/>
+      <c r="AP62" s="258"/>
+      <c r="AQ62" s="258"/>
+      <c r="AR62" s="259"/>
+      <c r="AS62" s="263"/>
+      <c r="AT62" s="264"/>
+      <c r="AU62" s="264"/>
+      <c r="AV62" s="265"/>
       <c r="AW62" s="163"/>
     </row>
     <row r="63" spans="1:49" ht="13.5" customHeight="1">
       <c r="A63" s="21"/>
-      <c r="B63" s="268"/>
-      <c r="C63" s="269"/>
-      <c r="D63" s="256"/>
-      <c r="E63" s="257"/>
-      <c r="F63" s="257"/>
-      <c r="G63" s="257"/>
-      <c r="H63" s="258"/>
-      <c r="I63" s="270"/>
-      <c r="J63" s="271"/>
-      <c r="K63" s="271"/>
-      <c r="L63" s="271"/>
-      <c r="M63" s="271"/>
-      <c r="N63" s="271"/>
-      <c r="O63" s="271"/>
-      <c r="P63" s="271"/>
-      <c r="Q63" s="271"/>
-      <c r="R63" s="271"/>
-      <c r="S63" s="271"/>
-      <c r="T63" s="271"/>
-      <c r="U63" s="271"/>
-      <c r="V63" s="271"/>
-      <c r="W63" s="271"/>
-      <c r="X63" s="271"/>
-      <c r="Y63" s="271"/>
-      <c r="Z63" s="272"/>
-      <c r="AA63" s="262"/>
-      <c r="AB63" s="263"/>
-      <c r="AC63" s="263"/>
-      <c r="AD63" s="264"/>
-      <c r="AE63" s="256"/>
-      <c r="AF63" s="257"/>
-      <c r="AG63" s="257"/>
-      <c r="AH63" s="257"/>
-      <c r="AI63" s="258"/>
-      <c r="AJ63" s="262"/>
-      <c r="AK63" s="263"/>
-      <c r="AL63" s="263"/>
-      <c r="AM63" s="264"/>
-      <c r="AN63" s="256"/>
-      <c r="AO63" s="257"/>
-      <c r="AP63" s="257"/>
-      <c r="AQ63" s="257"/>
-      <c r="AR63" s="258"/>
-      <c r="AS63" s="262"/>
-      <c r="AT63" s="263"/>
-      <c r="AU63" s="263"/>
-      <c r="AV63" s="264"/>
+      <c r="B63" s="269"/>
+      <c r="C63" s="270"/>
+      <c r="D63" s="257"/>
+      <c r="E63" s="258"/>
+      <c r="F63" s="258"/>
+      <c r="G63" s="258"/>
+      <c r="H63" s="259"/>
+      <c r="I63" s="271"/>
+      <c r="J63" s="272"/>
+      <c r="K63" s="272"/>
+      <c r="L63" s="272"/>
+      <c r="M63" s="272"/>
+      <c r="N63" s="272"/>
+      <c r="O63" s="272"/>
+      <c r="P63" s="272"/>
+      <c r="Q63" s="272"/>
+      <c r="R63" s="272"/>
+      <c r="S63" s="272"/>
+      <c r="T63" s="272"/>
+      <c r="U63" s="272"/>
+      <c r="V63" s="272"/>
+      <c r="W63" s="272"/>
+      <c r="X63" s="272"/>
+      <c r="Y63" s="272"/>
+      <c r="Z63" s="273"/>
+      <c r="AA63" s="263"/>
+      <c r="AB63" s="264"/>
+      <c r="AC63" s="264"/>
+      <c r="AD63" s="265"/>
+      <c r="AE63" s="257"/>
+      <c r="AF63" s="258"/>
+      <c r="AG63" s="258"/>
+      <c r="AH63" s="258"/>
+      <c r="AI63" s="259"/>
+      <c r="AJ63" s="263"/>
+      <c r="AK63" s="264"/>
+      <c r="AL63" s="264"/>
+      <c r="AM63" s="265"/>
+      <c r="AN63" s="257"/>
+      <c r="AO63" s="258"/>
+      <c r="AP63" s="258"/>
+      <c r="AQ63" s="258"/>
+      <c r="AR63" s="259"/>
+      <c r="AS63" s="263"/>
+      <c r="AT63" s="264"/>
+      <c r="AU63" s="264"/>
+      <c r="AV63" s="265"/>
       <c r="AW63" s="163"/>
     </row>
     <row r="64" spans="1:49" ht="13.5" customHeight="1">
       <c r="A64" s="21"/>
-      <c r="B64" s="268"/>
-      <c r="C64" s="269"/>
-      <c r="D64" s="256"/>
-      <c r="E64" s="257"/>
-      <c r="F64" s="257"/>
-      <c r="G64" s="257"/>
-      <c r="H64" s="258"/>
-      <c r="I64" s="270"/>
-      <c r="J64" s="271"/>
-      <c r="K64" s="271"/>
-      <c r="L64" s="271"/>
-      <c r="M64" s="271"/>
-      <c r="N64" s="271"/>
-      <c r="O64" s="271"/>
-      <c r="P64" s="271"/>
-      <c r="Q64" s="271"/>
-      <c r="R64" s="271"/>
-      <c r="S64" s="271"/>
-      <c r="T64" s="271"/>
-      <c r="U64" s="271"/>
-      <c r="V64" s="271"/>
-      <c r="W64" s="271"/>
-      <c r="X64" s="271"/>
-      <c r="Y64" s="271"/>
-      <c r="Z64" s="272"/>
-      <c r="AA64" s="262"/>
-      <c r="AB64" s="263"/>
-      <c r="AC64" s="263"/>
-      <c r="AD64" s="264"/>
-      <c r="AE64" s="256"/>
-      <c r="AF64" s="257"/>
-      <c r="AG64" s="257"/>
-      <c r="AH64" s="257"/>
-      <c r="AI64" s="258"/>
-      <c r="AJ64" s="262"/>
-      <c r="AK64" s="263"/>
-      <c r="AL64" s="263"/>
-      <c r="AM64" s="264"/>
-      <c r="AN64" s="256"/>
-      <c r="AO64" s="257"/>
-      <c r="AP64" s="257"/>
-      <c r="AQ64" s="257"/>
-      <c r="AR64" s="258"/>
-      <c r="AS64" s="262"/>
-      <c r="AT64" s="263"/>
-      <c r="AU64" s="263"/>
-      <c r="AV64" s="264"/>
+      <c r="B64" s="269"/>
+      <c r="C64" s="270"/>
+      <c r="D64" s="257"/>
+      <c r="E64" s="258"/>
+      <c r="F64" s="258"/>
+      <c r="G64" s="258"/>
+      <c r="H64" s="259"/>
+      <c r="I64" s="271"/>
+      <c r="J64" s="272"/>
+      <c r="K64" s="272"/>
+      <c r="L64" s="272"/>
+      <c r="M64" s="272"/>
+      <c r="N64" s="272"/>
+      <c r="O64" s="272"/>
+      <c r="P64" s="272"/>
+      <c r="Q64" s="272"/>
+      <c r="R64" s="272"/>
+      <c r="S64" s="272"/>
+      <c r="T64" s="272"/>
+      <c r="U64" s="272"/>
+      <c r="V64" s="272"/>
+      <c r="W64" s="272"/>
+      <c r="X64" s="272"/>
+      <c r="Y64" s="272"/>
+      <c r="Z64" s="273"/>
+      <c r="AA64" s="263"/>
+      <c r="AB64" s="264"/>
+      <c r="AC64" s="264"/>
+      <c r="AD64" s="265"/>
+      <c r="AE64" s="257"/>
+      <c r="AF64" s="258"/>
+      <c r="AG64" s="258"/>
+      <c r="AH64" s="258"/>
+      <c r="AI64" s="259"/>
+      <c r="AJ64" s="263"/>
+      <c r="AK64" s="264"/>
+      <c r="AL64" s="264"/>
+      <c r="AM64" s="265"/>
+      <c r="AN64" s="257"/>
+      <c r="AO64" s="258"/>
+      <c r="AP64" s="258"/>
+      <c r="AQ64" s="258"/>
+      <c r="AR64" s="259"/>
+      <c r="AS64" s="263"/>
+      <c r="AT64" s="264"/>
+      <c r="AU64" s="264"/>
+      <c r="AV64" s="265"/>
       <c r="AW64" s="163"/>
     </row>
     <row r="65" spans="1:49" ht="13.5" customHeight="1">
       <c r="A65" s="21"/>
-      <c r="B65" s="268"/>
-      <c r="C65" s="269"/>
-      <c r="D65" s="256"/>
-      <c r="E65" s="257"/>
-      <c r="F65" s="257"/>
-      <c r="G65" s="257"/>
-      <c r="H65" s="258"/>
-      <c r="I65" s="270"/>
-      <c r="J65" s="271"/>
-      <c r="K65" s="271"/>
-      <c r="L65" s="271"/>
-      <c r="M65" s="271"/>
-      <c r="N65" s="271"/>
-      <c r="O65" s="271"/>
-      <c r="P65" s="271"/>
-      <c r="Q65" s="271"/>
-      <c r="R65" s="271"/>
-      <c r="S65" s="271"/>
-      <c r="T65" s="271"/>
-      <c r="U65" s="271"/>
-      <c r="V65" s="271"/>
-      <c r="W65" s="271"/>
-      <c r="X65" s="271"/>
-      <c r="Y65" s="271"/>
-      <c r="Z65" s="272"/>
-      <c r="AA65" s="262"/>
-      <c r="AB65" s="263"/>
-      <c r="AC65" s="263"/>
-      <c r="AD65" s="264"/>
-      <c r="AE65" s="256"/>
-      <c r="AF65" s="257"/>
-      <c r="AG65" s="257"/>
-      <c r="AH65" s="257"/>
-      <c r="AI65" s="258"/>
-      <c r="AJ65" s="262"/>
-      <c r="AK65" s="263"/>
-      <c r="AL65" s="263"/>
-      <c r="AM65" s="264"/>
-      <c r="AN65" s="256"/>
-      <c r="AO65" s="257"/>
-      <c r="AP65" s="257"/>
-      <c r="AQ65" s="257"/>
-      <c r="AR65" s="258"/>
-      <c r="AS65" s="262"/>
-      <c r="AT65" s="263"/>
-      <c r="AU65" s="263"/>
-      <c r="AV65" s="264"/>
+      <c r="B65" s="269"/>
+      <c r="C65" s="270"/>
+      <c r="D65" s="257"/>
+      <c r="E65" s="258"/>
+      <c r="F65" s="258"/>
+      <c r="G65" s="258"/>
+      <c r="H65" s="259"/>
+      <c r="I65" s="271"/>
+      <c r="J65" s="272"/>
+      <c r="K65" s="272"/>
+      <c r="L65" s="272"/>
+      <c r="M65" s="272"/>
+      <c r="N65" s="272"/>
+      <c r="O65" s="272"/>
+      <c r="P65" s="272"/>
+      <c r="Q65" s="272"/>
+      <c r="R65" s="272"/>
+      <c r="S65" s="272"/>
+      <c r="T65" s="272"/>
+      <c r="U65" s="272"/>
+      <c r="V65" s="272"/>
+      <c r="W65" s="272"/>
+      <c r="X65" s="272"/>
+      <c r="Y65" s="272"/>
+      <c r="Z65" s="273"/>
+      <c r="AA65" s="263"/>
+      <c r="AB65" s="264"/>
+      <c r="AC65" s="264"/>
+      <c r="AD65" s="265"/>
+      <c r="AE65" s="257"/>
+      <c r="AF65" s="258"/>
+      <c r="AG65" s="258"/>
+      <c r="AH65" s="258"/>
+      <c r="AI65" s="259"/>
+      <c r="AJ65" s="263"/>
+      <c r="AK65" s="264"/>
+      <c r="AL65" s="264"/>
+      <c r="AM65" s="265"/>
+      <c r="AN65" s="257"/>
+      <c r="AO65" s="258"/>
+      <c r="AP65" s="258"/>
+      <c r="AQ65" s="258"/>
+      <c r="AR65" s="259"/>
+      <c r="AS65" s="263"/>
+      <c r="AT65" s="264"/>
+      <c r="AU65" s="264"/>
+      <c r="AV65" s="265"/>
       <c r="AW65" s="163"/>
     </row>
     <row r="66" spans="1:49" ht="13.5" customHeight="1">
       <c r="A66" s="21"/>
-      <c r="B66" s="268"/>
-      <c r="C66" s="269"/>
-      <c r="D66" s="256"/>
-      <c r="E66" s="257"/>
-      <c r="F66" s="257"/>
-      <c r="G66" s="257"/>
-      <c r="H66" s="258"/>
-      <c r="I66" s="270"/>
-      <c r="J66" s="271"/>
-      <c r="K66" s="271"/>
-      <c r="L66" s="271"/>
-      <c r="M66" s="271"/>
-      <c r="N66" s="271"/>
-      <c r="O66" s="271"/>
-      <c r="P66" s="271"/>
-      <c r="Q66" s="271"/>
-      <c r="R66" s="271"/>
-      <c r="S66" s="271"/>
-      <c r="T66" s="271"/>
-      <c r="U66" s="271"/>
-      <c r="V66" s="271"/>
-      <c r="W66" s="271"/>
-      <c r="X66" s="271"/>
-      <c r="Y66" s="271"/>
-      <c r="Z66" s="272"/>
-      <c r="AA66" s="262"/>
-      <c r="AB66" s="263"/>
-      <c r="AC66" s="263"/>
-      <c r="AD66" s="264"/>
-      <c r="AE66" s="256"/>
-      <c r="AF66" s="257"/>
-      <c r="AG66" s="257"/>
-      <c r="AH66" s="257"/>
-      <c r="AI66" s="258"/>
-      <c r="AJ66" s="262"/>
-      <c r="AK66" s="263"/>
-      <c r="AL66" s="263"/>
-      <c r="AM66" s="264"/>
-      <c r="AN66" s="256"/>
-      <c r="AO66" s="257"/>
-      <c r="AP66" s="257"/>
-      <c r="AQ66" s="257"/>
-      <c r="AR66" s="258"/>
-      <c r="AS66" s="262"/>
-      <c r="AT66" s="263"/>
-      <c r="AU66" s="263"/>
-      <c r="AV66" s="264"/>
+      <c r="B66" s="269"/>
+      <c r="C66" s="270"/>
+      <c r="D66" s="257"/>
+      <c r="E66" s="258"/>
+      <c r="F66" s="258"/>
+      <c r="G66" s="258"/>
+      <c r="H66" s="259"/>
+      <c r="I66" s="271"/>
+      <c r="J66" s="272"/>
+      <c r="K66" s="272"/>
+      <c r="L66" s="272"/>
+      <c r="M66" s="272"/>
+      <c r="N66" s="272"/>
+      <c r="O66" s="272"/>
+      <c r="P66" s="272"/>
+      <c r="Q66" s="272"/>
+      <c r="R66" s="272"/>
+      <c r="S66" s="272"/>
+      <c r="T66" s="272"/>
+      <c r="U66" s="272"/>
+      <c r="V66" s="272"/>
+      <c r="W66" s="272"/>
+      <c r="X66" s="272"/>
+      <c r="Y66" s="272"/>
+      <c r="Z66" s="273"/>
+      <c r="AA66" s="263"/>
+      <c r="AB66" s="264"/>
+      <c r="AC66" s="264"/>
+      <c r="AD66" s="265"/>
+      <c r="AE66" s="257"/>
+      <c r="AF66" s="258"/>
+      <c r="AG66" s="258"/>
+      <c r="AH66" s="258"/>
+      <c r="AI66" s="259"/>
+      <c r="AJ66" s="263"/>
+      <c r="AK66" s="264"/>
+      <c r="AL66" s="264"/>
+      <c r="AM66" s="265"/>
+      <c r="AN66" s="257"/>
+      <c r="AO66" s="258"/>
+      <c r="AP66" s="258"/>
+      <c r="AQ66" s="258"/>
+      <c r="AR66" s="259"/>
+      <c r="AS66" s="263"/>
+      <c r="AT66" s="264"/>
+      <c r="AU66" s="264"/>
+      <c r="AV66" s="265"/>
       <c r="AW66" s="163"/>
     </row>
     <row r="67" spans="1:49" ht="13.5" customHeight="1">
       <c r="A67" s="21"/>
-      <c r="B67" s="268"/>
-      <c r="C67" s="269"/>
-      <c r="D67" s="256"/>
-      <c r="E67" s="257"/>
-      <c r="F67" s="257"/>
-      <c r="G67" s="257"/>
-      <c r="H67" s="258"/>
-      <c r="I67" s="270"/>
-      <c r="J67" s="271"/>
-      <c r="K67" s="271"/>
-      <c r="L67" s="271"/>
-      <c r="M67" s="271"/>
-      <c r="N67" s="271"/>
-      <c r="O67" s="271"/>
-      <c r="P67" s="271"/>
-      <c r="Q67" s="271"/>
-      <c r="R67" s="271"/>
-      <c r="S67" s="271"/>
-      <c r="T67" s="271"/>
-      <c r="U67" s="271"/>
-      <c r="V67" s="271"/>
-      <c r="W67" s="271"/>
-      <c r="X67" s="271"/>
-      <c r="Y67" s="271"/>
-      <c r="Z67" s="272"/>
-      <c r="AA67" s="262"/>
-      <c r="AB67" s="263"/>
-      <c r="AC67" s="263"/>
-      <c r="AD67" s="264"/>
-      <c r="AE67" s="256"/>
-      <c r="AF67" s="257"/>
-      <c r="AG67" s="257"/>
-      <c r="AH67" s="257"/>
-      <c r="AI67" s="258"/>
-      <c r="AJ67" s="262"/>
-      <c r="AK67" s="263"/>
-      <c r="AL67" s="263"/>
-      <c r="AM67" s="264"/>
-      <c r="AN67" s="256"/>
-      <c r="AO67" s="257"/>
-      <c r="AP67" s="257"/>
-      <c r="AQ67" s="257"/>
-      <c r="AR67" s="258"/>
-      <c r="AS67" s="262"/>
-      <c r="AT67" s="263"/>
-      <c r="AU67" s="263"/>
-      <c r="AV67" s="264"/>
+      <c r="B67" s="269"/>
+      <c r="C67" s="270"/>
+      <c r="D67" s="257"/>
+      <c r="E67" s="258"/>
+      <c r="F67" s="258"/>
+      <c r="G67" s="258"/>
+      <c r="H67" s="259"/>
+      <c r="I67" s="271"/>
+      <c r="J67" s="272"/>
+      <c r="K67" s="272"/>
+      <c r="L67" s="272"/>
+      <c r="M67" s="272"/>
+      <c r="N67" s="272"/>
+      <c r="O67" s="272"/>
+      <c r="P67" s="272"/>
+      <c r="Q67" s="272"/>
+      <c r="R67" s="272"/>
+      <c r="S67" s="272"/>
+      <c r="T67" s="272"/>
+      <c r="U67" s="272"/>
+      <c r="V67" s="272"/>
+      <c r="W67" s="272"/>
+      <c r="X67" s="272"/>
+      <c r="Y67" s="272"/>
+      <c r="Z67" s="273"/>
+      <c r="AA67" s="263"/>
+      <c r="AB67" s="264"/>
+      <c r="AC67" s="264"/>
+      <c r="AD67" s="265"/>
+      <c r="AE67" s="257"/>
+      <c r="AF67" s="258"/>
+      <c r="AG67" s="258"/>
+      <c r="AH67" s="258"/>
+      <c r="AI67" s="259"/>
+      <c r="AJ67" s="263"/>
+      <c r="AK67" s="264"/>
+      <c r="AL67" s="264"/>
+      <c r="AM67" s="265"/>
+      <c r="AN67" s="257"/>
+      <c r="AO67" s="258"/>
+      <c r="AP67" s="258"/>
+      <c r="AQ67" s="258"/>
+      <c r="AR67" s="259"/>
+      <c r="AS67" s="263"/>
+      <c r="AT67" s="264"/>
+      <c r="AU67" s="264"/>
+      <c r="AV67" s="265"/>
       <c r="AW67" s="163"/>
     </row>
     <row r="68" spans="1:49" ht="13.5" customHeight="1">
       <c r="A68" s="21"/>
-      <c r="B68" s="268"/>
-      <c r="C68" s="269"/>
-      <c r="D68" s="256"/>
-      <c r="E68" s="257"/>
-      <c r="F68" s="257"/>
-      <c r="G68" s="257"/>
-      <c r="H68" s="258"/>
-      <c r="I68" s="270"/>
-      <c r="J68" s="271"/>
-      <c r="K68" s="271"/>
-      <c r="L68" s="271"/>
-      <c r="M68" s="271"/>
-      <c r="N68" s="271"/>
-      <c r="O68" s="271"/>
-      <c r="P68" s="271"/>
-      <c r="Q68" s="271"/>
-      <c r="R68" s="271"/>
-      <c r="S68" s="271"/>
-      <c r="T68" s="271"/>
-      <c r="U68" s="271"/>
-      <c r="V68" s="271"/>
-      <c r="W68" s="271"/>
-      <c r="X68" s="271"/>
-      <c r="Y68" s="271"/>
-      <c r="Z68" s="272"/>
-      <c r="AA68" s="262"/>
-      <c r="AB68" s="263"/>
-      <c r="AC68" s="263"/>
-      <c r="AD68" s="264"/>
-      <c r="AE68" s="256"/>
-      <c r="AF68" s="257"/>
-      <c r="AG68" s="257"/>
-      <c r="AH68" s="257"/>
-      <c r="AI68" s="258"/>
-      <c r="AJ68" s="262"/>
-      <c r="AK68" s="263"/>
-      <c r="AL68" s="263"/>
-      <c r="AM68" s="264"/>
-      <c r="AN68" s="256"/>
-      <c r="AO68" s="257"/>
-      <c r="AP68" s="257"/>
-      <c r="AQ68" s="257"/>
-      <c r="AR68" s="258"/>
-      <c r="AS68" s="262"/>
-      <c r="AT68" s="263"/>
-      <c r="AU68" s="263"/>
-      <c r="AV68" s="264"/>
+      <c r="B68" s="269"/>
+      <c r="C68" s="270"/>
+      <c r="D68" s="257"/>
+      <c r="E68" s="258"/>
+      <c r="F68" s="258"/>
+      <c r="G68" s="258"/>
+      <c r="H68" s="259"/>
+      <c r="I68" s="271"/>
+      <c r="J68" s="272"/>
+      <c r="K68" s="272"/>
+      <c r="L68" s="272"/>
+      <c r="M68" s="272"/>
+      <c r="N68" s="272"/>
+      <c r="O68" s="272"/>
+      <c r="P68" s="272"/>
+      <c r="Q68" s="272"/>
+      <c r="R68" s="272"/>
+      <c r="S68" s="272"/>
+      <c r="T68" s="272"/>
+      <c r="U68" s="272"/>
+      <c r="V68" s="272"/>
+      <c r="W68" s="272"/>
+      <c r="X68" s="272"/>
+      <c r="Y68" s="272"/>
+      <c r="Z68" s="273"/>
+      <c r="AA68" s="263"/>
+      <c r="AB68" s="264"/>
+      <c r="AC68" s="264"/>
+      <c r="AD68" s="265"/>
+      <c r="AE68" s="257"/>
+      <c r="AF68" s="258"/>
+      <c r="AG68" s="258"/>
+      <c r="AH68" s="258"/>
+      <c r="AI68" s="259"/>
+      <c r="AJ68" s="263"/>
+      <c r="AK68" s="264"/>
+      <c r="AL68" s="264"/>
+      <c r="AM68" s="265"/>
+      <c r="AN68" s="257"/>
+      <c r="AO68" s="258"/>
+      <c r="AP68" s="258"/>
+      <c r="AQ68" s="258"/>
+      <c r="AR68" s="259"/>
+      <c r="AS68" s="263"/>
+      <c r="AT68" s="264"/>
+      <c r="AU68" s="264"/>
+      <c r="AV68" s="265"/>
       <c r="AW68" s="163"/>
     </row>
     <row r="69" spans="1:49" ht="13.5" customHeight="1">
       <c r="A69" s="21"/>
-      <c r="B69" s="268"/>
-      <c r="C69" s="269"/>
-      <c r="D69" s="256"/>
-      <c r="E69" s="257"/>
-      <c r="F69" s="257"/>
-      <c r="G69" s="257"/>
-      <c r="H69" s="258"/>
-      <c r="I69" s="270"/>
-      <c r="J69" s="271"/>
-      <c r="K69" s="271"/>
-      <c r="L69" s="271"/>
-      <c r="M69" s="271"/>
-      <c r="N69" s="271"/>
-      <c r="O69" s="271"/>
-      <c r="P69" s="271"/>
-      <c r="Q69" s="271"/>
-      <c r="R69" s="271"/>
-      <c r="S69" s="271"/>
-      <c r="T69" s="271"/>
-      <c r="U69" s="271"/>
-      <c r="V69" s="271"/>
-      <c r="W69" s="271"/>
-      <c r="X69" s="271"/>
-      <c r="Y69" s="271"/>
-      <c r="Z69" s="272"/>
-      <c r="AA69" s="262"/>
-      <c r="AB69" s="263"/>
-      <c r="AC69" s="263"/>
-      <c r="AD69" s="264"/>
-      <c r="AE69" s="256"/>
-      <c r="AF69" s="257"/>
-      <c r="AG69" s="257"/>
-      <c r="AH69" s="257"/>
-      <c r="AI69" s="258"/>
-      <c r="AJ69" s="262"/>
-      <c r="AK69" s="263"/>
-      <c r="AL69" s="263"/>
-      <c r="AM69" s="264"/>
-      <c r="AN69" s="256"/>
-      <c r="AO69" s="257"/>
-      <c r="AP69" s="257"/>
-      <c r="AQ69" s="257"/>
-      <c r="AR69" s="258"/>
-      <c r="AS69" s="262"/>
-      <c r="AT69" s="263"/>
-      <c r="AU69" s="263"/>
-      <c r="AV69" s="264"/>
+      <c r="B69" s="269"/>
+      <c r="C69" s="270"/>
+      <c r="D69" s="257"/>
+      <c r="E69" s="258"/>
+      <c r="F69" s="258"/>
+      <c r="G69" s="258"/>
+      <c r="H69" s="259"/>
+      <c r="I69" s="271"/>
+      <c r="J69" s="272"/>
+      <c r="K69" s="272"/>
+      <c r="L69" s="272"/>
+      <c r="M69" s="272"/>
+      <c r="N69" s="272"/>
+      <c r="O69" s="272"/>
+      <c r="P69" s="272"/>
+      <c r="Q69" s="272"/>
+      <c r="R69" s="272"/>
+      <c r="S69" s="272"/>
+      <c r="T69" s="272"/>
+      <c r="U69" s="272"/>
+      <c r="V69" s="272"/>
+      <c r="W69" s="272"/>
+      <c r="X69" s="272"/>
+      <c r="Y69" s="272"/>
+      <c r="Z69" s="273"/>
+      <c r="AA69" s="263"/>
+      <c r="AB69" s="264"/>
+      <c r="AC69" s="264"/>
+      <c r="AD69" s="265"/>
+      <c r="AE69" s="257"/>
+      <c r="AF69" s="258"/>
+      <c r="AG69" s="258"/>
+      <c r="AH69" s="258"/>
+      <c r="AI69" s="259"/>
+      <c r="AJ69" s="263"/>
+      <c r="AK69" s="264"/>
+      <c r="AL69" s="264"/>
+      <c r="AM69" s="265"/>
+      <c r="AN69" s="257"/>
+      <c r="AO69" s="258"/>
+      <c r="AP69" s="258"/>
+      <c r="AQ69" s="258"/>
+      <c r="AR69" s="259"/>
+      <c r="AS69" s="263"/>
+      <c r="AT69" s="264"/>
+      <c r="AU69" s="264"/>
+      <c r="AV69" s="265"/>
       <c r="AW69" s="163"/>
     </row>
     <row r="70" spans="1:49" ht="13.5" customHeight="1">
       <c r="A70" s="21"/>
-      <c r="B70" s="268"/>
-      <c r="C70" s="269"/>
-      <c r="D70" s="256"/>
-      <c r="E70" s="257"/>
-      <c r="F70" s="257"/>
-      <c r="G70" s="257"/>
-      <c r="H70" s="258"/>
-      <c r="I70" s="270"/>
-      <c r="J70" s="271"/>
-      <c r="K70" s="271"/>
-      <c r="L70" s="271"/>
-      <c r="M70" s="271"/>
-      <c r="N70" s="271"/>
-      <c r="O70" s="271"/>
-      <c r="P70" s="271"/>
-      <c r="Q70" s="271"/>
-      <c r="R70" s="271"/>
-      <c r="S70" s="271"/>
-      <c r="T70" s="271"/>
-      <c r="U70" s="271"/>
-      <c r="V70" s="271"/>
-      <c r="W70" s="271"/>
-      <c r="X70" s="271"/>
-      <c r="Y70" s="271"/>
-      <c r="Z70" s="272"/>
-      <c r="AA70" s="262"/>
-      <c r="AB70" s="263"/>
-      <c r="AC70" s="263"/>
-      <c r="AD70" s="264"/>
-      <c r="AE70" s="256"/>
-      <c r="AF70" s="257"/>
-      <c r="AG70" s="257"/>
-      <c r="AH70" s="257"/>
-      <c r="AI70" s="258"/>
-      <c r="AJ70" s="262"/>
-      <c r="AK70" s="263"/>
-      <c r="AL70" s="263"/>
-      <c r="AM70" s="264"/>
-      <c r="AN70" s="256"/>
-      <c r="AO70" s="257"/>
-      <c r="AP70" s="257"/>
-      <c r="AQ70" s="257"/>
-      <c r="AR70" s="258"/>
-      <c r="AS70" s="262"/>
-      <c r="AT70" s="263"/>
-      <c r="AU70" s="263"/>
-      <c r="AV70" s="264"/>
+      <c r="B70" s="269"/>
+      <c r="C70" s="270"/>
+      <c r="D70" s="257"/>
+      <c r="E70" s="258"/>
+      <c r="F70" s="258"/>
+      <c r="G70" s="258"/>
+      <c r="H70" s="259"/>
+      <c r="I70" s="271"/>
+      <c r="J70" s="272"/>
+      <c r="K70" s="272"/>
+      <c r="L70" s="272"/>
+      <c r="M70" s="272"/>
+      <c r="N70" s="272"/>
+      <c r="O70" s="272"/>
+      <c r="P70" s="272"/>
+      <c r="Q70" s="272"/>
+      <c r="R70" s="272"/>
+      <c r="S70" s="272"/>
+      <c r="T70" s="272"/>
+      <c r="U70" s="272"/>
+      <c r="V70" s="272"/>
+      <c r="W70" s="272"/>
+      <c r="X70" s="272"/>
+      <c r="Y70" s="272"/>
+      <c r="Z70" s="273"/>
+      <c r="AA70" s="263"/>
+      <c r="AB70" s="264"/>
+      <c r="AC70" s="264"/>
+      <c r="AD70" s="265"/>
+      <c r="AE70" s="257"/>
+      <c r="AF70" s="258"/>
+      <c r="AG70" s="258"/>
+      <c r="AH70" s="258"/>
+      <c r="AI70" s="259"/>
+      <c r="AJ70" s="263"/>
+      <c r="AK70" s="264"/>
+      <c r="AL70" s="264"/>
+      <c r="AM70" s="265"/>
+      <c r="AN70" s="257"/>
+      <c r="AO70" s="258"/>
+      <c r="AP70" s="258"/>
+      <c r="AQ70" s="258"/>
+      <c r="AR70" s="259"/>
+      <c r="AS70" s="263"/>
+      <c r="AT70" s="264"/>
+      <c r="AU70" s="264"/>
+      <c r="AV70" s="265"/>
       <c r="AW70" s="163"/>
     </row>
     <row r="71" spans="1:49" ht="13.5" customHeight="1">
       <c r="A71" s="21"/>
-      <c r="B71" s="268"/>
-      <c r="C71" s="269"/>
-      <c r="D71" s="256"/>
-      <c r="E71" s="257"/>
-      <c r="F71" s="257"/>
-      <c r="G71" s="257"/>
-      <c r="H71" s="258"/>
-      <c r="I71" s="270"/>
-      <c r="J71" s="271"/>
-      <c r="K71" s="271"/>
-      <c r="L71" s="271"/>
-      <c r="M71" s="271"/>
-      <c r="N71" s="271"/>
-      <c r="O71" s="271"/>
-      <c r="P71" s="271"/>
-      <c r="Q71" s="271"/>
-      <c r="R71" s="271"/>
-      <c r="S71" s="271"/>
-      <c r="T71" s="271"/>
-      <c r="U71" s="271"/>
-      <c r="V71" s="271"/>
-      <c r="W71" s="271"/>
-      <c r="X71" s="271"/>
-      <c r="Y71" s="271"/>
-      <c r="Z71" s="272"/>
-      <c r="AA71" s="262"/>
-      <c r="AB71" s="263"/>
-      <c r="AC71" s="263"/>
-      <c r="AD71" s="264"/>
-      <c r="AE71" s="256"/>
-      <c r="AF71" s="257"/>
-      <c r="AG71" s="257"/>
-      <c r="AH71" s="257"/>
-      <c r="AI71" s="258"/>
-      <c r="AJ71" s="262"/>
-      <c r="AK71" s="263"/>
-      <c r="AL71" s="263"/>
-      <c r="AM71" s="264"/>
-      <c r="AN71" s="256"/>
-      <c r="AO71" s="257"/>
-      <c r="AP71" s="257"/>
-      <c r="AQ71" s="257"/>
-      <c r="AR71" s="258"/>
-      <c r="AS71" s="262"/>
-      <c r="AT71" s="263"/>
-      <c r="AU71" s="263"/>
-      <c r="AV71" s="264"/>
+      <c r="B71" s="269"/>
+      <c r="C71" s="270"/>
+      <c r="D71" s="257"/>
+      <c r="E71" s="258"/>
+      <c r="F71" s="258"/>
+      <c r="G71" s="258"/>
+      <c r="H71" s="259"/>
+      <c r="I71" s="271"/>
+      <c r="J71" s="272"/>
+      <c r="K71" s="272"/>
+      <c r="L71" s="272"/>
+      <c r="M71" s="272"/>
+      <c r="N71" s="272"/>
+      <c r="O71" s="272"/>
+      <c r="P71" s="272"/>
+      <c r="Q71" s="272"/>
+      <c r="R71" s="272"/>
+      <c r="S71" s="272"/>
+      <c r="T71" s="272"/>
+      <c r="U71" s="272"/>
+      <c r="V71" s="272"/>
+      <c r="W71" s="272"/>
+      <c r="X71" s="272"/>
+      <c r="Y71" s="272"/>
+      <c r="Z71" s="273"/>
+      <c r="AA71" s="263"/>
+      <c r="AB71" s="264"/>
+      <c r="AC71" s="264"/>
+      <c r="AD71" s="265"/>
+      <c r="AE71" s="257"/>
+      <c r="AF71" s="258"/>
+      <c r="AG71" s="258"/>
+      <c r="AH71" s="258"/>
+      <c r="AI71" s="259"/>
+      <c r="AJ71" s="263"/>
+      <c r="AK71" s="264"/>
+      <c r="AL71" s="264"/>
+      <c r="AM71" s="265"/>
+      <c r="AN71" s="257"/>
+      <c r="AO71" s="258"/>
+      <c r="AP71" s="258"/>
+      <c r="AQ71" s="258"/>
+      <c r="AR71" s="259"/>
+      <c r="AS71" s="263"/>
+      <c r="AT71" s="264"/>
+      <c r="AU71" s="264"/>
+      <c r="AV71" s="265"/>
       <c r="AW71" s="163"/>
     </row>
     <row r="72" spans="1:49" ht="13.5" customHeight="1">
       <c r="A72" s="21"/>
-      <c r="B72" s="268"/>
-      <c r="C72" s="269"/>
-      <c r="D72" s="256"/>
-      <c r="E72" s="257"/>
-      <c r="F72" s="257"/>
-      <c r="G72" s="257"/>
-      <c r="H72" s="258"/>
-      <c r="I72" s="270"/>
-      <c r="J72" s="271"/>
-      <c r="K72" s="271"/>
-      <c r="L72" s="271"/>
-      <c r="M72" s="271"/>
-      <c r="N72" s="271"/>
-      <c r="O72" s="271"/>
-      <c r="P72" s="271"/>
-      <c r="Q72" s="271"/>
-      <c r="R72" s="271"/>
-      <c r="S72" s="271"/>
-      <c r="T72" s="271"/>
-      <c r="U72" s="271"/>
-      <c r="V72" s="271"/>
-      <c r="W72" s="271"/>
-      <c r="X72" s="271"/>
-      <c r="Y72" s="271"/>
-      <c r="Z72" s="272"/>
-      <c r="AA72" s="262"/>
-      <c r="AB72" s="263"/>
-      <c r="AC72" s="263"/>
-      <c r="AD72" s="264"/>
-      <c r="AE72" s="256"/>
-      <c r="AF72" s="257"/>
-      <c r="AG72" s="257"/>
-      <c r="AH72" s="257"/>
-      <c r="AI72" s="258"/>
-      <c r="AJ72" s="262"/>
-      <c r="AK72" s="263"/>
-      <c r="AL72" s="263"/>
-      <c r="AM72" s="264"/>
-      <c r="AN72" s="256"/>
-      <c r="AO72" s="257"/>
-      <c r="AP72" s="257"/>
-      <c r="AQ72" s="257"/>
-      <c r="AR72" s="258"/>
-      <c r="AS72" s="262"/>
-      <c r="AT72" s="263"/>
-      <c r="AU72" s="263"/>
-      <c r="AV72" s="264"/>
+      <c r="B72" s="269"/>
+      <c r="C72" s="270"/>
+      <c r="D72" s="257"/>
+      <c r="E72" s="258"/>
+      <c r="F72" s="258"/>
+      <c r="G72" s="258"/>
+      <c r="H72" s="259"/>
+      <c r="I72" s="271"/>
+      <c r="J72" s="272"/>
+      <c r="K72" s="272"/>
+      <c r="L72" s="272"/>
+      <c r="M72" s="272"/>
+      <c r="N72" s="272"/>
+      <c r="O72" s="272"/>
+      <c r="P72" s="272"/>
+      <c r="Q72" s="272"/>
+      <c r="R72" s="272"/>
+      <c r="S72" s="272"/>
+      <c r="T72" s="272"/>
+      <c r="U72" s="272"/>
+      <c r="V72" s="272"/>
+      <c r="W72" s="272"/>
+      <c r="X72" s="272"/>
+      <c r="Y72" s="272"/>
+      <c r="Z72" s="273"/>
+      <c r="AA72" s="263"/>
+      <c r="AB72" s="264"/>
+      <c r="AC72" s="264"/>
+      <c r="AD72" s="265"/>
+      <c r="AE72" s="257"/>
+      <c r="AF72" s="258"/>
+      <c r="AG72" s="258"/>
+      <c r="AH72" s="258"/>
+      <c r="AI72" s="259"/>
+      <c r="AJ72" s="263"/>
+      <c r="AK72" s="264"/>
+      <c r="AL72" s="264"/>
+      <c r="AM72" s="265"/>
+      <c r="AN72" s="257"/>
+      <c r="AO72" s="258"/>
+      <c r="AP72" s="258"/>
+      <c r="AQ72" s="258"/>
+      <c r="AR72" s="259"/>
+      <c r="AS72" s="263"/>
+      <c r="AT72" s="264"/>
+      <c r="AU72" s="264"/>
+      <c r="AV72" s="265"/>
       <c r="AW72" s="163"/>
     </row>
     <row r="73" spans="1:49" ht="13.5" customHeight="1">
       <c r="A73" s="21"/>
-      <c r="B73" s="268"/>
-      <c r="C73" s="269"/>
-      <c r="D73" s="256"/>
-      <c r="E73" s="257"/>
-      <c r="F73" s="257"/>
-      <c r="G73" s="257"/>
-      <c r="H73" s="258"/>
-      <c r="I73" s="270"/>
-      <c r="J73" s="271"/>
-      <c r="K73" s="271"/>
-      <c r="L73" s="271"/>
-      <c r="M73" s="271"/>
-      <c r="N73" s="271"/>
-      <c r="O73" s="271"/>
-      <c r="P73" s="271"/>
-      <c r="Q73" s="271"/>
-      <c r="R73" s="271"/>
-      <c r="S73" s="271"/>
-      <c r="T73" s="271"/>
-      <c r="U73" s="271"/>
-      <c r="V73" s="271"/>
-      <c r="W73" s="271"/>
-      <c r="X73" s="271"/>
-      <c r="Y73" s="271"/>
-      <c r="Z73" s="272"/>
-      <c r="AA73" s="262"/>
-      <c r="AB73" s="263"/>
-      <c r="AC73" s="263"/>
-      <c r="AD73" s="264"/>
-      <c r="AE73" s="256"/>
-      <c r="AF73" s="257"/>
-      <c r="AG73" s="257"/>
-      <c r="AH73" s="257"/>
-      <c r="AI73" s="258"/>
-      <c r="AJ73" s="262"/>
-      <c r="AK73" s="263"/>
-      <c r="AL73" s="263"/>
-      <c r="AM73" s="264"/>
-      <c r="AN73" s="256"/>
-      <c r="AO73" s="257"/>
-      <c r="AP73" s="257"/>
-      <c r="AQ73" s="257"/>
-      <c r="AR73" s="258"/>
-      <c r="AS73" s="262"/>
-      <c r="AT73" s="263"/>
-      <c r="AU73" s="263"/>
-      <c r="AV73" s="264"/>
+      <c r="B73" s="269"/>
+      <c r="C73" s="270"/>
+      <c r="D73" s="257"/>
+      <c r="E73" s="258"/>
+      <c r="F73" s="258"/>
+      <c r="G73" s="258"/>
+      <c r="H73" s="259"/>
+      <c r="I73" s="271"/>
+      <c r="J73" s="272"/>
+      <c r="K73" s="272"/>
+      <c r="L73" s="272"/>
+      <c r="M73" s="272"/>
+      <c r="N73" s="272"/>
+      <c r="O73" s="272"/>
+      <c r="P73" s="272"/>
+      <c r="Q73" s="272"/>
+      <c r="R73" s="272"/>
+      <c r="S73" s="272"/>
+      <c r="T73" s="272"/>
+      <c r="U73" s="272"/>
+      <c r="V73" s="272"/>
+      <c r="W73" s="272"/>
+      <c r="X73" s="272"/>
+      <c r="Y73" s="272"/>
+      <c r="Z73" s="273"/>
+      <c r="AA73" s="263"/>
+      <c r="AB73" s="264"/>
+      <c r="AC73" s="264"/>
+      <c r="AD73" s="265"/>
+      <c r="AE73" s="257"/>
+      <c r="AF73" s="258"/>
+      <c r="AG73" s="258"/>
+      <c r="AH73" s="258"/>
+      <c r="AI73" s="259"/>
+      <c r="AJ73" s="263"/>
+      <c r="AK73" s="264"/>
+      <c r="AL73" s="264"/>
+      <c r="AM73" s="265"/>
+      <c r="AN73" s="257"/>
+      <c r="AO73" s="258"/>
+      <c r="AP73" s="258"/>
+      <c r="AQ73" s="258"/>
+      <c r="AR73" s="259"/>
+      <c r="AS73" s="263"/>
+      <c r="AT73" s="264"/>
+      <c r="AU73" s="264"/>
+      <c r="AV73" s="265"/>
       <c r="AW73" s="163"/>
     </row>
     <row r="74" spans="1:49" ht="13.5" customHeight="1">
       <c r="A74" s="21"/>
-      <c r="B74" s="268"/>
-      <c r="C74" s="269"/>
-      <c r="D74" s="256"/>
-      <c r="E74" s="257"/>
-      <c r="F74" s="257"/>
-      <c r="G74" s="257"/>
-      <c r="H74" s="258"/>
-      <c r="I74" s="270"/>
-      <c r="J74" s="271"/>
-      <c r="K74" s="271"/>
-      <c r="L74" s="271"/>
-      <c r="M74" s="271"/>
-      <c r="N74" s="271"/>
-      <c r="O74" s="271"/>
-      <c r="P74" s="271"/>
-      <c r="Q74" s="271"/>
-      <c r="R74" s="271"/>
-      <c r="S74" s="271"/>
-      <c r="T74" s="271"/>
-      <c r="U74" s="271"/>
-      <c r="V74" s="271"/>
-      <c r="W74" s="271"/>
-      <c r="X74" s="271"/>
-      <c r="Y74" s="271"/>
-      <c r="Z74" s="272"/>
-      <c r="AA74" s="262"/>
-      <c r="AB74" s="263"/>
-      <c r="AC74" s="263"/>
-      <c r="AD74" s="264"/>
-      <c r="AE74" s="256"/>
-      <c r="AF74" s="257"/>
-      <c r="AG74" s="257"/>
-      <c r="AH74" s="257"/>
-      <c r="AI74" s="258"/>
-      <c r="AJ74" s="262"/>
-      <c r="AK74" s="263"/>
-      <c r="AL74" s="263"/>
-      <c r="AM74" s="264"/>
-      <c r="AN74" s="256"/>
-      <c r="AO74" s="257"/>
-      <c r="AP74" s="257"/>
-      <c r="AQ74" s="257"/>
-      <c r="AR74" s="258"/>
-      <c r="AS74" s="262"/>
-      <c r="AT74" s="263"/>
-      <c r="AU74" s="263"/>
-      <c r="AV74" s="264"/>
+      <c r="B74" s="269"/>
+      <c r="C74" s="270"/>
+      <c r="D74" s="257"/>
+      <c r="E74" s="258"/>
+      <c r="F74" s="258"/>
+      <c r="G74" s="258"/>
+      <c r="H74" s="259"/>
+      <c r="I74" s="271"/>
+      <c r="J74" s="272"/>
+      <c r="K74" s="272"/>
+      <c r="L74" s="272"/>
+      <c r="M74" s="272"/>
+      <c r="N74" s="272"/>
+      <c r="O74" s="272"/>
+      <c r="P74" s="272"/>
+      <c r="Q74" s="272"/>
+      <c r="R74" s="272"/>
+      <c r="S74" s="272"/>
+      <c r="T74" s="272"/>
+      <c r="U74" s="272"/>
+      <c r="V74" s="272"/>
+      <c r="W74" s="272"/>
+      <c r="X74" s="272"/>
+      <c r="Y74" s="272"/>
+      <c r="Z74" s="273"/>
+      <c r="AA74" s="263"/>
+      <c r="AB74" s="264"/>
+      <c r="AC74" s="264"/>
+      <c r="AD74" s="265"/>
+      <c r="AE74" s="257"/>
+      <c r="AF74" s="258"/>
+      <c r="AG74" s="258"/>
+      <c r="AH74" s="258"/>
+      <c r="AI74" s="259"/>
+      <c r="AJ74" s="263"/>
+      <c r="AK74" s="264"/>
+      <c r="AL74" s="264"/>
+      <c r="AM74" s="265"/>
+      <c r="AN74" s="257"/>
+      <c r="AO74" s="258"/>
+      <c r="AP74" s="258"/>
+      <c r="AQ74" s="258"/>
+      <c r="AR74" s="259"/>
+      <c r="AS74" s="263"/>
+      <c r="AT74" s="264"/>
+      <c r="AU74" s="264"/>
+      <c r="AV74" s="265"/>
       <c r="AW74" s="163"/>
     </row>
     <row r="75" spans="1:49" ht="13.5" customHeight="1">
       <c r="A75" s="21"/>
-      <c r="B75" s="268"/>
-      <c r="C75" s="269"/>
-      <c r="D75" s="256"/>
-      <c r="E75" s="257"/>
-      <c r="F75" s="257"/>
-      <c r="G75" s="257"/>
-      <c r="H75" s="258"/>
-      <c r="I75" s="270"/>
-      <c r="J75" s="271"/>
-      <c r="K75" s="271"/>
-      <c r="L75" s="271"/>
-      <c r="M75" s="271"/>
-      <c r="N75" s="271"/>
-      <c r="O75" s="271"/>
-      <c r="P75" s="271"/>
-      <c r="Q75" s="271"/>
-      <c r="R75" s="271"/>
-      <c r="S75" s="271"/>
-      <c r="T75" s="271"/>
-      <c r="U75" s="271"/>
-      <c r="V75" s="271"/>
-      <c r="W75" s="271"/>
-      <c r="X75" s="271"/>
-      <c r="Y75" s="271"/>
-      <c r="Z75" s="272"/>
-      <c r="AA75" s="262"/>
-      <c r="AB75" s="263"/>
-      <c r="AC75" s="263"/>
-      <c r="AD75" s="264"/>
-      <c r="AE75" s="256"/>
-      <c r="AF75" s="257"/>
-      <c r="AG75" s="257"/>
-      <c r="AH75" s="257"/>
-      <c r="AI75" s="258"/>
-      <c r="AJ75" s="262"/>
-      <c r="AK75" s="263"/>
-      <c r="AL75" s="263"/>
-      <c r="AM75" s="264"/>
-      <c r="AN75" s="256"/>
-      <c r="AO75" s="257"/>
-      <c r="AP75" s="257"/>
-      <c r="AQ75" s="257"/>
-      <c r="AR75" s="258"/>
-      <c r="AS75" s="262"/>
-      <c r="AT75" s="263"/>
-      <c r="AU75" s="263"/>
-      <c r="AV75" s="264"/>
+      <c r="B75" s="269"/>
+      <c r="C75" s="270"/>
+      <c r="D75" s="257"/>
+      <c r="E75" s="258"/>
+      <c r="F75" s="258"/>
+      <c r="G75" s="258"/>
+      <c r="H75" s="259"/>
+      <c r="I75" s="271"/>
+      <c r="J75" s="272"/>
+      <c r="K75" s="272"/>
+      <c r="L75" s="272"/>
+      <c r="M75" s="272"/>
+      <c r="N75" s="272"/>
+      <c r="O75" s="272"/>
+      <c r="P75" s="272"/>
+      <c r="Q75" s="272"/>
+      <c r="R75" s="272"/>
+      <c r="S75" s="272"/>
+      <c r="T75" s="272"/>
+      <c r="U75" s="272"/>
+      <c r="V75" s="272"/>
+      <c r="W75" s="272"/>
+      <c r="X75" s="272"/>
+      <c r="Y75" s="272"/>
+      <c r="Z75" s="273"/>
+      <c r="AA75" s="263"/>
+      <c r="AB75" s="264"/>
+      <c r="AC75" s="264"/>
+      <c r="AD75" s="265"/>
+      <c r="AE75" s="257"/>
+      <c r="AF75" s="258"/>
+      <c r="AG75" s="258"/>
+      <c r="AH75" s="258"/>
+      <c r="AI75" s="259"/>
+      <c r="AJ75" s="263"/>
+      <c r="AK75" s="264"/>
+      <c r="AL75" s="264"/>
+      <c r="AM75" s="265"/>
+      <c r="AN75" s="257"/>
+      <c r="AO75" s="258"/>
+      <c r="AP75" s="258"/>
+      <c r="AQ75" s="258"/>
+      <c r="AR75" s="259"/>
+      <c r="AS75" s="263"/>
+      <c r="AT75" s="264"/>
+      <c r="AU75" s="264"/>
+      <c r="AV75" s="265"/>
       <c r="AW75" s="163"/>
     </row>
     <row r="76" spans="1:49" ht="13.5" customHeight="1">
       <c r="A76" s="21"/>
-      <c r="B76" s="268"/>
-      <c r="C76" s="269"/>
-      <c r="D76" s="256"/>
-      <c r="E76" s="257"/>
-      <c r="F76" s="257"/>
-      <c r="G76" s="257"/>
-      <c r="H76" s="258"/>
-      <c r="I76" s="270"/>
-      <c r="J76" s="271"/>
-      <c r="K76" s="271"/>
-      <c r="L76" s="271"/>
-      <c r="M76" s="271"/>
-      <c r="N76" s="271"/>
-      <c r="O76" s="271"/>
-      <c r="P76" s="271"/>
-      <c r="Q76" s="271"/>
-      <c r="R76" s="271"/>
-      <c r="S76" s="271"/>
-      <c r="T76" s="271"/>
-      <c r="U76" s="271"/>
-      <c r="V76" s="271"/>
-      <c r="W76" s="271"/>
-      <c r="X76" s="271"/>
-      <c r="Y76" s="271"/>
-      <c r="Z76" s="272"/>
-      <c r="AA76" s="262"/>
-      <c r="AB76" s="263"/>
-      <c r="AC76" s="263"/>
-      <c r="AD76" s="264"/>
-      <c r="AE76" s="256"/>
-      <c r="AF76" s="257"/>
-      <c r="AG76" s="257"/>
-      <c r="AH76" s="257"/>
-      <c r="AI76" s="258"/>
-      <c r="AJ76" s="262"/>
-      <c r="AK76" s="263"/>
-      <c r="AL76" s="263"/>
-      <c r="AM76" s="264"/>
-      <c r="AN76" s="256"/>
-      <c r="AO76" s="257"/>
-      <c r="AP76" s="257"/>
-      <c r="AQ76" s="257"/>
-      <c r="AR76" s="258"/>
-      <c r="AS76" s="262"/>
-      <c r="AT76" s="263"/>
-      <c r="AU76" s="263"/>
-      <c r="AV76" s="264"/>
+      <c r="B76" s="269"/>
+      <c r="C76" s="270"/>
+      <c r="D76" s="257"/>
+      <c r="E76" s="258"/>
+      <c r="F76" s="258"/>
+      <c r="G76" s="258"/>
+      <c r="H76" s="259"/>
+      <c r="I76" s="271"/>
+      <c r="J76" s="272"/>
+      <c r="K76" s="272"/>
+      <c r="L76" s="272"/>
+      <c r="M76" s="272"/>
+      <c r="N76" s="272"/>
+      <c r="O76" s="272"/>
+      <c r="P76" s="272"/>
+      <c r="Q76" s="272"/>
+      <c r="R76" s="272"/>
+      <c r="S76" s="272"/>
+      <c r="T76" s="272"/>
+      <c r="U76" s="272"/>
+      <c r="V76" s="272"/>
+      <c r="W76" s="272"/>
+      <c r="X76" s="272"/>
+      <c r="Y76" s="272"/>
+      <c r="Z76" s="273"/>
+      <c r="AA76" s="263"/>
+      <c r="AB76" s="264"/>
+      <c r="AC76" s="264"/>
+      <c r="AD76" s="265"/>
+      <c r="AE76" s="257"/>
+      <c r="AF76" s="258"/>
+      <c r="AG76" s="258"/>
+      <c r="AH76" s="258"/>
+      <c r="AI76" s="259"/>
+      <c r="AJ76" s="263"/>
+      <c r="AK76" s="264"/>
+      <c r="AL76" s="264"/>
+      <c r="AM76" s="265"/>
+      <c r="AN76" s="257"/>
+      <c r="AO76" s="258"/>
+      <c r="AP76" s="258"/>
+      <c r="AQ76" s="258"/>
+      <c r="AR76" s="259"/>
+      <c r="AS76" s="263"/>
+      <c r="AT76" s="264"/>
+      <c r="AU76" s="264"/>
+      <c r="AV76" s="265"/>
       <c r="AW76" s="163"/>
     </row>
     <row r="77" spans="1:49" ht="13.5" customHeight="1">
       <c r="A77" s="21"/>
-      <c r="B77" s="268"/>
-      <c r="C77" s="269"/>
-      <c r="D77" s="256"/>
-      <c r="E77" s="257"/>
-      <c r="F77" s="257"/>
-      <c r="G77" s="257"/>
-      <c r="H77" s="258"/>
-      <c r="I77" s="270"/>
-      <c r="J77" s="271"/>
-      <c r="K77" s="271"/>
-      <c r="L77" s="271"/>
-      <c r="M77" s="271"/>
-      <c r="N77" s="271"/>
-      <c r="O77" s="271"/>
-      <c r="P77" s="271"/>
-      <c r="Q77" s="271"/>
-      <c r="R77" s="271"/>
-      <c r="S77" s="271"/>
-      <c r="T77" s="271"/>
-      <c r="U77" s="271"/>
-      <c r="V77" s="271"/>
-      <c r="W77" s="271"/>
-      <c r="X77" s="271"/>
-      <c r="Y77" s="271"/>
-      <c r="Z77" s="272"/>
-      <c r="AA77" s="262"/>
-      <c r="AB77" s="263"/>
-      <c r="AC77" s="263"/>
-      <c r="AD77" s="264"/>
-      <c r="AE77" s="256"/>
-      <c r="AF77" s="257"/>
-      <c r="AG77" s="257"/>
-      <c r="AH77" s="257"/>
-      <c r="AI77" s="258"/>
-      <c r="AJ77" s="262"/>
-      <c r="AK77" s="263"/>
-      <c r="AL77" s="263"/>
-      <c r="AM77" s="264"/>
-      <c r="AN77" s="256"/>
-      <c r="AO77" s="257"/>
-      <c r="AP77" s="257"/>
-      <c r="AQ77" s="257"/>
-      <c r="AR77" s="258"/>
-      <c r="AS77" s="262"/>
-      <c r="AT77" s="263"/>
-      <c r="AU77" s="263"/>
-      <c r="AV77" s="264"/>
+      <c r="B77" s="269"/>
+      <c r="C77" s="270"/>
+      <c r="D77" s="257"/>
+      <c r="E77" s="258"/>
+      <c r="F77" s="258"/>
+      <c r="G77" s="258"/>
+      <c r="H77" s="259"/>
+      <c r="I77" s="271"/>
+      <c r="J77" s="272"/>
+      <c r="K77" s="272"/>
+      <c r="L77" s="272"/>
+      <c r="M77" s="272"/>
+      <c r="N77" s="272"/>
+      <c r="O77" s="272"/>
+      <c r="P77" s="272"/>
+      <c r="Q77" s="272"/>
+      <c r="R77" s="272"/>
+      <c r="S77" s="272"/>
+      <c r="T77" s="272"/>
+      <c r="U77" s="272"/>
+      <c r="V77" s="272"/>
+      <c r="W77" s="272"/>
+      <c r="X77" s="272"/>
+      <c r="Y77" s="272"/>
+      <c r="Z77" s="273"/>
+      <c r="AA77" s="263"/>
+      <c r="AB77" s="264"/>
+      <c r="AC77" s="264"/>
+      <c r="AD77" s="265"/>
+      <c r="AE77" s="257"/>
+      <c r="AF77" s="258"/>
+      <c r="AG77" s="258"/>
+      <c r="AH77" s="258"/>
+      <c r="AI77" s="259"/>
+      <c r="AJ77" s="263"/>
+      <c r="AK77" s="264"/>
+      <c r="AL77" s="264"/>
+      <c r="AM77" s="265"/>
+      <c r="AN77" s="257"/>
+      <c r="AO77" s="258"/>
+      <c r="AP77" s="258"/>
+      <c r="AQ77" s="258"/>
+      <c r="AR77" s="259"/>
+      <c r="AS77" s="263"/>
+      <c r="AT77" s="264"/>
+      <c r="AU77" s="264"/>
+      <c r="AV77" s="265"/>
       <c r="AW77" s="163"/>
     </row>
     <row r="78" spans="1:49" ht="13.5" customHeight="1">
       <c r="A78" s="21"/>
-      <c r="B78" s="273"/>
-      <c r="C78" s="274"/>
-      <c r="D78" s="259"/>
-      <c r="E78" s="260"/>
-      <c r="F78" s="260"/>
-      <c r="G78" s="260"/>
-      <c r="H78" s="261"/>
-      <c r="I78" s="275"/>
-      <c r="J78" s="276"/>
-      <c r="K78" s="276"/>
-      <c r="L78" s="276"/>
-      <c r="M78" s="276"/>
-      <c r="N78" s="276"/>
-      <c r="O78" s="276"/>
-      <c r="P78" s="276"/>
-      <c r="Q78" s="276"/>
-      <c r="R78" s="276"/>
-      <c r="S78" s="276"/>
-      <c r="T78" s="276"/>
-      <c r="U78" s="276"/>
-      <c r="V78" s="276"/>
-      <c r="W78" s="276"/>
-      <c r="X78" s="276"/>
-      <c r="Y78" s="276"/>
-      <c r="Z78" s="277"/>
-      <c r="AA78" s="265"/>
-      <c r="AB78" s="266"/>
-      <c r="AC78" s="266"/>
-      <c r="AD78" s="267"/>
-      <c r="AE78" s="259"/>
-      <c r="AF78" s="260"/>
-      <c r="AG78" s="260"/>
-      <c r="AH78" s="260"/>
-      <c r="AI78" s="261"/>
-      <c r="AJ78" s="265"/>
-      <c r="AK78" s="266"/>
-      <c r="AL78" s="266"/>
-      <c r="AM78" s="267"/>
-      <c r="AN78" s="259"/>
-      <c r="AO78" s="260"/>
-      <c r="AP78" s="260"/>
-      <c r="AQ78" s="260"/>
-      <c r="AR78" s="261"/>
-      <c r="AS78" s="265"/>
-      <c r="AT78" s="266"/>
-      <c r="AU78" s="266"/>
-      <c r="AV78" s="267"/>
+      <c r="B78" s="274"/>
+      <c r="C78" s="275"/>
+      <c r="D78" s="260"/>
+      <c r="E78" s="261"/>
+      <c r="F78" s="261"/>
+      <c r="G78" s="261"/>
+      <c r="H78" s="262"/>
+      <c r="I78" s="276"/>
+      <c r="J78" s="277"/>
+      <c r="K78" s="277"/>
+      <c r="L78" s="277"/>
+      <c r="M78" s="277"/>
+      <c r="N78" s="277"/>
+      <c r="O78" s="277"/>
+      <c r="P78" s="277"/>
+      <c r="Q78" s="277"/>
+      <c r="R78" s="277"/>
+      <c r="S78" s="277"/>
+      <c r="T78" s="277"/>
+      <c r="U78" s="277"/>
+      <c r="V78" s="277"/>
+      <c r="W78" s="277"/>
+      <c r="X78" s="277"/>
+      <c r="Y78" s="277"/>
+      <c r="Z78" s="278"/>
+      <c r="AA78" s="266"/>
+      <c r="AB78" s="267"/>
+      <c r="AC78" s="267"/>
+      <c r="AD78" s="268"/>
+      <c r="AE78" s="260"/>
+      <c r="AF78" s="261"/>
+      <c r="AG78" s="261"/>
+      <c r="AH78" s="261"/>
+      <c r="AI78" s="262"/>
+      <c r="AJ78" s="266"/>
+      <c r="AK78" s="267"/>
+      <c r="AL78" s="267"/>
+      <c r="AM78" s="268"/>
+      <c r="AN78" s="260"/>
+      <c r="AO78" s="261"/>
+      <c r="AP78" s="261"/>
+      <c r="AQ78" s="261"/>
+      <c r="AR78" s="262"/>
+      <c r="AS78" s="266"/>
+      <c r="AT78" s="267"/>
+      <c r="AU78" s="267"/>
+      <c r="AV78" s="268"/>
       <c r="AW78" s="163"/>
     </row>
     <row r="79" spans="1:49" ht="13.5" customHeight="1">
@@ -21707,187 +21704,187 @@
       <c r="AW80" s="168"/>
     </row>
     <row r="81" spans="1:50" s="19" customFormat="1" ht="22.95" customHeight="1" thickTop="1">
-      <c r="A81" s="278" t="s">
+      <c r="A81" s="279" t="s">
         <v>96</v>
       </c>
-      <c r="B81" s="279"/>
-      <c r="C81" s="279"/>
-      <c r="D81" s="279"/>
-      <c r="E81" s="279"/>
-      <c r="F81" s="279"/>
-      <c r="G81" s="279"/>
-      <c r="H81" s="279"/>
-      <c r="I81" s="280"/>
-      <c r="J81" s="287" t="s">
+      <c r="B81" s="280"/>
+      <c r="C81" s="280"/>
+      <c r="D81" s="280"/>
+      <c r="E81" s="280"/>
+      <c r="F81" s="280"/>
+      <c r="G81" s="280"/>
+      <c r="H81" s="280"/>
+      <c r="I81" s="281"/>
+      <c r="J81" s="288" t="s">
         <v>19</v>
       </c>
-      <c r="K81" s="279"/>
-      <c r="L81" s="279"/>
-      <c r="M81" s="279"/>
-      <c r="N81" s="279"/>
-      <c r="O81" s="280"/>
-      <c r="P81" s="287" t="s">
+      <c r="K81" s="280"/>
+      <c r="L81" s="280"/>
+      <c r="M81" s="280"/>
+      <c r="N81" s="280"/>
+      <c r="O81" s="281"/>
+      <c r="P81" s="288" t="s">
         <v>20</v>
       </c>
-      <c r="Q81" s="279"/>
-      <c r="R81" s="279"/>
-      <c r="S81" s="279"/>
-      <c r="T81" s="279"/>
-      <c r="U81" s="280"/>
-      <c r="V81" s="293" t="s">
+      <c r="Q81" s="280"/>
+      <c r="R81" s="280"/>
+      <c r="S81" s="280"/>
+      <c r="T81" s="280"/>
+      <c r="U81" s="281"/>
+      <c r="V81" s="294" t="s">
         <v>23</v>
       </c>
-      <c r="W81" s="294"/>
-      <c r="X81" s="294"/>
-      <c r="Y81" s="294"/>
-      <c r="Z81" s="295"/>
-      <c r="AA81" s="299" t="s">
-        <v>160</v>
-      </c>
-      <c r="AB81" s="279"/>
-      <c r="AC81" s="279"/>
-      <c r="AD81" s="279"/>
-      <c r="AE81" s="279"/>
-      <c r="AF81" s="279"/>
-      <c r="AG81" s="279"/>
-      <c r="AH81" s="279"/>
-      <c r="AI81" s="279"/>
-      <c r="AJ81" s="279"/>
-      <c r="AK81" s="279"/>
-      <c r="AL81" s="280"/>
-      <c r="AM81" s="288" t="s">
+      <c r="W81" s="295"/>
+      <c r="X81" s="295"/>
+      <c r="Y81" s="295"/>
+      <c r="Z81" s="296"/>
+      <c r="AA81" s="300" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB81" s="280"/>
+      <c r="AC81" s="280"/>
+      <c r="AD81" s="280"/>
+      <c r="AE81" s="280"/>
+      <c r="AF81" s="280"/>
+      <c r="AG81" s="280"/>
+      <c r="AH81" s="280"/>
+      <c r="AI81" s="280"/>
+      <c r="AJ81" s="280"/>
+      <c r="AK81" s="280"/>
+      <c r="AL81" s="281"/>
+      <c r="AM81" s="289" t="s">
         <v>24</v>
       </c>
-      <c r="AN81" s="289"/>
-      <c r="AO81" s="301" t="s">
-        <v>161</v>
-      </c>
-      <c r="AP81" s="302"/>
-      <c r="AQ81" s="303"/>
-      <c r="AR81" s="288" t="s">
+      <c r="AN81" s="290"/>
+      <c r="AO81" s="302" t="s">
+        <v>157</v>
+      </c>
+      <c r="AP81" s="303"/>
+      <c r="AQ81" s="304"/>
+      <c r="AR81" s="289" t="s">
         <v>26</v>
       </c>
-      <c r="AS81" s="289"/>
-      <c r="AT81" s="290">
+      <c r="AS81" s="290"/>
+      <c r="AT81" s="291">
         <v>45209</v>
       </c>
-      <c r="AU81" s="291"/>
-      <c r="AV81" s="291"/>
-      <c r="AW81" s="292"/>
+      <c r="AU81" s="292"/>
+      <c r="AV81" s="292"/>
+      <c r="AW81" s="293"/>
     </row>
     <row r="82" spans="1:50" s="19" customFormat="1" ht="22.95" customHeight="1">
-      <c r="A82" s="281"/>
-      <c r="B82" s="282"/>
-      <c r="C82" s="282"/>
-      <c r="D82" s="282"/>
-      <c r="E82" s="282"/>
-      <c r="F82" s="282"/>
-      <c r="G82" s="282"/>
-      <c r="H82" s="282"/>
-      <c r="I82" s="283"/>
-      <c r="J82" s="281"/>
-      <c r="K82" s="282"/>
-      <c r="L82" s="282"/>
-      <c r="M82" s="282"/>
-      <c r="N82" s="282"/>
-      <c r="O82" s="283"/>
-      <c r="P82" s="281"/>
-      <c r="Q82" s="282"/>
-      <c r="R82" s="282"/>
-      <c r="S82" s="282"/>
-      <c r="T82" s="282"/>
-      <c r="U82" s="283"/>
-      <c r="V82" s="296"/>
-      <c r="W82" s="297"/>
-      <c r="X82" s="297"/>
-      <c r="Y82" s="297"/>
-      <c r="Z82" s="298"/>
-      <c r="AA82" s="300"/>
-      <c r="AB82" s="282"/>
-      <c r="AC82" s="282"/>
-      <c r="AD82" s="282"/>
-      <c r="AE82" s="282"/>
-      <c r="AF82" s="282"/>
-      <c r="AG82" s="282"/>
-      <c r="AH82" s="282"/>
-      <c r="AI82" s="282"/>
-      <c r="AJ82" s="282"/>
-      <c r="AK82" s="282"/>
-      <c r="AL82" s="283"/>
-      <c r="AM82" s="314" t="s">
+      <c r="A82" s="282"/>
+      <c r="B82" s="283"/>
+      <c r="C82" s="283"/>
+      <c r="D82" s="283"/>
+      <c r="E82" s="283"/>
+      <c r="F82" s="283"/>
+      <c r="G82" s="283"/>
+      <c r="H82" s="283"/>
+      <c r="I82" s="284"/>
+      <c r="J82" s="282"/>
+      <c r="K82" s="283"/>
+      <c r="L82" s="283"/>
+      <c r="M82" s="283"/>
+      <c r="N82" s="283"/>
+      <c r="O82" s="284"/>
+      <c r="P82" s="282"/>
+      <c r="Q82" s="283"/>
+      <c r="R82" s="283"/>
+      <c r="S82" s="283"/>
+      <c r="T82" s="283"/>
+      <c r="U82" s="284"/>
+      <c r="V82" s="297"/>
+      <c r="W82" s="298"/>
+      <c r="X82" s="298"/>
+      <c r="Y82" s="298"/>
+      <c r="Z82" s="299"/>
+      <c r="AA82" s="301"/>
+      <c r="AB82" s="283"/>
+      <c r="AC82" s="283"/>
+      <c r="AD82" s="283"/>
+      <c r="AE82" s="283"/>
+      <c r="AF82" s="283"/>
+      <c r="AG82" s="283"/>
+      <c r="AH82" s="283"/>
+      <c r="AI82" s="283"/>
+      <c r="AJ82" s="283"/>
+      <c r="AK82" s="283"/>
+      <c r="AL82" s="284"/>
+      <c r="AM82" s="315" t="s">
         <v>25</v>
       </c>
-      <c r="AN82" s="315"/>
-      <c r="AO82" s="316"/>
-      <c r="AP82" s="317"/>
-      <c r="AQ82" s="318"/>
-      <c r="AR82" s="314" t="s">
+      <c r="AN82" s="316"/>
+      <c r="AO82" s="317"/>
+      <c r="AP82" s="318"/>
+      <c r="AQ82" s="319"/>
+      <c r="AR82" s="315" t="s">
         <v>27</v>
       </c>
-      <c r="AS82" s="315"/>
-      <c r="AT82" s="319"/>
-      <c r="AU82" s="320"/>
-      <c r="AV82" s="320"/>
-      <c r="AW82" s="321"/>
+      <c r="AS82" s="316"/>
+      <c r="AT82" s="320"/>
+      <c r="AU82" s="321"/>
+      <c r="AV82" s="321"/>
+      <c r="AW82" s="322"/>
     </row>
     <row r="83" spans="1:50" ht="22.95" customHeight="1" thickBot="1">
-      <c r="A83" s="284"/>
-      <c r="B83" s="285"/>
-      <c r="C83" s="285"/>
-      <c r="D83" s="285"/>
-      <c r="E83" s="285"/>
-      <c r="F83" s="285"/>
-      <c r="G83" s="285"/>
-      <c r="H83" s="285"/>
-      <c r="I83" s="286"/>
-      <c r="J83" s="284"/>
-      <c r="K83" s="285"/>
-      <c r="L83" s="285"/>
-      <c r="M83" s="285"/>
-      <c r="N83" s="285"/>
-      <c r="O83" s="286"/>
-      <c r="P83" s="284"/>
-      <c r="Q83" s="285"/>
-      <c r="R83" s="285"/>
-      <c r="S83" s="285"/>
-      <c r="T83" s="285"/>
-      <c r="U83" s="286"/>
-      <c r="V83" s="304" t="s">
+      <c r="A83" s="285"/>
+      <c r="B83" s="286"/>
+      <c r="C83" s="286"/>
+      <c r="D83" s="286"/>
+      <c r="E83" s="286"/>
+      <c r="F83" s="286"/>
+      <c r="G83" s="286"/>
+      <c r="H83" s="286"/>
+      <c r="I83" s="287"/>
+      <c r="J83" s="285"/>
+      <c r="K83" s="286"/>
+      <c r="L83" s="286"/>
+      <c r="M83" s="286"/>
+      <c r="N83" s="286"/>
+      <c r="O83" s="287"/>
+      <c r="P83" s="285"/>
+      <c r="Q83" s="286"/>
+      <c r="R83" s="286"/>
+      <c r="S83" s="286"/>
+      <c r="T83" s="286"/>
+      <c r="U83" s="287"/>
+      <c r="V83" s="305" t="s">
         <v>28</v>
       </c>
-      <c r="W83" s="305"/>
-      <c r="X83" s="305"/>
-      <c r="Y83" s="305"/>
-      <c r="Z83" s="306"/>
-      <c r="AA83" s="307" t="s">
+      <c r="W83" s="306"/>
+      <c r="X83" s="306"/>
+      <c r="Y83" s="306"/>
+      <c r="Z83" s="307"/>
+      <c r="AA83" s="308" t="s">
         <v>127</v>
       </c>
-      <c r="AB83" s="308"/>
-      <c r="AC83" s="308"/>
-      <c r="AD83" s="308"/>
-      <c r="AE83" s="308"/>
-      <c r="AF83" s="308"/>
-      <c r="AG83" s="309"/>
-      <c r="AH83" s="310" t="s">
+      <c r="AB83" s="309"/>
+      <c r="AC83" s="309"/>
+      <c r="AD83" s="309"/>
+      <c r="AE83" s="309"/>
+      <c r="AF83" s="309"/>
+      <c r="AG83" s="310"/>
+      <c r="AH83" s="311" t="s">
         <v>29</v>
       </c>
-      <c r="AI83" s="311"/>
-      <c r="AJ83" s="311"/>
-      <c r="AK83" s="311"/>
-      <c r="AL83" s="312"/>
-      <c r="AM83" s="307" t="s">
+      <c r="AI83" s="312"/>
+      <c r="AJ83" s="312"/>
+      <c r="AK83" s="312"/>
+      <c r="AL83" s="313"/>
+      <c r="AM83" s="308" t="s">
         <v>128</v>
       </c>
-      <c r="AN83" s="308"/>
-      <c r="AO83" s="308"/>
-      <c r="AP83" s="308"/>
-      <c r="AQ83" s="308"/>
-      <c r="AR83" s="308"/>
-      <c r="AS83" s="308"/>
-      <c r="AT83" s="308"/>
-      <c r="AU83" s="308"/>
-      <c r="AV83" s="308"/>
-      <c r="AW83" s="313"/>
+      <c r="AN83" s="309"/>
+      <c r="AO83" s="309"/>
+      <c r="AP83" s="309"/>
+      <c r="AQ83" s="309"/>
+      <c r="AR83" s="309"/>
+      <c r="AS83" s="309"/>
+      <c r="AT83" s="309"/>
+      <c r="AU83" s="309"/>
+      <c r="AV83" s="309"/>
+      <c r="AW83" s="314"/>
     </row>
     <row r="84" spans="1:50" ht="13.5" customHeight="1" thickTop="1">
       <c r="A84" s="21"/>
@@ -22050,7 +22047,7 @@
       <c r="A87" s="21"/>
       <c r="B87" s="28"/>
       <c r="C87" s="18" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D87" s="23"/>
       <c r="E87" s="23"/>
@@ -23757,187 +23754,187 @@
       <c r="AW120" s="168"/>
     </row>
     <row r="121" spans="1:50" s="19" customFormat="1" ht="21" customHeight="1" thickTop="1">
-      <c r="A121" s="278" t="s">
+      <c r="A121" s="279" t="s">
         <v>96</v>
       </c>
-      <c r="B121" s="279"/>
-      <c r="C121" s="279"/>
-      <c r="D121" s="279"/>
-      <c r="E121" s="279"/>
-      <c r="F121" s="279"/>
-      <c r="G121" s="279"/>
-      <c r="H121" s="279"/>
-      <c r="I121" s="280"/>
-      <c r="J121" s="287" t="s">
+      <c r="B121" s="280"/>
+      <c r="C121" s="280"/>
+      <c r="D121" s="280"/>
+      <c r="E121" s="280"/>
+      <c r="F121" s="280"/>
+      <c r="G121" s="280"/>
+      <c r="H121" s="280"/>
+      <c r="I121" s="281"/>
+      <c r="J121" s="288" t="s">
         <v>19</v>
       </c>
-      <c r="K121" s="279"/>
-      <c r="L121" s="279"/>
-      <c r="M121" s="279"/>
-      <c r="N121" s="279"/>
-      <c r="O121" s="280"/>
-      <c r="P121" s="287" t="s">
+      <c r="K121" s="280"/>
+      <c r="L121" s="280"/>
+      <c r="M121" s="280"/>
+      <c r="N121" s="280"/>
+      <c r="O121" s="281"/>
+      <c r="P121" s="288" t="s">
         <v>20</v>
       </c>
-      <c r="Q121" s="279"/>
-      <c r="R121" s="279"/>
-      <c r="S121" s="279"/>
-      <c r="T121" s="279"/>
-      <c r="U121" s="280"/>
-      <c r="V121" s="293" t="s">
+      <c r="Q121" s="280"/>
+      <c r="R121" s="280"/>
+      <c r="S121" s="280"/>
+      <c r="T121" s="280"/>
+      <c r="U121" s="281"/>
+      <c r="V121" s="294" t="s">
         <v>23</v>
       </c>
-      <c r="W121" s="294"/>
-      <c r="X121" s="294"/>
-      <c r="Y121" s="294"/>
-      <c r="Z121" s="295"/>
-      <c r="AA121" s="299" t="s">
-        <v>160</v>
-      </c>
-      <c r="AB121" s="279"/>
-      <c r="AC121" s="279"/>
-      <c r="AD121" s="279"/>
-      <c r="AE121" s="279"/>
-      <c r="AF121" s="279"/>
-      <c r="AG121" s="279"/>
-      <c r="AH121" s="279"/>
-      <c r="AI121" s="279"/>
-      <c r="AJ121" s="279"/>
-      <c r="AK121" s="279"/>
-      <c r="AL121" s="280"/>
-      <c r="AM121" s="288" t="s">
+      <c r="W121" s="295"/>
+      <c r="X121" s="295"/>
+      <c r="Y121" s="295"/>
+      <c r="Z121" s="296"/>
+      <c r="AA121" s="300" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB121" s="280"/>
+      <c r="AC121" s="280"/>
+      <c r="AD121" s="280"/>
+      <c r="AE121" s="280"/>
+      <c r="AF121" s="280"/>
+      <c r="AG121" s="280"/>
+      <c r="AH121" s="280"/>
+      <c r="AI121" s="280"/>
+      <c r="AJ121" s="280"/>
+      <c r="AK121" s="280"/>
+      <c r="AL121" s="281"/>
+      <c r="AM121" s="289" t="s">
         <v>24</v>
       </c>
-      <c r="AN121" s="289"/>
-      <c r="AO121" s="301" t="s">
-        <v>161</v>
-      </c>
-      <c r="AP121" s="302"/>
-      <c r="AQ121" s="303"/>
-      <c r="AR121" s="288" t="s">
+      <c r="AN121" s="290"/>
+      <c r="AO121" s="302" t="s">
+        <v>157</v>
+      </c>
+      <c r="AP121" s="303"/>
+      <c r="AQ121" s="304"/>
+      <c r="AR121" s="289" t="s">
         <v>26</v>
       </c>
-      <c r="AS121" s="289"/>
-      <c r="AT121" s="290">
+      <c r="AS121" s="290"/>
+      <c r="AT121" s="291">
         <v>45209</v>
       </c>
-      <c r="AU121" s="291"/>
-      <c r="AV121" s="291"/>
-      <c r="AW121" s="292"/>
+      <c r="AU121" s="292"/>
+      <c r="AV121" s="292"/>
+      <c r="AW121" s="293"/>
     </row>
     <row r="122" spans="1:50" s="19" customFormat="1" ht="21" customHeight="1">
-      <c r="A122" s="281"/>
-      <c r="B122" s="282"/>
-      <c r="C122" s="282"/>
-      <c r="D122" s="282"/>
-      <c r="E122" s="282"/>
-      <c r="F122" s="282"/>
-      <c r="G122" s="282"/>
-      <c r="H122" s="282"/>
-      <c r="I122" s="283"/>
-      <c r="J122" s="281"/>
-      <c r="K122" s="282"/>
-      <c r="L122" s="282"/>
-      <c r="M122" s="282"/>
-      <c r="N122" s="282"/>
-      <c r="O122" s="283"/>
-      <c r="P122" s="281"/>
-      <c r="Q122" s="282"/>
-      <c r="R122" s="282"/>
-      <c r="S122" s="282"/>
-      <c r="T122" s="282"/>
-      <c r="U122" s="283"/>
-      <c r="V122" s="296"/>
-      <c r="W122" s="297"/>
-      <c r="X122" s="297"/>
-      <c r="Y122" s="297"/>
-      <c r="Z122" s="298"/>
-      <c r="AA122" s="300"/>
-      <c r="AB122" s="282"/>
-      <c r="AC122" s="282"/>
-      <c r="AD122" s="282"/>
-      <c r="AE122" s="282"/>
-      <c r="AF122" s="282"/>
-      <c r="AG122" s="282"/>
-      <c r="AH122" s="282"/>
-      <c r="AI122" s="282"/>
-      <c r="AJ122" s="282"/>
-      <c r="AK122" s="282"/>
-      <c r="AL122" s="283"/>
-      <c r="AM122" s="314" t="s">
+      <c r="A122" s="282"/>
+      <c r="B122" s="283"/>
+      <c r="C122" s="283"/>
+      <c r="D122" s="283"/>
+      <c r="E122" s="283"/>
+      <c r="F122" s="283"/>
+      <c r="G122" s="283"/>
+      <c r="H122" s="283"/>
+      <c r="I122" s="284"/>
+      <c r="J122" s="282"/>
+      <c r="K122" s="283"/>
+      <c r="L122" s="283"/>
+      <c r="M122" s="283"/>
+      <c r="N122" s="283"/>
+      <c r="O122" s="284"/>
+      <c r="P122" s="282"/>
+      <c r="Q122" s="283"/>
+      <c r="R122" s="283"/>
+      <c r="S122" s="283"/>
+      <c r="T122" s="283"/>
+      <c r="U122" s="284"/>
+      <c r="V122" s="297"/>
+      <c r="W122" s="298"/>
+      <c r="X122" s="298"/>
+      <c r="Y122" s="298"/>
+      <c r="Z122" s="299"/>
+      <c r="AA122" s="301"/>
+      <c r="AB122" s="283"/>
+      <c r="AC122" s="283"/>
+      <c r="AD122" s="283"/>
+      <c r="AE122" s="283"/>
+      <c r="AF122" s="283"/>
+      <c r="AG122" s="283"/>
+      <c r="AH122" s="283"/>
+      <c r="AI122" s="283"/>
+      <c r="AJ122" s="283"/>
+      <c r="AK122" s="283"/>
+      <c r="AL122" s="284"/>
+      <c r="AM122" s="315" t="s">
         <v>25</v>
       </c>
-      <c r="AN122" s="315"/>
-      <c r="AO122" s="316"/>
-      <c r="AP122" s="317"/>
-      <c r="AQ122" s="318"/>
-      <c r="AR122" s="314" t="s">
+      <c r="AN122" s="316"/>
+      <c r="AO122" s="317"/>
+      <c r="AP122" s="318"/>
+      <c r="AQ122" s="319"/>
+      <c r="AR122" s="315" t="s">
         <v>27</v>
       </c>
-      <c r="AS122" s="315"/>
-      <c r="AT122" s="319"/>
-      <c r="AU122" s="320"/>
-      <c r="AV122" s="320"/>
-      <c r="AW122" s="321"/>
+      <c r="AS122" s="316"/>
+      <c r="AT122" s="320"/>
+      <c r="AU122" s="321"/>
+      <c r="AV122" s="321"/>
+      <c r="AW122" s="322"/>
     </row>
     <row r="123" spans="1:50" ht="21" customHeight="1" thickBot="1">
-      <c r="A123" s="284"/>
-      <c r="B123" s="285"/>
-      <c r="C123" s="285"/>
-      <c r="D123" s="285"/>
-      <c r="E123" s="285"/>
-      <c r="F123" s="285"/>
-      <c r="G123" s="285"/>
-      <c r="H123" s="285"/>
-      <c r="I123" s="286"/>
-      <c r="J123" s="284"/>
-      <c r="K123" s="285"/>
-      <c r="L123" s="285"/>
-      <c r="M123" s="285"/>
-      <c r="N123" s="285"/>
-      <c r="O123" s="286"/>
-      <c r="P123" s="284"/>
-      <c r="Q123" s="285"/>
-      <c r="R123" s="285"/>
-      <c r="S123" s="285"/>
-      <c r="T123" s="285"/>
-      <c r="U123" s="286"/>
-      <c r="V123" s="304" t="s">
+      <c r="A123" s="285"/>
+      <c r="B123" s="286"/>
+      <c r="C123" s="286"/>
+      <c r="D123" s="286"/>
+      <c r="E123" s="286"/>
+      <c r="F123" s="286"/>
+      <c r="G123" s="286"/>
+      <c r="H123" s="286"/>
+      <c r="I123" s="287"/>
+      <c r="J123" s="285"/>
+      <c r="K123" s="286"/>
+      <c r="L123" s="286"/>
+      <c r="M123" s="286"/>
+      <c r="N123" s="286"/>
+      <c r="O123" s="287"/>
+      <c r="P123" s="285"/>
+      <c r="Q123" s="286"/>
+      <c r="R123" s="286"/>
+      <c r="S123" s="286"/>
+      <c r="T123" s="286"/>
+      <c r="U123" s="287"/>
+      <c r="V123" s="305" t="s">
         <v>28</v>
       </c>
-      <c r="W123" s="305"/>
-      <c r="X123" s="305"/>
-      <c r="Y123" s="305"/>
-      <c r="Z123" s="306"/>
-      <c r="AA123" s="307" t="s">
+      <c r="W123" s="306"/>
+      <c r="X123" s="306"/>
+      <c r="Y123" s="306"/>
+      <c r="Z123" s="307"/>
+      <c r="AA123" s="308" t="s">
         <v>21</v>
       </c>
-      <c r="AB123" s="308"/>
-      <c r="AC123" s="308"/>
-      <c r="AD123" s="308"/>
-      <c r="AE123" s="308"/>
-      <c r="AF123" s="308"/>
-      <c r="AG123" s="309"/>
-      <c r="AH123" s="310" t="s">
+      <c r="AB123" s="309"/>
+      <c r="AC123" s="309"/>
+      <c r="AD123" s="309"/>
+      <c r="AE123" s="309"/>
+      <c r="AF123" s="309"/>
+      <c r="AG123" s="310"/>
+      <c r="AH123" s="311" t="s">
         <v>29</v>
       </c>
-      <c r="AI123" s="311"/>
-      <c r="AJ123" s="311"/>
-      <c r="AK123" s="311"/>
-      <c r="AL123" s="312"/>
-      <c r="AM123" s="307" t="s">
+      <c r="AI123" s="312"/>
+      <c r="AJ123" s="312"/>
+      <c r="AK123" s="312"/>
+      <c r="AL123" s="313"/>
+      <c r="AM123" s="308" t="s">
         <v>22</v>
       </c>
-      <c r="AN123" s="308"/>
-      <c r="AO123" s="308"/>
-      <c r="AP123" s="308"/>
-      <c r="AQ123" s="308"/>
-      <c r="AR123" s="308"/>
-      <c r="AS123" s="308"/>
-      <c r="AT123" s="308"/>
-      <c r="AU123" s="308"/>
-      <c r="AV123" s="308"/>
-      <c r="AW123" s="313"/>
+      <c r="AN123" s="309"/>
+      <c r="AO123" s="309"/>
+      <c r="AP123" s="309"/>
+      <c r="AQ123" s="309"/>
+      <c r="AR123" s="309"/>
+      <c r="AS123" s="309"/>
+      <c r="AT123" s="309"/>
+      <c r="AU123" s="309"/>
+      <c r="AV123" s="309"/>
+      <c r="AW123" s="314"/>
     </row>
     <row r="124" spans="1:50" ht="13.5" customHeight="1" thickTop="1">
       <c r="A124" s="21"/>
@@ -26087,8 +26084,8 @@
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:BK182"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A74" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AJ89" sqref="AJ89"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A36" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="AM60" sqref="AM60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="13.5" customHeight="1"/>
@@ -26101,187 +26098,187 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A1" s="278" t="s">
+      <c r="A1" s="279" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="279"/>
-      <c r="C1" s="279"/>
-      <c r="D1" s="279"/>
-      <c r="E1" s="279"/>
-      <c r="F1" s="279"/>
-      <c r="G1" s="279"/>
-      <c r="H1" s="279"/>
-      <c r="I1" s="280"/>
-      <c r="J1" s="287" t="s">
+      <c r="B1" s="280"/>
+      <c r="C1" s="280"/>
+      <c r="D1" s="280"/>
+      <c r="E1" s="280"/>
+      <c r="F1" s="280"/>
+      <c r="G1" s="280"/>
+      <c r="H1" s="280"/>
+      <c r="I1" s="281"/>
+      <c r="J1" s="288" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="279"/>
-      <c r="L1" s="279"/>
-      <c r="M1" s="279"/>
-      <c r="N1" s="279"/>
-      <c r="O1" s="280"/>
-      <c r="P1" s="287" t="s">
+      <c r="K1" s="280"/>
+      <c r="L1" s="280"/>
+      <c r="M1" s="280"/>
+      <c r="N1" s="280"/>
+      <c r="O1" s="281"/>
+      <c r="P1" s="288" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="279"/>
-      <c r="R1" s="279"/>
-      <c r="S1" s="279"/>
-      <c r="T1" s="279"/>
-      <c r="U1" s="280"/>
-      <c r="V1" s="293" t="s">
+      <c r="Q1" s="280"/>
+      <c r="R1" s="280"/>
+      <c r="S1" s="280"/>
+      <c r="T1" s="280"/>
+      <c r="U1" s="281"/>
+      <c r="V1" s="294" t="s">
         <v>23</v>
       </c>
-      <c r="W1" s="294"/>
-      <c r="X1" s="294"/>
-      <c r="Y1" s="294"/>
-      <c r="Z1" s="295"/>
-      <c r="AA1" s="299" t="s">
-        <v>160</v>
-      </c>
-      <c r="AB1" s="279"/>
-      <c r="AC1" s="279"/>
-      <c r="AD1" s="279"/>
-      <c r="AE1" s="279"/>
-      <c r="AF1" s="279"/>
-      <c r="AG1" s="279"/>
-      <c r="AH1" s="279"/>
-      <c r="AI1" s="279"/>
-      <c r="AJ1" s="279"/>
-      <c r="AK1" s="279"/>
-      <c r="AL1" s="280"/>
-      <c r="AM1" s="288" t="s">
+      <c r="W1" s="295"/>
+      <c r="X1" s="295"/>
+      <c r="Y1" s="295"/>
+      <c r="Z1" s="296"/>
+      <c r="AA1" s="300" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB1" s="280"/>
+      <c r="AC1" s="280"/>
+      <c r="AD1" s="280"/>
+      <c r="AE1" s="280"/>
+      <c r="AF1" s="280"/>
+      <c r="AG1" s="280"/>
+      <c r="AH1" s="280"/>
+      <c r="AI1" s="280"/>
+      <c r="AJ1" s="280"/>
+      <c r="AK1" s="280"/>
+      <c r="AL1" s="281"/>
+      <c r="AM1" s="289" t="s">
         <v>24</v>
       </c>
-      <c r="AN1" s="289"/>
-      <c r="AO1" s="301" t="s">
-        <v>161</v>
-      </c>
-      <c r="AP1" s="302"/>
-      <c r="AQ1" s="303"/>
-      <c r="AR1" s="288" t="s">
+      <c r="AN1" s="290"/>
+      <c r="AO1" s="302" t="s">
+        <v>157</v>
+      </c>
+      <c r="AP1" s="303"/>
+      <c r="AQ1" s="304"/>
+      <c r="AR1" s="289" t="s">
         <v>26</v>
       </c>
-      <c r="AS1" s="289"/>
-      <c r="AT1" s="290">
+      <c r="AS1" s="290"/>
+      <c r="AT1" s="291">
         <v>45209</v>
       </c>
-      <c r="AU1" s="291"/>
-      <c r="AV1" s="291"/>
-      <c r="AW1" s="292"/>
+      <c r="AU1" s="292"/>
+      <c r="AV1" s="292"/>
+      <c r="AW1" s="293"/>
     </row>
     <row r="2" spans="1:58" ht="13.5" customHeight="1">
-      <c r="A2" s="281"/>
-      <c r="B2" s="282"/>
-      <c r="C2" s="282"/>
-      <c r="D2" s="282"/>
-      <c r="E2" s="282"/>
-      <c r="F2" s="282"/>
-      <c r="G2" s="282"/>
-      <c r="H2" s="282"/>
-      <c r="I2" s="283"/>
-      <c r="J2" s="281"/>
-      <c r="K2" s="282"/>
-      <c r="L2" s="282"/>
-      <c r="M2" s="282"/>
-      <c r="N2" s="282"/>
-      <c r="O2" s="283"/>
-      <c r="P2" s="281"/>
-      <c r="Q2" s="282"/>
-      <c r="R2" s="282"/>
-      <c r="S2" s="282"/>
-      <c r="T2" s="282"/>
-      <c r="U2" s="283"/>
-      <c r="V2" s="296"/>
-      <c r="W2" s="297"/>
-      <c r="X2" s="297"/>
-      <c r="Y2" s="297"/>
-      <c r="Z2" s="298"/>
-      <c r="AA2" s="300"/>
-      <c r="AB2" s="282"/>
-      <c r="AC2" s="282"/>
-      <c r="AD2" s="282"/>
-      <c r="AE2" s="282"/>
-      <c r="AF2" s="282"/>
-      <c r="AG2" s="282"/>
-      <c r="AH2" s="282"/>
-      <c r="AI2" s="282"/>
-      <c r="AJ2" s="282"/>
-      <c r="AK2" s="282"/>
-      <c r="AL2" s="283"/>
-      <c r="AM2" s="314" t="s">
+      <c r="A2" s="282"/>
+      <c r="B2" s="283"/>
+      <c r="C2" s="283"/>
+      <c r="D2" s="283"/>
+      <c r="E2" s="283"/>
+      <c r="F2" s="283"/>
+      <c r="G2" s="283"/>
+      <c r="H2" s="283"/>
+      <c r="I2" s="284"/>
+      <c r="J2" s="282"/>
+      <c r="K2" s="283"/>
+      <c r="L2" s="283"/>
+      <c r="M2" s="283"/>
+      <c r="N2" s="283"/>
+      <c r="O2" s="284"/>
+      <c r="P2" s="282"/>
+      <c r="Q2" s="283"/>
+      <c r="R2" s="283"/>
+      <c r="S2" s="283"/>
+      <c r="T2" s="283"/>
+      <c r="U2" s="284"/>
+      <c r="V2" s="297"/>
+      <c r="W2" s="298"/>
+      <c r="X2" s="298"/>
+      <c r="Y2" s="298"/>
+      <c r="Z2" s="299"/>
+      <c r="AA2" s="301"/>
+      <c r="AB2" s="283"/>
+      <c r="AC2" s="283"/>
+      <c r="AD2" s="283"/>
+      <c r="AE2" s="283"/>
+      <c r="AF2" s="283"/>
+      <c r="AG2" s="283"/>
+      <c r="AH2" s="283"/>
+      <c r="AI2" s="283"/>
+      <c r="AJ2" s="283"/>
+      <c r="AK2" s="283"/>
+      <c r="AL2" s="284"/>
+      <c r="AM2" s="315" t="s">
         <v>25</v>
       </c>
-      <c r="AN2" s="315"/>
-      <c r="AO2" s="316"/>
-      <c r="AP2" s="317"/>
-      <c r="AQ2" s="318"/>
-      <c r="AR2" s="314" t="s">
+      <c r="AN2" s="316"/>
+      <c r="AO2" s="317"/>
+      <c r="AP2" s="318"/>
+      <c r="AQ2" s="319"/>
+      <c r="AR2" s="315" t="s">
         <v>27</v>
       </c>
-      <c r="AS2" s="315"/>
-      <c r="AT2" s="319"/>
-      <c r="AU2" s="320"/>
-      <c r="AV2" s="320"/>
-      <c r="AW2" s="321"/>
+      <c r="AS2" s="316"/>
+      <c r="AT2" s="320"/>
+      <c r="AU2" s="321"/>
+      <c r="AV2" s="321"/>
+      <c r="AW2" s="322"/>
     </row>
     <row r="3" spans="1:58" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A3" s="284"/>
-      <c r="B3" s="285"/>
-      <c r="C3" s="285"/>
-      <c r="D3" s="285"/>
-      <c r="E3" s="285"/>
-      <c r="F3" s="285"/>
-      <c r="G3" s="285"/>
-      <c r="H3" s="285"/>
-      <c r="I3" s="286"/>
-      <c r="J3" s="284"/>
-      <c r="K3" s="285"/>
-      <c r="L3" s="285"/>
-      <c r="M3" s="285"/>
-      <c r="N3" s="285"/>
-      <c r="O3" s="286"/>
-      <c r="P3" s="284"/>
-      <c r="Q3" s="285"/>
-      <c r="R3" s="285"/>
-      <c r="S3" s="285"/>
-      <c r="T3" s="285"/>
-      <c r="U3" s="286"/>
-      <c r="V3" s="304" t="s">
+      <c r="A3" s="285"/>
+      <c r="B3" s="286"/>
+      <c r="C3" s="286"/>
+      <c r="D3" s="286"/>
+      <c r="E3" s="286"/>
+      <c r="F3" s="286"/>
+      <c r="G3" s="286"/>
+      <c r="H3" s="286"/>
+      <c r="I3" s="287"/>
+      <c r="J3" s="285"/>
+      <c r="K3" s="286"/>
+      <c r="L3" s="286"/>
+      <c r="M3" s="286"/>
+      <c r="N3" s="286"/>
+      <c r="O3" s="287"/>
+      <c r="P3" s="285"/>
+      <c r="Q3" s="286"/>
+      <c r="R3" s="286"/>
+      <c r="S3" s="286"/>
+      <c r="T3" s="286"/>
+      <c r="U3" s="287"/>
+      <c r="V3" s="305" t="s">
         <v>28</v>
       </c>
-      <c r="W3" s="305"/>
-      <c r="X3" s="305"/>
-      <c r="Y3" s="305"/>
-      <c r="Z3" s="306"/>
-      <c r="AA3" s="307" t="s">
+      <c r="W3" s="306"/>
+      <c r="X3" s="306"/>
+      <c r="Y3" s="306"/>
+      <c r="Z3" s="307"/>
+      <c r="AA3" s="308" t="s">
         <v>127</v>
       </c>
-      <c r="AB3" s="308"/>
-      <c r="AC3" s="308"/>
-      <c r="AD3" s="308"/>
-      <c r="AE3" s="308"/>
-      <c r="AF3" s="308"/>
-      <c r="AG3" s="309"/>
-      <c r="AH3" s="310" t="s">
+      <c r="AB3" s="309"/>
+      <c r="AC3" s="309"/>
+      <c r="AD3" s="309"/>
+      <c r="AE3" s="309"/>
+      <c r="AF3" s="309"/>
+      <c r="AG3" s="310"/>
+      <c r="AH3" s="311" t="s">
         <v>29</v>
       </c>
-      <c r="AI3" s="311"/>
-      <c r="AJ3" s="311"/>
-      <c r="AK3" s="311"/>
-      <c r="AL3" s="312"/>
-      <c r="AM3" s="307" t="s">
+      <c r="AI3" s="312"/>
+      <c r="AJ3" s="312"/>
+      <c r="AK3" s="312"/>
+      <c r="AL3" s="313"/>
+      <c r="AM3" s="308" t="s">
         <v>128</v>
       </c>
-      <c r="AN3" s="308"/>
-      <c r="AO3" s="308"/>
-      <c r="AP3" s="308"/>
-      <c r="AQ3" s="308"/>
-      <c r="AR3" s="308"/>
-      <c r="AS3" s="308"/>
-      <c r="AT3" s="308"/>
-      <c r="AU3" s="308"/>
-      <c r="AV3" s="308"/>
-      <c r="AW3" s="313"/>
+      <c r="AN3" s="309"/>
+      <c r="AO3" s="309"/>
+      <c r="AP3" s="309"/>
+      <c r="AQ3" s="309"/>
+      <c r="AR3" s="309"/>
+      <c r="AS3" s="309"/>
+      <c r="AT3" s="309"/>
+      <c r="AU3" s="309"/>
+      <c r="AV3" s="309"/>
+      <c r="AW3" s="314"/>
     </row>
     <row r="4" spans="1:58" ht="13.5" customHeight="1" thickTop="1">
       <c r="A4" s="21"/>
@@ -26910,187 +26907,187 @@
       <c r="AW37" s="163"/>
     </row>
     <row r="38" spans="1:58" ht="19.95" customHeight="1" thickTop="1">
-      <c r="A38" s="278" t="s">
+      <c r="A38" s="279" t="s">
         <v>96</v>
       </c>
-      <c r="B38" s="279"/>
-      <c r="C38" s="279"/>
-      <c r="D38" s="279"/>
-      <c r="E38" s="279"/>
-      <c r="F38" s="279"/>
-      <c r="G38" s="279"/>
-      <c r="H38" s="279"/>
-      <c r="I38" s="280"/>
-      <c r="J38" s="287" t="s">
+      <c r="B38" s="280"/>
+      <c r="C38" s="280"/>
+      <c r="D38" s="280"/>
+      <c r="E38" s="280"/>
+      <c r="F38" s="280"/>
+      <c r="G38" s="280"/>
+      <c r="H38" s="280"/>
+      <c r="I38" s="281"/>
+      <c r="J38" s="288" t="s">
         <v>19</v>
       </c>
-      <c r="K38" s="279"/>
-      <c r="L38" s="279"/>
-      <c r="M38" s="279"/>
-      <c r="N38" s="279"/>
-      <c r="O38" s="280"/>
-      <c r="P38" s="287" t="s">
+      <c r="K38" s="280"/>
+      <c r="L38" s="280"/>
+      <c r="M38" s="280"/>
+      <c r="N38" s="280"/>
+      <c r="O38" s="281"/>
+      <c r="P38" s="288" t="s">
         <v>20</v>
       </c>
-      <c r="Q38" s="279"/>
-      <c r="R38" s="279"/>
-      <c r="S38" s="279"/>
-      <c r="T38" s="279"/>
-      <c r="U38" s="280"/>
-      <c r="V38" s="293" t="s">
+      <c r="Q38" s="280"/>
+      <c r="R38" s="280"/>
+      <c r="S38" s="280"/>
+      <c r="T38" s="280"/>
+      <c r="U38" s="281"/>
+      <c r="V38" s="294" t="s">
         <v>23</v>
       </c>
-      <c r="W38" s="294"/>
-      <c r="X38" s="294"/>
-      <c r="Y38" s="294"/>
-      <c r="Z38" s="295"/>
-      <c r="AA38" s="299" t="s">
-        <v>160</v>
-      </c>
-      <c r="AB38" s="279"/>
-      <c r="AC38" s="279"/>
-      <c r="AD38" s="279"/>
-      <c r="AE38" s="279"/>
-      <c r="AF38" s="279"/>
-      <c r="AG38" s="279"/>
-      <c r="AH38" s="279"/>
-      <c r="AI38" s="279"/>
-      <c r="AJ38" s="279"/>
-      <c r="AK38" s="279"/>
-      <c r="AL38" s="280"/>
-      <c r="AM38" s="288" t="s">
+      <c r="W38" s="295"/>
+      <c r="X38" s="295"/>
+      <c r="Y38" s="295"/>
+      <c r="Z38" s="296"/>
+      <c r="AA38" s="300" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB38" s="280"/>
+      <c r="AC38" s="280"/>
+      <c r="AD38" s="280"/>
+      <c r="AE38" s="280"/>
+      <c r="AF38" s="280"/>
+      <c r="AG38" s="280"/>
+      <c r="AH38" s="280"/>
+      <c r="AI38" s="280"/>
+      <c r="AJ38" s="280"/>
+      <c r="AK38" s="280"/>
+      <c r="AL38" s="281"/>
+      <c r="AM38" s="289" t="s">
         <v>24</v>
       </c>
-      <c r="AN38" s="289"/>
-      <c r="AO38" s="301" t="s">
-        <v>161</v>
-      </c>
-      <c r="AP38" s="302"/>
-      <c r="AQ38" s="303"/>
-      <c r="AR38" s="288" t="s">
+      <c r="AN38" s="290"/>
+      <c r="AO38" s="302" t="s">
+        <v>157</v>
+      </c>
+      <c r="AP38" s="303"/>
+      <c r="AQ38" s="304"/>
+      <c r="AR38" s="289" t="s">
         <v>26</v>
       </c>
-      <c r="AS38" s="289"/>
-      <c r="AT38" s="290">
+      <c r="AS38" s="290"/>
+      <c r="AT38" s="291">
         <v>45209</v>
       </c>
-      <c r="AU38" s="291"/>
-      <c r="AV38" s="291"/>
-      <c r="AW38" s="292"/>
+      <c r="AU38" s="292"/>
+      <c r="AV38" s="292"/>
+      <c r="AW38" s="293"/>
     </row>
     <row r="39" spans="1:58" ht="19.95" customHeight="1">
-      <c r="A39" s="281"/>
-      <c r="B39" s="282"/>
-      <c r="C39" s="282"/>
-      <c r="D39" s="282"/>
-      <c r="E39" s="282"/>
-      <c r="F39" s="282"/>
-      <c r="G39" s="282"/>
-      <c r="H39" s="282"/>
-      <c r="I39" s="283"/>
-      <c r="J39" s="281"/>
-      <c r="K39" s="282"/>
-      <c r="L39" s="282"/>
-      <c r="M39" s="282"/>
-      <c r="N39" s="282"/>
-      <c r="O39" s="283"/>
-      <c r="P39" s="281"/>
-      <c r="Q39" s="282"/>
-      <c r="R39" s="282"/>
-      <c r="S39" s="282"/>
-      <c r="T39" s="282"/>
-      <c r="U39" s="283"/>
-      <c r="V39" s="296"/>
-      <c r="W39" s="297"/>
-      <c r="X39" s="297"/>
-      <c r="Y39" s="297"/>
-      <c r="Z39" s="298"/>
-      <c r="AA39" s="300"/>
-      <c r="AB39" s="282"/>
-      <c r="AC39" s="282"/>
-      <c r="AD39" s="282"/>
-      <c r="AE39" s="282"/>
-      <c r="AF39" s="282"/>
-      <c r="AG39" s="282"/>
-      <c r="AH39" s="282"/>
-      <c r="AI39" s="282"/>
-      <c r="AJ39" s="282"/>
-      <c r="AK39" s="282"/>
-      <c r="AL39" s="283"/>
-      <c r="AM39" s="314" t="s">
+      <c r="A39" s="282"/>
+      <c r="B39" s="283"/>
+      <c r="C39" s="283"/>
+      <c r="D39" s="283"/>
+      <c r="E39" s="283"/>
+      <c r="F39" s="283"/>
+      <c r="G39" s="283"/>
+      <c r="H39" s="283"/>
+      <c r="I39" s="284"/>
+      <c r="J39" s="282"/>
+      <c r="K39" s="283"/>
+      <c r="L39" s="283"/>
+      <c r="M39" s="283"/>
+      <c r="N39" s="283"/>
+      <c r="O39" s="284"/>
+      <c r="P39" s="282"/>
+      <c r="Q39" s="283"/>
+      <c r="R39" s="283"/>
+      <c r="S39" s="283"/>
+      <c r="T39" s="283"/>
+      <c r="U39" s="284"/>
+      <c r="V39" s="297"/>
+      <c r="W39" s="298"/>
+      <c r="X39" s="298"/>
+      <c r="Y39" s="298"/>
+      <c r="Z39" s="299"/>
+      <c r="AA39" s="301"/>
+      <c r="AB39" s="283"/>
+      <c r="AC39" s="283"/>
+      <c r="AD39" s="283"/>
+      <c r="AE39" s="283"/>
+      <c r="AF39" s="283"/>
+      <c r="AG39" s="283"/>
+      <c r="AH39" s="283"/>
+      <c r="AI39" s="283"/>
+      <c r="AJ39" s="283"/>
+      <c r="AK39" s="283"/>
+      <c r="AL39" s="284"/>
+      <c r="AM39" s="315" t="s">
         <v>25</v>
       </c>
-      <c r="AN39" s="315"/>
-      <c r="AO39" s="316"/>
-      <c r="AP39" s="317"/>
-      <c r="AQ39" s="318"/>
-      <c r="AR39" s="314" t="s">
+      <c r="AN39" s="316"/>
+      <c r="AO39" s="317"/>
+      <c r="AP39" s="318"/>
+      <c r="AQ39" s="319"/>
+      <c r="AR39" s="315" t="s">
         <v>27</v>
       </c>
-      <c r="AS39" s="315"/>
-      <c r="AT39" s="319"/>
-      <c r="AU39" s="320"/>
-      <c r="AV39" s="320"/>
-      <c r="AW39" s="321"/>
+      <c r="AS39" s="316"/>
+      <c r="AT39" s="320"/>
+      <c r="AU39" s="321"/>
+      <c r="AV39" s="321"/>
+      <c r="AW39" s="322"/>
     </row>
     <row r="40" spans="1:58" ht="19.95" customHeight="1" thickBot="1">
-      <c r="A40" s="284"/>
-      <c r="B40" s="285"/>
-      <c r="C40" s="285"/>
-      <c r="D40" s="285"/>
-      <c r="E40" s="285"/>
-      <c r="F40" s="285"/>
-      <c r="G40" s="285"/>
-      <c r="H40" s="285"/>
-      <c r="I40" s="286"/>
-      <c r="J40" s="284"/>
-      <c r="K40" s="285"/>
-      <c r="L40" s="285"/>
-      <c r="M40" s="285"/>
-      <c r="N40" s="285"/>
-      <c r="O40" s="286"/>
-      <c r="P40" s="284"/>
-      <c r="Q40" s="285"/>
-      <c r="R40" s="285"/>
-      <c r="S40" s="285"/>
-      <c r="T40" s="285"/>
-      <c r="U40" s="286"/>
-      <c r="V40" s="304" t="s">
+      <c r="A40" s="285"/>
+      <c r="B40" s="286"/>
+      <c r="C40" s="286"/>
+      <c r="D40" s="286"/>
+      <c r="E40" s="286"/>
+      <c r="F40" s="286"/>
+      <c r="G40" s="286"/>
+      <c r="H40" s="286"/>
+      <c r="I40" s="287"/>
+      <c r="J40" s="285"/>
+      <c r="K40" s="286"/>
+      <c r="L40" s="286"/>
+      <c r="M40" s="286"/>
+      <c r="N40" s="286"/>
+      <c r="O40" s="287"/>
+      <c r="P40" s="285"/>
+      <c r="Q40" s="286"/>
+      <c r="R40" s="286"/>
+      <c r="S40" s="286"/>
+      <c r="T40" s="286"/>
+      <c r="U40" s="287"/>
+      <c r="V40" s="305" t="s">
         <v>28</v>
       </c>
-      <c r="W40" s="305"/>
-      <c r="X40" s="305"/>
-      <c r="Y40" s="305"/>
-      <c r="Z40" s="306"/>
-      <c r="AA40" s="307" t="s">
+      <c r="W40" s="306"/>
+      <c r="X40" s="306"/>
+      <c r="Y40" s="306"/>
+      <c r="Z40" s="307"/>
+      <c r="AA40" s="308" t="s">
         <v>127</v>
       </c>
-      <c r="AB40" s="308"/>
-      <c r="AC40" s="308"/>
-      <c r="AD40" s="308"/>
-      <c r="AE40" s="308"/>
-      <c r="AF40" s="308"/>
-      <c r="AG40" s="309"/>
-      <c r="AH40" s="310" t="s">
+      <c r="AB40" s="309"/>
+      <c r="AC40" s="309"/>
+      <c r="AD40" s="309"/>
+      <c r="AE40" s="309"/>
+      <c r="AF40" s="309"/>
+      <c r="AG40" s="310"/>
+      <c r="AH40" s="311" t="s">
         <v>29</v>
       </c>
-      <c r="AI40" s="311"/>
-      <c r="AJ40" s="311"/>
-      <c r="AK40" s="311"/>
-      <c r="AL40" s="312"/>
-      <c r="AM40" s="307" t="s">
+      <c r="AI40" s="312"/>
+      <c r="AJ40" s="312"/>
+      <c r="AK40" s="312"/>
+      <c r="AL40" s="313"/>
+      <c r="AM40" s="308" t="s">
         <v>128</v>
       </c>
-      <c r="AN40" s="308"/>
-      <c r="AO40" s="308"/>
-      <c r="AP40" s="308"/>
-      <c r="AQ40" s="308"/>
-      <c r="AR40" s="308"/>
-      <c r="AS40" s="308"/>
-      <c r="AT40" s="308"/>
-      <c r="AU40" s="308"/>
-      <c r="AV40" s="308"/>
-      <c r="AW40" s="313"/>
+      <c r="AN40" s="309"/>
+      <c r="AO40" s="309"/>
+      <c r="AP40" s="309"/>
+      <c r="AQ40" s="309"/>
+      <c r="AR40" s="309"/>
+      <c r="AS40" s="309"/>
+      <c r="AT40" s="309"/>
+      <c r="AU40" s="309"/>
+      <c r="AV40" s="309"/>
+      <c r="AW40" s="314"/>
     </row>
     <row r="41" spans="1:58" ht="13.5" customHeight="1" thickTop="1">
       <c r="A41" s="21"/>
@@ -27488,7 +27485,7 @@
         <v>5</v>
       </c>
       <c r="D50" s="93" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E50" s="94"/>
       <c r="F50" s="94"/>
@@ -27553,7 +27550,7 @@
         <v>6</v>
       </c>
       <c r="D51" s="93" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E51" s="94"/>
       <c r="F51" s="94"/>
@@ -27561,7 +27558,7 @@
       <c r="H51" s="95"/>
       <c r="I51" s="96"/>
       <c r="J51" s="107" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="K51" s="105"/>
       <c r="L51" s="105"/>
@@ -28988,187 +28985,187 @@
       <c r="AW79" s="163"/>
     </row>
     <row r="80" spans="1:49" ht="18" customHeight="1" thickTop="1">
-      <c r="A80" s="278" t="s">
+      <c r="A80" s="279" t="s">
         <v>96</v>
       </c>
-      <c r="B80" s="279"/>
-      <c r="C80" s="279"/>
-      <c r="D80" s="279"/>
-      <c r="E80" s="279"/>
-      <c r="F80" s="279"/>
-      <c r="G80" s="279"/>
-      <c r="H80" s="279"/>
-      <c r="I80" s="280"/>
-      <c r="J80" s="287" t="s">
+      <c r="B80" s="280"/>
+      <c r="C80" s="280"/>
+      <c r="D80" s="280"/>
+      <c r="E80" s="280"/>
+      <c r="F80" s="280"/>
+      <c r="G80" s="280"/>
+      <c r="H80" s="280"/>
+      <c r="I80" s="281"/>
+      <c r="J80" s="288" t="s">
         <v>19</v>
       </c>
-      <c r="K80" s="279"/>
-      <c r="L80" s="279"/>
-      <c r="M80" s="279"/>
-      <c r="N80" s="279"/>
-      <c r="O80" s="280"/>
-      <c r="P80" s="287" t="s">
+      <c r="K80" s="280"/>
+      <c r="L80" s="280"/>
+      <c r="M80" s="280"/>
+      <c r="N80" s="280"/>
+      <c r="O80" s="281"/>
+      <c r="P80" s="288" t="s">
         <v>20</v>
       </c>
-      <c r="Q80" s="279"/>
-      <c r="R80" s="279"/>
-      <c r="S80" s="279"/>
-      <c r="T80" s="279"/>
-      <c r="U80" s="280"/>
-      <c r="V80" s="293" t="s">
+      <c r="Q80" s="280"/>
+      <c r="R80" s="280"/>
+      <c r="S80" s="280"/>
+      <c r="T80" s="280"/>
+      <c r="U80" s="281"/>
+      <c r="V80" s="294" t="s">
         <v>23</v>
       </c>
-      <c r="W80" s="294"/>
-      <c r="X80" s="294"/>
-      <c r="Y80" s="294"/>
-      <c r="Z80" s="295"/>
-      <c r="AA80" s="299" t="s">
-        <v>160</v>
-      </c>
-      <c r="AB80" s="279"/>
-      <c r="AC80" s="279"/>
-      <c r="AD80" s="279"/>
-      <c r="AE80" s="279"/>
-      <c r="AF80" s="279"/>
-      <c r="AG80" s="279"/>
-      <c r="AH80" s="279"/>
-      <c r="AI80" s="279"/>
-      <c r="AJ80" s="279"/>
-      <c r="AK80" s="279"/>
-      <c r="AL80" s="280"/>
-      <c r="AM80" s="288" t="s">
+      <c r="W80" s="295"/>
+      <c r="X80" s="295"/>
+      <c r="Y80" s="295"/>
+      <c r="Z80" s="296"/>
+      <c r="AA80" s="300" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB80" s="280"/>
+      <c r="AC80" s="280"/>
+      <c r="AD80" s="280"/>
+      <c r="AE80" s="280"/>
+      <c r="AF80" s="280"/>
+      <c r="AG80" s="280"/>
+      <c r="AH80" s="280"/>
+      <c r="AI80" s="280"/>
+      <c r="AJ80" s="280"/>
+      <c r="AK80" s="280"/>
+      <c r="AL80" s="281"/>
+      <c r="AM80" s="289" t="s">
         <v>24</v>
       </c>
-      <c r="AN80" s="289"/>
-      <c r="AO80" s="301" t="s">
-        <v>161</v>
-      </c>
-      <c r="AP80" s="302"/>
-      <c r="AQ80" s="303"/>
-      <c r="AR80" s="288" t="s">
+      <c r="AN80" s="290"/>
+      <c r="AO80" s="302" t="s">
+        <v>157</v>
+      </c>
+      <c r="AP80" s="303"/>
+      <c r="AQ80" s="304"/>
+      <c r="AR80" s="289" t="s">
         <v>26</v>
       </c>
-      <c r="AS80" s="289"/>
-      <c r="AT80" s="290">
+      <c r="AS80" s="290"/>
+      <c r="AT80" s="291">
         <v>45209</v>
       </c>
-      <c r="AU80" s="291"/>
-      <c r="AV80" s="291"/>
-      <c r="AW80" s="292"/>
+      <c r="AU80" s="292"/>
+      <c r="AV80" s="292"/>
+      <c r="AW80" s="293"/>
     </row>
     <row r="81" spans="1:49" ht="18" customHeight="1">
-      <c r="A81" s="281"/>
-      <c r="B81" s="282"/>
-      <c r="C81" s="282"/>
-      <c r="D81" s="282"/>
-      <c r="E81" s="282"/>
-      <c r="F81" s="282"/>
-      <c r="G81" s="282"/>
-      <c r="H81" s="282"/>
-      <c r="I81" s="283"/>
-      <c r="J81" s="281"/>
-      <c r="K81" s="282"/>
-      <c r="L81" s="282"/>
-      <c r="M81" s="282"/>
-      <c r="N81" s="282"/>
-      <c r="O81" s="283"/>
-      <c r="P81" s="281"/>
-      <c r="Q81" s="282"/>
-      <c r="R81" s="282"/>
-      <c r="S81" s="282"/>
-      <c r="T81" s="282"/>
-      <c r="U81" s="283"/>
-      <c r="V81" s="296"/>
-      <c r="W81" s="297"/>
-      <c r="X81" s="297"/>
-      <c r="Y81" s="297"/>
-      <c r="Z81" s="298"/>
-      <c r="AA81" s="300"/>
-      <c r="AB81" s="282"/>
-      <c r="AC81" s="282"/>
-      <c r="AD81" s="282"/>
-      <c r="AE81" s="282"/>
-      <c r="AF81" s="282"/>
-      <c r="AG81" s="282"/>
-      <c r="AH81" s="282"/>
-      <c r="AI81" s="282"/>
-      <c r="AJ81" s="282"/>
-      <c r="AK81" s="282"/>
-      <c r="AL81" s="283"/>
-      <c r="AM81" s="314" t="s">
+      <c r="A81" s="282"/>
+      <c r="B81" s="283"/>
+      <c r="C81" s="283"/>
+      <c r="D81" s="283"/>
+      <c r="E81" s="283"/>
+      <c r="F81" s="283"/>
+      <c r="G81" s="283"/>
+      <c r="H81" s="283"/>
+      <c r="I81" s="284"/>
+      <c r="J81" s="282"/>
+      <c r="K81" s="283"/>
+      <c r="L81" s="283"/>
+      <c r="M81" s="283"/>
+      <c r="N81" s="283"/>
+      <c r="O81" s="284"/>
+      <c r="P81" s="282"/>
+      <c r="Q81" s="283"/>
+      <c r="R81" s="283"/>
+      <c r="S81" s="283"/>
+      <c r="T81" s="283"/>
+      <c r="U81" s="284"/>
+      <c r="V81" s="297"/>
+      <c r="W81" s="298"/>
+      <c r="X81" s="298"/>
+      <c r="Y81" s="298"/>
+      <c r="Z81" s="299"/>
+      <c r="AA81" s="301"/>
+      <c r="AB81" s="283"/>
+      <c r="AC81" s="283"/>
+      <c r="AD81" s="283"/>
+      <c r="AE81" s="283"/>
+      <c r="AF81" s="283"/>
+      <c r="AG81" s="283"/>
+      <c r="AH81" s="283"/>
+      <c r="AI81" s="283"/>
+      <c r="AJ81" s="283"/>
+      <c r="AK81" s="283"/>
+      <c r="AL81" s="284"/>
+      <c r="AM81" s="315" t="s">
         <v>25</v>
       </c>
-      <c r="AN81" s="315"/>
-      <c r="AO81" s="316"/>
-      <c r="AP81" s="317"/>
-      <c r="AQ81" s="318"/>
-      <c r="AR81" s="314" t="s">
+      <c r="AN81" s="316"/>
+      <c r="AO81" s="317"/>
+      <c r="AP81" s="318"/>
+      <c r="AQ81" s="319"/>
+      <c r="AR81" s="315" t="s">
         <v>27</v>
       </c>
-      <c r="AS81" s="315"/>
-      <c r="AT81" s="319"/>
-      <c r="AU81" s="320"/>
-      <c r="AV81" s="320"/>
-      <c r="AW81" s="321"/>
+      <c r="AS81" s="316"/>
+      <c r="AT81" s="320"/>
+      <c r="AU81" s="321"/>
+      <c r="AV81" s="321"/>
+      <c r="AW81" s="322"/>
     </row>
     <row r="82" spans="1:49" ht="18" customHeight="1" thickBot="1">
-      <c r="A82" s="284"/>
-      <c r="B82" s="285"/>
-      <c r="C82" s="285"/>
-      <c r="D82" s="285"/>
-      <c r="E82" s="285"/>
-      <c r="F82" s="285"/>
-      <c r="G82" s="285"/>
-      <c r="H82" s="285"/>
-      <c r="I82" s="286"/>
-      <c r="J82" s="284"/>
-      <c r="K82" s="285"/>
-      <c r="L82" s="285"/>
-      <c r="M82" s="285"/>
-      <c r="N82" s="285"/>
-      <c r="O82" s="286"/>
-      <c r="P82" s="284"/>
-      <c r="Q82" s="285"/>
-      <c r="R82" s="285"/>
-      <c r="S82" s="285"/>
-      <c r="T82" s="285"/>
-      <c r="U82" s="286"/>
-      <c r="V82" s="304" t="s">
+      <c r="A82" s="285"/>
+      <c r="B82" s="286"/>
+      <c r="C82" s="286"/>
+      <c r="D82" s="286"/>
+      <c r="E82" s="286"/>
+      <c r="F82" s="286"/>
+      <c r="G82" s="286"/>
+      <c r="H82" s="286"/>
+      <c r="I82" s="287"/>
+      <c r="J82" s="285"/>
+      <c r="K82" s="286"/>
+      <c r="L82" s="286"/>
+      <c r="M82" s="286"/>
+      <c r="N82" s="286"/>
+      <c r="O82" s="287"/>
+      <c r="P82" s="285"/>
+      <c r="Q82" s="286"/>
+      <c r="R82" s="286"/>
+      <c r="S82" s="286"/>
+      <c r="T82" s="286"/>
+      <c r="U82" s="287"/>
+      <c r="V82" s="305" t="s">
         <v>28</v>
       </c>
-      <c r="W82" s="305"/>
-      <c r="X82" s="305"/>
-      <c r="Y82" s="305"/>
-      <c r="Z82" s="306"/>
-      <c r="AA82" s="307" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB82" s="308"/>
-      <c r="AC82" s="308"/>
-      <c r="AD82" s="308"/>
-      <c r="AE82" s="308"/>
-      <c r="AF82" s="308"/>
-      <c r="AG82" s="309"/>
-      <c r="AH82" s="310" t="s">
+      <c r="W82" s="306"/>
+      <c r="X82" s="306"/>
+      <c r="Y82" s="306"/>
+      <c r="Z82" s="307"/>
+      <c r="AA82" s="308" t="s">
+        <v>170</v>
+      </c>
+      <c r="AB82" s="309"/>
+      <c r="AC82" s="309"/>
+      <c r="AD82" s="309"/>
+      <c r="AE82" s="309"/>
+      <c r="AF82" s="309"/>
+      <c r="AG82" s="310"/>
+      <c r="AH82" s="311" t="s">
         <v>29</v>
       </c>
-      <c r="AI82" s="311"/>
-      <c r="AJ82" s="311"/>
-      <c r="AK82" s="311"/>
-      <c r="AL82" s="312"/>
-      <c r="AM82" s="307" t="s">
+      <c r="AI82" s="312"/>
+      <c r="AJ82" s="312"/>
+      <c r="AK82" s="312"/>
+      <c r="AL82" s="313"/>
+      <c r="AM82" s="308" t="s">
         <v>22</v>
       </c>
-      <c r="AN82" s="308"/>
-      <c r="AO82" s="308"/>
-      <c r="AP82" s="308"/>
-      <c r="AQ82" s="308"/>
-      <c r="AR82" s="308"/>
-      <c r="AS82" s="308"/>
-      <c r="AT82" s="308"/>
-      <c r="AU82" s="308"/>
-      <c r="AV82" s="308"/>
-      <c r="AW82" s="313"/>
+      <c r="AN82" s="309"/>
+      <c r="AO82" s="309"/>
+      <c r="AP82" s="309"/>
+      <c r="AQ82" s="309"/>
+      <c r="AR82" s="309"/>
+      <c r="AS82" s="309"/>
+      <c r="AT82" s="309"/>
+      <c r="AU82" s="309"/>
+      <c r="AV82" s="309"/>
+      <c r="AW82" s="314"/>
     </row>
     <row r="83" spans="1:49" ht="13.5" customHeight="1" thickTop="1">
       <c r="A83" s="21"/>
@@ -29315,7 +29312,7 @@
     <row r="88" spans="1:49" ht="13.5" customHeight="1">
       <c r="A88" s="21"/>
       <c r="C88" s="19" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D88" s="23"/>
       <c r="E88" s="23"/>
@@ -29348,7 +29345,7 @@
     <row r="89" spans="1:49" ht="13.5" customHeight="1">
       <c r="A89" s="21"/>
       <c r="D89" s="23" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E89" s="23"/>
       <c r="F89" s="23"/>
@@ -29380,7 +29377,7 @@
     <row r="90" spans="1:49" ht="13.5" customHeight="1">
       <c r="A90" s="21"/>
       <c r="D90" s="23" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E90" s="23"/>
       <c r="F90" s="23"/>
@@ -29474,7 +29471,7 @@
     <row r="93" spans="1:49" ht="13.5" customHeight="1">
       <c r="A93" s="21"/>
       <c r="C93" s="19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D93" s="23"/>
       <c r="E93" s="23"/>
@@ -30285,187 +30282,187 @@
       <c r="AW119" s="163"/>
     </row>
     <row r="120" spans="1:49" ht="18" customHeight="1" thickTop="1">
-      <c r="A120" s="278" t="s">
+      <c r="A120" s="279" t="s">
         <v>96</v>
       </c>
-      <c r="B120" s="279"/>
-      <c r="C120" s="279"/>
-      <c r="D120" s="279"/>
-      <c r="E120" s="279"/>
-      <c r="F120" s="279"/>
-      <c r="G120" s="279"/>
-      <c r="H120" s="279"/>
-      <c r="I120" s="280"/>
-      <c r="J120" s="287" t="s">
+      <c r="B120" s="280"/>
+      <c r="C120" s="280"/>
+      <c r="D120" s="280"/>
+      <c r="E120" s="280"/>
+      <c r="F120" s="280"/>
+      <c r="G120" s="280"/>
+      <c r="H120" s="280"/>
+      <c r="I120" s="281"/>
+      <c r="J120" s="288" t="s">
         <v>19</v>
       </c>
-      <c r="K120" s="279"/>
-      <c r="L120" s="279"/>
-      <c r="M120" s="279"/>
-      <c r="N120" s="279"/>
-      <c r="O120" s="280"/>
-      <c r="P120" s="287" t="s">
+      <c r="K120" s="280"/>
+      <c r="L120" s="280"/>
+      <c r="M120" s="280"/>
+      <c r="N120" s="280"/>
+      <c r="O120" s="281"/>
+      <c r="P120" s="288" t="s">
         <v>20</v>
       </c>
-      <c r="Q120" s="279"/>
-      <c r="R120" s="279"/>
-      <c r="S120" s="279"/>
-      <c r="T120" s="279"/>
-      <c r="U120" s="280"/>
-      <c r="V120" s="293" t="s">
+      <c r="Q120" s="280"/>
+      <c r="R120" s="280"/>
+      <c r="S120" s="280"/>
+      <c r="T120" s="280"/>
+      <c r="U120" s="281"/>
+      <c r="V120" s="294" t="s">
         <v>23</v>
       </c>
-      <c r="W120" s="294"/>
-      <c r="X120" s="294"/>
-      <c r="Y120" s="294"/>
-      <c r="Z120" s="295"/>
-      <c r="AA120" s="299" t="s">
-        <v>160</v>
-      </c>
-      <c r="AB120" s="279"/>
-      <c r="AC120" s="279"/>
-      <c r="AD120" s="279"/>
-      <c r="AE120" s="279"/>
-      <c r="AF120" s="279"/>
-      <c r="AG120" s="279"/>
-      <c r="AH120" s="279"/>
-      <c r="AI120" s="279"/>
-      <c r="AJ120" s="279"/>
-      <c r="AK120" s="279"/>
-      <c r="AL120" s="280"/>
-      <c r="AM120" s="288" t="s">
+      <c r="W120" s="295"/>
+      <c r="X120" s="295"/>
+      <c r="Y120" s="295"/>
+      <c r="Z120" s="296"/>
+      <c r="AA120" s="300" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB120" s="280"/>
+      <c r="AC120" s="280"/>
+      <c r="AD120" s="280"/>
+      <c r="AE120" s="280"/>
+      <c r="AF120" s="280"/>
+      <c r="AG120" s="280"/>
+      <c r="AH120" s="280"/>
+      <c r="AI120" s="280"/>
+      <c r="AJ120" s="280"/>
+      <c r="AK120" s="280"/>
+      <c r="AL120" s="281"/>
+      <c r="AM120" s="289" t="s">
         <v>24</v>
       </c>
-      <c r="AN120" s="289"/>
-      <c r="AO120" s="301" t="s">
-        <v>161</v>
-      </c>
-      <c r="AP120" s="302"/>
-      <c r="AQ120" s="303"/>
-      <c r="AR120" s="288" t="s">
+      <c r="AN120" s="290"/>
+      <c r="AO120" s="302" t="s">
+        <v>157</v>
+      </c>
+      <c r="AP120" s="303"/>
+      <c r="AQ120" s="304"/>
+      <c r="AR120" s="289" t="s">
         <v>26</v>
       </c>
-      <c r="AS120" s="289"/>
-      <c r="AT120" s="290">
+      <c r="AS120" s="290"/>
+      <c r="AT120" s="291">
         <v>45209</v>
       </c>
-      <c r="AU120" s="291"/>
-      <c r="AV120" s="291"/>
-      <c r="AW120" s="292"/>
+      <c r="AU120" s="292"/>
+      <c r="AV120" s="292"/>
+      <c r="AW120" s="293"/>
     </row>
     <row r="121" spans="1:49" ht="18" customHeight="1">
-      <c r="A121" s="281"/>
-      <c r="B121" s="282"/>
-      <c r="C121" s="282"/>
-      <c r="D121" s="282"/>
-      <c r="E121" s="282"/>
-      <c r="F121" s="282"/>
-      <c r="G121" s="282"/>
-      <c r="H121" s="282"/>
-      <c r="I121" s="283"/>
-      <c r="J121" s="281"/>
-      <c r="K121" s="282"/>
-      <c r="L121" s="282"/>
-      <c r="M121" s="282"/>
-      <c r="N121" s="282"/>
-      <c r="O121" s="283"/>
-      <c r="P121" s="281"/>
-      <c r="Q121" s="282"/>
-      <c r="R121" s="282"/>
-      <c r="S121" s="282"/>
-      <c r="T121" s="282"/>
-      <c r="U121" s="283"/>
-      <c r="V121" s="296"/>
-      <c r="W121" s="297"/>
-      <c r="X121" s="297"/>
-      <c r="Y121" s="297"/>
-      <c r="Z121" s="298"/>
-      <c r="AA121" s="300"/>
-      <c r="AB121" s="282"/>
-      <c r="AC121" s="282"/>
-      <c r="AD121" s="282"/>
-      <c r="AE121" s="282"/>
-      <c r="AF121" s="282"/>
-      <c r="AG121" s="282"/>
-      <c r="AH121" s="282"/>
-      <c r="AI121" s="282"/>
-      <c r="AJ121" s="282"/>
-      <c r="AK121" s="282"/>
-      <c r="AL121" s="283"/>
-      <c r="AM121" s="314" t="s">
+      <c r="A121" s="282"/>
+      <c r="B121" s="283"/>
+      <c r="C121" s="283"/>
+      <c r="D121" s="283"/>
+      <c r="E121" s="283"/>
+      <c r="F121" s="283"/>
+      <c r="G121" s="283"/>
+      <c r="H121" s="283"/>
+      <c r="I121" s="284"/>
+      <c r="J121" s="282"/>
+      <c r="K121" s="283"/>
+      <c r="L121" s="283"/>
+      <c r="M121" s="283"/>
+      <c r="N121" s="283"/>
+      <c r="O121" s="284"/>
+      <c r="P121" s="282"/>
+      <c r="Q121" s="283"/>
+      <c r="R121" s="283"/>
+      <c r="S121" s="283"/>
+      <c r="T121" s="283"/>
+      <c r="U121" s="284"/>
+      <c r="V121" s="297"/>
+      <c r="W121" s="298"/>
+      <c r="X121" s="298"/>
+      <c r="Y121" s="298"/>
+      <c r="Z121" s="299"/>
+      <c r="AA121" s="301"/>
+      <c r="AB121" s="283"/>
+      <c r="AC121" s="283"/>
+      <c r="AD121" s="283"/>
+      <c r="AE121" s="283"/>
+      <c r="AF121" s="283"/>
+      <c r="AG121" s="283"/>
+      <c r="AH121" s="283"/>
+      <c r="AI121" s="283"/>
+      <c r="AJ121" s="283"/>
+      <c r="AK121" s="283"/>
+      <c r="AL121" s="284"/>
+      <c r="AM121" s="315" t="s">
         <v>25</v>
       </c>
-      <c r="AN121" s="315"/>
-      <c r="AO121" s="316"/>
-      <c r="AP121" s="317"/>
-      <c r="AQ121" s="318"/>
-      <c r="AR121" s="314" t="s">
+      <c r="AN121" s="316"/>
+      <c r="AO121" s="317"/>
+      <c r="AP121" s="318"/>
+      <c r="AQ121" s="319"/>
+      <c r="AR121" s="315" t="s">
         <v>27</v>
       </c>
-      <c r="AS121" s="315"/>
-      <c r="AT121" s="319"/>
-      <c r="AU121" s="320"/>
-      <c r="AV121" s="320"/>
-      <c r="AW121" s="321"/>
+      <c r="AS121" s="316"/>
+      <c r="AT121" s="320"/>
+      <c r="AU121" s="321"/>
+      <c r="AV121" s="321"/>
+      <c r="AW121" s="322"/>
     </row>
     <row r="122" spans="1:49" ht="18" customHeight="1" thickBot="1">
-      <c r="A122" s="284"/>
-      <c r="B122" s="285"/>
-      <c r="C122" s="285"/>
-      <c r="D122" s="285"/>
-      <c r="E122" s="285"/>
-      <c r="F122" s="285"/>
-      <c r="G122" s="285"/>
-      <c r="H122" s="285"/>
-      <c r="I122" s="286"/>
-      <c r="J122" s="284"/>
-      <c r="K122" s="285"/>
-      <c r="L122" s="285"/>
-      <c r="M122" s="285"/>
-      <c r="N122" s="285"/>
-      <c r="O122" s="286"/>
-      <c r="P122" s="284"/>
-      <c r="Q122" s="285"/>
-      <c r="R122" s="285"/>
-      <c r="S122" s="285"/>
-      <c r="T122" s="285"/>
-      <c r="U122" s="286"/>
-      <c r="V122" s="304" t="s">
+      <c r="A122" s="285"/>
+      <c r="B122" s="286"/>
+      <c r="C122" s="286"/>
+      <c r="D122" s="286"/>
+      <c r="E122" s="286"/>
+      <c r="F122" s="286"/>
+      <c r="G122" s="286"/>
+      <c r="H122" s="286"/>
+      <c r="I122" s="287"/>
+      <c r="J122" s="285"/>
+      <c r="K122" s="286"/>
+      <c r="L122" s="286"/>
+      <c r="M122" s="286"/>
+      <c r="N122" s="286"/>
+      <c r="O122" s="287"/>
+      <c r="P122" s="285"/>
+      <c r="Q122" s="286"/>
+      <c r="R122" s="286"/>
+      <c r="S122" s="286"/>
+      <c r="T122" s="286"/>
+      <c r="U122" s="287"/>
+      <c r="V122" s="305" t="s">
         <v>28</v>
       </c>
-      <c r="W122" s="305"/>
-      <c r="X122" s="305"/>
-      <c r="Y122" s="305"/>
-      <c r="Z122" s="306"/>
-      <c r="AA122" s="307" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB122" s="308"/>
-      <c r="AC122" s="308"/>
-      <c r="AD122" s="308"/>
-      <c r="AE122" s="308"/>
-      <c r="AF122" s="308"/>
-      <c r="AG122" s="309"/>
-      <c r="AH122" s="310" t="s">
+      <c r="W122" s="306"/>
+      <c r="X122" s="306"/>
+      <c r="Y122" s="306"/>
+      <c r="Z122" s="307"/>
+      <c r="AA122" s="308" t="s">
+        <v>170</v>
+      </c>
+      <c r="AB122" s="309"/>
+      <c r="AC122" s="309"/>
+      <c r="AD122" s="309"/>
+      <c r="AE122" s="309"/>
+      <c r="AF122" s="309"/>
+      <c r="AG122" s="310"/>
+      <c r="AH122" s="311" t="s">
         <v>29</v>
       </c>
-      <c r="AI122" s="311"/>
-      <c r="AJ122" s="311"/>
-      <c r="AK122" s="311"/>
-      <c r="AL122" s="312"/>
-      <c r="AM122" s="307" t="s">
+      <c r="AI122" s="312"/>
+      <c r="AJ122" s="312"/>
+      <c r="AK122" s="312"/>
+      <c r="AL122" s="313"/>
+      <c r="AM122" s="308" t="s">
         <v>22</v>
       </c>
-      <c r="AN122" s="308"/>
-      <c r="AO122" s="308"/>
-      <c r="AP122" s="308"/>
-      <c r="AQ122" s="308"/>
-      <c r="AR122" s="308"/>
-      <c r="AS122" s="308"/>
-      <c r="AT122" s="308"/>
-      <c r="AU122" s="308"/>
-      <c r="AV122" s="308"/>
-      <c r="AW122" s="313"/>
+      <c r="AN122" s="309"/>
+      <c r="AO122" s="309"/>
+      <c r="AP122" s="309"/>
+      <c r="AQ122" s="309"/>
+      <c r="AR122" s="309"/>
+      <c r="AS122" s="309"/>
+      <c r="AT122" s="309"/>
+      <c r="AU122" s="309"/>
+      <c r="AV122" s="309"/>
+      <c r="AW122" s="314"/>
     </row>
     <row r="123" spans="1:49" ht="13.5" customHeight="1" thickTop="1">
       <c r="A123" s="21"/>
@@ -30911,7 +30908,7 @@
         <v>4</v>
       </c>
       <c r="F133" s="155" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G133" s="156"/>
       <c r="H133" s="156"/>
@@ -30921,7 +30918,7 @@
       <c r="L133" s="156"/>
       <c r="M133" s="157"/>
       <c r="N133" s="155" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O133" s="156"/>
       <c r="P133" s="156"/>
@@ -30976,7 +30973,7 @@
         <v>5</v>
       </c>
       <c r="F134" s="155" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G134" s="156"/>
       <c r="H134" s="156"/>
@@ -30986,7 +30983,7 @@
       <c r="L134" s="156"/>
       <c r="M134" s="157"/>
       <c r="N134" s="155" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="O134" s="156"/>
       <c r="P134" s="156"/>
@@ -31041,7 +31038,7 @@
         <v>6</v>
       </c>
       <c r="F135" s="126" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G135" s="124"/>
       <c r="H135" s="124"/>
@@ -31051,7 +31048,7 @@
       <c r="L135" s="124"/>
       <c r="M135" s="125"/>
       <c r="N135" s="126" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="O135" s="124"/>
       <c r="P135" s="124"/>
@@ -31185,9 +31182,7 @@
       <c r="AU137" s="20"/>
       <c r="AV137" s="23"/>
       <c r="AW137" s="163"/>
-      <c r="AZ137" s="93" t="s">
-        <v>136</v>
-      </c>
+      <c r="AZ137" s="93"/>
       <c r="BA137" s="94"/>
       <c r="BB137" s="94"/>
       <c r="BC137" s="95"/>
@@ -31254,9 +31249,7 @@
       <c r="AU138" s="115"/>
       <c r="AV138" s="23"/>
       <c r="AW138" s="163"/>
-      <c r="AZ138" s="93" t="s">
-        <v>137</v>
-      </c>
+      <c r="AZ138" s="93"/>
       <c r="BA138" s="94"/>
       <c r="BB138" s="94"/>
       <c r="BC138" s="95"/>
@@ -31519,7 +31512,7 @@
     <row r="144" spans="1:57" ht="13.5" customHeight="1">
       <c r="A144" s="21"/>
       <c r="C144" s="19" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D144" s="23"/>
       <c r="E144" s="122"/>
@@ -31571,7 +31564,7 @@
     <row r="145" spans="1:63" ht="13.5" customHeight="1">
       <c r="A145" s="21"/>
       <c r="D145" s="23" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E145" s="122"/>
       <c r="F145" s="23"/>
@@ -31785,7 +31778,7 @@
         <v>1</v>
       </c>
       <c r="F149" s="144" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G149" s="145"/>
       <c r="H149" s="145"/>
@@ -31795,7 +31788,7 @@
       <c r="L149" s="146"/>
       <c r="M149" s="147"/>
       <c r="N149" s="158" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O149" s="145"/>
       <c r="P149" s="145"/>
@@ -31819,7 +31812,7 @@
       <c r="AH149" s="148"/>
       <c r="AI149" s="153"/>
       <c r="AJ149" s="195" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AK149" s="149"/>
       <c r="AL149" s="149"/>
@@ -31835,7 +31828,7 @@
       <c r="AV149" s="23"/>
       <c r="AW149" s="163"/>
       <c r="AY149" s="174" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="150" spans="1:63" ht="13.5" customHeight="1">
@@ -31915,7 +31908,7 @@
       <c r="L151" s="139"/>
       <c r="M151" s="140"/>
       <c r="N151" s="137" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O151" s="138"/>
       <c r="P151" s="138"/>
@@ -31975,7 +31968,7 @@
       <c r="L152" s="139"/>
       <c r="M152" s="140"/>
       <c r="N152" s="137" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O152" s="138"/>
       <c r="P152" s="138"/>
@@ -32034,30 +32027,30 @@
       <c r="K153" s="139"/>
       <c r="L153" s="139"/>
       <c r="M153" s="140"/>
-      <c r="N153" s="408" t="s">
+      <c r="N153" s="394" t="s">
         <v>104</v>
       </c>
-      <c r="O153" s="409"/>
-      <c r="P153" s="409"/>
-      <c r="Q153" s="409"/>
-      <c r="R153" s="409"/>
-      <c r="S153" s="409"/>
-      <c r="T153" s="409"/>
-      <c r="U153" s="409"/>
-      <c r="V153" s="409"/>
-      <c r="W153" s="409"/>
-      <c r="X153" s="409"/>
-      <c r="Y153" s="409"/>
-      <c r="Z153" s="409"/>
-      <c r="AA153" s="409"/>
-      <c r="AB153" s="409"/>
-      <c r="AC153" s="409"/>
-      <c r="AD153" s="409"/>
-      <c r="AE153" s="409"/>
-      <c r="AF153" s="409"/>
-      <c r="AG153" s="409"/>
-      <c r="AH153" s="409"/>
-      <c r="AI153" s="410"/>
+      <c r="O153" s="395"/>
+      <c r="P153" s="395"/>
+      <c r="Q153" s="395"/>
+      <c r="R153" s="395"/>
+      <c r="S153" s="395"/>
+      <c r="T153" s="395"/>
+      <c r="U153" s="395"/>
+      <c r="V153" s="395"/>
+      <c r="W153" s="395"/>
+      <c r="X153" s="395"/>
+      <c r="Y153" s="395"/>
+      <c r="Z153" s="395"/>
+      <c r="AA153" s="395"/>
+      <c r="AB153" s="395"/>
+      <c r="AC153" s="395"/>
+      <c r="AD153" s="395"/>
+      <c r="AE153" s="395"/>
+      <c r="AF153" s="395"/>
+      <c r="AG153" s="395"/>
+      <c r="AH153" s="395"/>
+      <c r="AI153" s="396"/>
       <c r="AJ153" s="182" t="s">
         <v>106</v>
       </c>
@@ -32074,21 +32067,21 @@
       <c r="AU153" s="184"/>
       <c r="AV153" s="23"/>
       <c r="AW153" s="163"/>
-      <c r="AY153" s="411" t="s">
+      <c r="AY153" s="397" t="s">
         <v>110</v>
       </c>
-      <c r="AZ153" s="411"/>
-      <c r="BA153" s="411"/>
-      <c r="BB153" s="411"/>
-      <c r="BC153" s="411"/>
-      <c r="BD153" s="411"/>
-      <c r="BE153" s="411"/>
-      <c r="BF153" s="411"/>
-      <c r="BG153" s="411"/>
-      <c r="BH153" s="411"/>
-      <c r="BI153" s="411"/>
-      <c r="BJ153" s="411"/>
-      <c r="BK153" s="411"/>
+      <c r="AZ153" s="397"/>
+      <c r="BA153" s="397"/>
+      <c r="BB153" s="397"/>
+      <c r="BC153" s="397"/>
+      <c r="BD153" s="397"/>
+      <c r="BE153" s="397"/>
+      <c r="BF153" s="397"/>
+      <c r="BG153" s="397"/>
+      <c r="BH153" s="397"/>
+      <c r="BI153" s="397"/>
+      <c r="BJ153" s="397"/>
+      <c r="BK153" s="397"/>
     </row>
     <row r="154" spans="1:63" ht="16.05" customHeight="1">
       <c r="A154" s="21"/>
@@ -32097,7 +32090,7 @@
         <v>6</v>
       </c>
       <c r="F154" s="137" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G154" s="138"/>
       <c r="H154" s="138"/>
@@ -32107,7 +32100,7 @@
       <c r="L154" s="139"/>
       <c r="M154" s="140"/>
       <c r="N154" s="137" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O154" s="138"/>
       <c r="P154" s="138"/>
@@ -32131,7 +32124,7 @@
       <c r="AH154" s="141"/>
       <c r="AI154" s="154"/>
       <c r="AJ154" s="195" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AK154" s="142"/>
       <c r="AL154" s="142"/>
@@ -32147,7 +32140,7 @@
       <c r="AV154" s="23"/>
       <c r="AW154" s="163"/>
       <c r="AY154" s="174" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="155" spans="1:63" ht="16.05" customHeight="1">
@@ -32157,7 +32150,7 @@
         <v>7</v>
       </c>
       <c r="F155" s="179" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G155" s="180"/>
       <c r="H155" s="180"/>
@@ -32166,32 +32159,32 @@
       <c r="K155" s="161"/>
       <c r="L155" s="161"/>
       <c r="M155" s="181"/>
-      <c r="N155" s="418" t="s">
-        <v>147</v>
-      </c>
-      <c r="O155" s="419"/>
-      <c r="P155" s="419"/>
-      <c r="Q155" s="419"/>
-      <c r="R155" s="419"/>
-      <c r="S155" s="419"/>
-      <c r="T155" s="419"/>
-      <c r="U155" s="419"/>
-      <c r="V155" s="419"/>
-      <c r="W155" s="419"/>
-      <c r="X155" s="419"/>
-      <c r="Y155" s="419"/>
-      <c r="Z155" s="419"/>
-      <c r="AA155" s="419"/>
-      <c r="AB155" s="419"/>
-      <c r="AC155" s="419"/>
-      <c r="AD155" s="419"/>
-      <c r="AE155" s="419"/>
-      <c r="AF155" s="419"/>
-      <c r="AG155" s="419"/>
-      <c r="AH155" s="419"/>
-      <c r="AI155" s="420"/>
+      <c r="N155" s="407" t="s">
+        <v>145</v>
+      </c>
+      <c r="O155" s="408"/>
+      <c r="P155" s="408"/>
+      <c r="Q155" s="408"/>
+      <c r="R155" s="408"/>
+      <c r="S155" s="408"/>
+      <c r="T155" s="408"/>
+      <c r="U155" s="408"/>
+      <c r="V155" s="408"/>
+      <c r="W155" s="408"/>
+      <c r="X155" s="408"/>
+      <c r="Y155" s="408"/>
+      <c r="Z155" s="408"/>
+      <c r="AA155" s="408"/>
+      <c r="AB155" s="408"/>
+      <c r="AC155" s="408"/>
+      <c r="AD155" s="408"/>
+      <c r="AE155" s="408"/>
+      <c r="AF155" s="408"/>
+      <c r="AG155" s="408"/>
+      <c r="AH155" s="408"/>
+      <c r="AI155" s="409"/>
       <c r="AJ155" s="195" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AK155" s="183"/>
       <c r="AL155" s="183"/>
@@ -32207,7 +32200,7 @@
       <c r="AV155" s="23"/>
       <c r="AW155" s="163"/>
       <c r="AY155" s="174" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="AZ155" s="246"/>
       <c r="BA155" s="246"/>
@@ -32228,7 +32221,7 @@
         <v>8</v>
       </c>
       <c r="F156" s="23" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G156" s="23"/>
       <c r="H156" s="23"/>
@@ -32238,7 +32231,7 @@
       <c r="L156" s="23"/>
       <c r="M156" s="23"/>
       <c r="N156" s="23" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O156" s="23"/>
       <c r="P156" s="23"/>
@@ -32262,7 +32255,7 @@
       <c r="AH156" s="23"/>
       <c r="AI156" s="23"/>
       <c r="AJ156" s="23" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="AK156" s="23"/>
       <c r="AL156" s="23"/>
@@ -32277,8 +32270,8 @@
       <c r="AU156" s="23"/>
       <c r="AV156" s="23"/>
       <c r="AW156" s="163"/>
-      <c r="AY156" s="458" t="s">
-        <v>168</v>
+      <c r="AY156" s="256" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="157" spans="1:63" ht="13.5" customHeight="1">
@@ -32288,7 +32281,7 @@
         <v>9</v>
       </c>
       <c r="F157" s="23" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G157" s="23"/>
       <c r="H157" s="23"/>
@@ -32298,7 +32291,7 @@
       <c r="L157" s="23"/>
       <c r="M157" s="23"/>
       <c r="N157" s="23" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O157" s="23"/>
       <c r="P157" s="23"/>
@@ -32322,7 +32315,7 @@
       <c r="AH157" s="23"/>
       <c r="AI157" s="23"/>
       <c r="AJ157" s="23" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="AK157" s="23"/>
       <c r="AL157" s="23"/>
@@ -32337,8 +32330,8 @@
       <c r="AU157" s="23"/>
       <c r="AV157" s="23"/>
       <c r="AW157" s="163"/>
-      <c r="AY157" s="458" t="s">
-        <v>172</v>
+      <c r="AY157" s="256" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="158" spans="1:63" ht="13.5" customHeight="1">
@@ -32444,68 +32437,68 @@
     <row r="160" spans="1:63" ht="13.5" customHeight="1">
       <c r="A160" s="21"/>
       <c r="D160" s="23"/>
-      <c r="E160" s="393" t="s">
+      <c r="E160" s="398" t="s">
         <v>112</v>
       </c>
-      <c r="F160" s="394"/>
-      <c r="G160" s="394"/>
-      <c r="H160" s="394"/>
-      <c r="I160" s="394"/>
-      <c r="J160" s="394"/>
-      <c r="K160" s="395"/>
-      <c r="L160" s="405" t="s">
+      <c r="F160" s="399"/>
+      <c r="G160" s="399"/>
+      <c r="H160" s="399"/>
+      <c r="I160" s="399"/>
+      <c r="J160" s="399"/>
+      <c r="K160" s="400"/>
+      <c r="L160" s="419" t="s">
         <v>114</v>
       </c>
-      <c r="M160" s="406"/>
-      <c r="N160" s="406"/>
-      <c r="O160" s="406"/>
-      <c r="P160" s="406"/>
-      <c r="Q160" s="406"/>
-      <c r="R160" s="406"/>
-      <c r="S160" s="406"/>
-      <c r="T160" s="406"/>
-      <c r="U160" s="406"/>
-      <c r="V160" s="406"/>
-      <c r="W160" s="406"/>
-      <c r="X160" s="406"/>
-      <c r="Y160" s="406"/>
-      <c r="Z160" s="406"/>
-      <c r="AA160" s="406"/>
-      <c r="AB160" s="406"/>
-      <c r="AC160" s="406"/>
-      <c r="AD160" s="406"/>
-      <c r="AE160" s="406"/>
-      <c r="AF160" s="406"/>
-      <c r="AG160" s="406"/>
-      <c r="AH160" s="406"/>
-      <c r="AI160" s="406"/>
-      <c r="AJ160" s="406"/>
-      <c r="AK160" s="406"/>
-      <c r="AL160" s="406"/>
-      <c r="AM160" s="406"/>
-      <c r="AN160" s="406"/>
-      <c r="AO160" s="406"/>
-      <c r="AP160" s="406"/>
-      <c r="AQ160" s="406"/>
-      <c r="AR160" s="406"/>
-      <c r="AS160" s="406"/>
-      <c r="AT160" s="406"/>
-      <c r="AU160" s="407"/>
+      <c r="M160" s="420"/>
+      <c r="N160" s="420"/>
+      <c r="O160" s="420"/>
+      <c r="P160" s="420"/>
+      <c r="Q160" s="420"/>
+      <c r="R160" s="420"/>
+      <c r="S160" s="420"/>
+      <c r="T160" s="420"/>
+      <c r="U160" s="420"/>
+      <c r="V160" s="420"/>
+      <c r="W160" s="420"/>
+      <c r="X160" s="420"/>
+      <c r="Y160" s="420"/>
+      <c r="Z160" s="420"/>
+      <c r="AA160" s="420"/>
+      <c r="AB160" s="420"/>
+      <c r="AC160" s="420"/>
+      <c r="AD160" s="420"/>
+      <c r="AE160" s="420"/>
+      <c r="AF160" s="420"/>
+      <c r="AG160" s="420"/>
+      <c r="AH160" s="420"/>
+      <c r="AI160" s="420"/>
+      <c r="AJ160" s="420"/>
+      <c r="AK160" s="420"/>
+      <c r="AL160" s="420"/>
+      <c r="AM160" s="420"/>
+      <c r="AN160" s="420"/>
+      <c r="AO160" s="420"/>
+      <c r="AP160" s="420"/>
+      <c r="AQ160" s="420"/>
+      <c r="AR160" s="420"/>
+      <c r="AS160" s="420"/>
+      <c r="AT160" s="420"/>
+      <c r="AU160" s="421"/>
       <c r="AV160" s="23"/>
       <c r="AW160" s="163"/>
     </row>
     <row r="161" spans="1:49" ht="13.5" customHeight="1">
       <c r="A161" s="21"/>
       <c r="D161" s="23"/>
-      <c r="E161" s="396" t="s">
+      <c r="E161" s="410" t="s">
         <v>113</v>
       </c>
-      <c r="F161" s="397"/>
-      <c r="G161" s="397"/>
-      <c r="H161" s="397"/>
-      <c r="I161" s="397"/>
-      <c r="J161" s="397"/>
-      <c r="K161" s="398"/>
+      <c r="F161" s="411"/>
+      <c r="G161" s="411"/>
+      <c r="H161" s="411"/>
+      <c r="I161" s="411"/>
+      <c r="J161" s="411"/>
+      <c r="K161" s="412"/>
       <c r="L161" s="247"/>
       <c r="M161" s="248"/>
       <c r="N161" s="248" t="s">
@@ -32554,13 +32547,13 @@
     <row r="162" spans="1:49" ht="13.5" customHeight="1">
       <c r="A162" s="21"/>
       <c r="D162" s="23"/>
-      <c r="E162" s="399"/>
-      <c r="F162" s="400"/>
-      <c r="G162" s="400"/>
-      <c r="H162" s="400"/>
-      <c r="I162" s="400"/>
-      <c r="J162" s="400"/>
-      <c r="K162" s="401"/>
+      <c r="E162" s="413"/>
+      <c r="F162" s="414"/>
+      <c r="G162" s="414"/>
+      <c r="H162" s="414"/>
+      <c r="I162" s="414"/>
+      <c r="J162" s="414"/>
+      <c r="K162" s="415"/>
       <c r="L162" s="251"/>
       <c r="M162" s="139"/>
       <c r="N162" s="139" t="s">
@@ -32609,17 +32602,17 @@
     <row r="163" spans="1:49" ht="13.5" customHeight="1">
       <c r="A163" s="21"/>
       <c r="D163" s="23"/>
-      <c r="E163" s="399"/>
-      <c r="F163" s="400"/>
-      <c r="G163" s="400"/>
-      <c r="H163" s="400"/>
-      <c r="I163" s="400"/>
-      <c r="J163" s="400"/>
-      <c r="K163" s="401"/>
+      <c r="E163" s="413"/>
+      <c r="F163" s="414"/>
+      <c r="G163" s="414"/>
+      <c r="H163" s="414"/>
+      <c r="I163" s="414"/>
+      <c r="J163" s="414"/>
+      <c r="K163" s="415"/>
       <c r="L163" s="251"/>
       <c r="M163" s="139"/>
       <c r="N163" s="139" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O163" s="139"/>
       <c r="P163" s="139"/>
@@ -32664,17 +32657,17 @@
     <row r="164" spans="1:49" ht="13.5" customHeight="1">
       <c r="A164" s="21"/>
       <c r="D164" s="23"/>
-      <c r="E164" s="402"/>
-      <c r="F164" s="403"/>
-      <c r="G164" s="403"/>
-      <c r="H164" s="403"/>
-      <c r="I164" s="403"/>
-      <c r="J164" s="403"/>
-      <c r="K164" s="404"/>
+      <c r="E164" s="416"/>
+      <c r="F164" s="417"/>
+      <c r="G164" s="417"/>
+      <c r="H164" s="417"/>
+      <c r="I164" s="417"/>
+      <c r="J164" s="417"/>
+      <c r="K164" s="418"/>
       <c r="L164" s="252"/>
       <c r="M164" s="253"/>
       <c r="N164" s="253" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="O164" s="253"/>
       <c r="P164" s="253"/>
@@ -32821,7 +32814,7 @@
       <c r="D167" s="131"/>
       <c r="E167" s="129"/>
       <c r="F167" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G167" s="12"/>
       <c r="H167" s="12"/>
@@ -32978,48 +32971,48 @@
       <c r="F170" s="185"/>
       <c r="G170" s="185"/>
       <c r="H170" s="186"/>
-      <c r="I170" s="393" t="s">
+      <c r="I170" s="398" t="s">
         <v>122</v>
       </c>
-      <c r="J170" s="394"/>
-      <c r="K170" s="394"/>
-      <c r="L170" s="394"/>
-      <c r="M170" s="394"/>
-      <c r="N170" s="394"/>
-      <c r="O170" s="394"/>
-      <c r="P170" s="394"/>
-      <c r="Q170" s="394"/>
-      <c r="R170" s="394"/>
-      <c r="S170" s="394"/>
-      <c r="T170" s="394"/>
-      <c r="U170" s="394"/>
-      <c r="V170" s="394"/>
-      <c r="W170" s="394"/>
-      <c r="X170" s="394"/>
-      <c r="Y170" s="394"/>
-      <c r="Z170" s="394"/>
-      <c r="AA170" s="394"/>
-      <c r="AB170" s="394"/>
-      <c r="AC170" s="394"/>
-      <c r="AD170" s="394"/>
-      <c r="AE170" s="394"/>
-      <c r="AF170" s="394"/>
-      <c r="AG170" s="394"/>
-      <c r="AH170" s="394"/>
-      <c r="AI170" s="395"/>
-      <c r="AJ170" s="393" t="s">
+      <c r="J170" s="399"/>
+      <c r="K170" s="399"/>
+      <c r="L170" s="399"/>
+      <c r="M170" s="399"/>
+      <c r="N170" s="399"/>
+      <c r="O170" s="399"/>
+      <c r="P170" s="399"/>
+      <c r="Q170" s="399"/>
+      <c r="R170" s="399"/>
+      <c r="S170" s="399"/>
+      <c r="T170" s="399"/>
+      <c r="U170" s="399"/>
+      <c r="V170" s="399"/>
+      <c r="W170" s="399"/>
+      <c r="X170" s="399"/>
+      <c r="Y170" s="399"/>
+      <c r="Z170" s="399"/>
+      <c r="AA170" s="399"/>
+      <c r="AB170" s="399"/>
+      <c r="AC170" s="399"/>
+      <c r="AD170" s="399"/>
+      <c r="AE170" s="399"/>
+      <c r="AF170" s="399"/>
+      <c r="AG170" s="399"/>
+      <c r="AH170" s="399"/>
+      <c r="AI170" s="400"/>
+      <c r="AJ170" s="398" t="s">
         <v>123</v>
       </c>
-      <c r="AK170" s="394"/>
-      <c r="AL170" s="394"/>
-      <c r="AM170" s="394"/>
-      <c r="AN170" s="394"/>
-      <c r="AO170" s="394"/>
-      <c r="AP170" s="394"/>
-      <c r="AQ170" s="394"/>
-      <c r="AR170" s="394"/>
-      <c r="AS170" s="394"/>
-      <c r="AT170" s="395"/>
+      <c r="AK170" s="399"/>
+      <c r="AL170" s="399"/>
+      <c r="AM170" s="399"/>
+      <c r="AN170" s="399"/>
+      <c r="AO170" s="399"/>
+      <c r="AP170" s="399"/>
+      <c r="AQ170" s="399"/>
+      <c r="AR170" s="399"/>
+      <c r="AS170" s="399"/>
+      <c r="AT170" s="400"/>
       <c r="AU170" s="12"/>
       <c r="AV170" s="23"/>
       <c r="AW170" s="163"/>
@@ -33027,14 +33020,14 @@
     <row r="171" spans="1:49" ht="13.5" customHeight="1">
       <c r="A171" s="21"/>
       <c r="D171" s="131"/>
-      <c r="E171" s="412" t="s">
+      <c r="E171" s="401" t="s">
         <v>124</v>
       </c>
-      <c r="F171" s="413"/>
-      <c r="G171" s="413"/>
-      <c r="H171" s="414"/>
+      <c r="F171" s="402"/>
+      <c r="G171" s="402"/>
+      <c r="H171" s="403"/>
       <c r="I171" s="189" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J171" s="190"/>
       <c r="K171" s="190"/>
@@ -33063,7 +33056,7 @@
       <c r="AH171" s="190"/>
       <c r="AI171" s="192"/>
       <c r="AJ171" s="176" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="AK171" s="190"/>
       <c r="AL171" s="190"/>
@@ -33082,14 +33075,14 @@
     <row r="172" spans="1:49" ht="13.5" customHeight="1">
       <c r="A172" s="21"/>
       <c r="D172" s="131"/>
-      <c r="E172" s="415" t="s">
+      <c r="E172" s="404" t="s">
         <v>125</v>
       </c>
-      <c r="F172" s="416"/>
-      <c r="G172" s="416"/>
-      <c r="H172" s="417"/>
+      <c r="F172" s="405"/>
+      <c r="G172" s="405"/>
+      <c r="H172" s="406"/>
       <c r="I172" s="193" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="J172" s="171"/>
       <c r="K172" s="171"/>
@@ -33118,7 +33111,7 @@
       <c r="AH172" s="171"/>
       <c r="AI172" s="173"/>
       <c r="AJ172" s="194" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="AK172" s="171"/>
       <c r="AL172" s="171"/>
@@ -33725,130 +33718,130 @@
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="13.2"/>
   <sheetData>
     <row r="1" spans="1:49" s="1" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A1" s="421"/>
-      <c r="B1" s="422"/>
-      <c r="C1" s="422"/>
-      <c r="D1" s="422"/>
-      <c r="E1" s="422"/>
-      <c r="F1" s="422"/>
-      <c r="G1" s="422"/>
-      <c r="H1" s="422"/>
-      <c r="I1" s="423"/>
-      <c r="J1" s="427" t="s">
+      <c r="A1" s="422"/>
+      <c r="B1" s="423"/>
+      <c r="C1" s="423"/>
+      <c r="D1" s="423"/>
+      <c r="E1" s="423"/>
+      <c r="F1" s="423"/>
+      <c r="G1" s="423"/>
+      <c r="H1" s="423"/>
+      <c r="I1" s="424"/>
+      <c r="J1" s="428" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="428"/>
-      <c r="L1" s="428"/>
-      <c r="M1" s="428"/>
-      <c r="N1" s="428"/>
-      <c r="O1" s="429"/>
-      <c r="P1" s="427" t="s">
+      <c r="K1" s="429"/>
+      <c r="L1" s="429"/>
+      <c r="M1" s="429"/>
+      <c r="N1" s="429"/>
+      <c r="O1" s="430"/>
+      <c r="P1" s="428" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="428"/>
-      <c r="R1" s="428"/>
-      <c r="S1" s="428"/>
-      <c r="T1" s="428"/>
-      <c r="U1" s="429"/>
-      <c r="V1" s="433" t="s">
+      <c r="Q1" s="429"/>
+      <c r="R1" s="429"/>
+      <c r="S1" s="429"/>
+      <c r="T1" s="429"/>
+      <c r="U1" s="430"/>
+      <c r="V1" s="434" t="s">
         <v>0</v>
       </c>
-      <c r="W1" s="434"/>
-      <c r="X1" s="434"/>
-      <c r="Y1" s="434"/>
-      <c r="Z1" s="435"/>
-      <c r="AA1" s="450" t="s">
+      <c r="W1" s="435"/>
+      <c r="X1" s="435"/>
+      <c r="Y1" s="435"/>
+      <c r="Z1" s="436"/>
+      <c r="AA1" s="451" t="s">
         <v>7</v>
       </c>
-      <c r="AB1" s="428"/>
-      <c r="AC1" s="428"/>
-      <c r="AD1" s="428"/>
-      <c r="AE1" s="428"/>
-      <c r="AF1" s="428"/>
-      <c r="AG1" s="428"/>
-      <c r="AH1" s="428"/>
-      <c r="AI1" s="428"/>
-      <c r="AJ1" s="428"/>
-      <c r="AK1" s="428"/>
-      <c r="AL1" s="429"/>
-      <c r="AM1" s="452" t="s">
+      <c r="AB1" s="429"/>
+      <c r="AC1" s="429"/>
+      <c r="AD1" s="429"/>
+      <c r="AE1" s="429"/>
+      <c r="AF1" s="429"/>
+      <c r="AG1" s="429"/>
+      <c r="AH1" s="429"/>
+      <c r="AI1" s="429"/>
+      <c r="AJ1" s="429"/>
+      <c r="AK1" s="429"/>
+      <c r="AL1" s="430"/>
+      <c r="AM1" s="453" t="s">
         <v>3</v>
       </c>
-      <c r="AN1" s="453"/>
-      <c r="AO1" s="454" t="s">
+      <c r="AN1" s="454"/>
+      <c r="AO1" s="455" t="s">
         <v>6</v>
       </c>
-      <c r="AP1" s="455"/>
-      <c r="AQ1" s="456"/>
-      <c r="AR1" s="457" t="s">
+      <c r="AP1" s="456"/>
+      <c r="AQ1" s="457"/>
+      <c r="AR1" s="458" t="s">
         <v>1</v>
       </c>
-      <c r="AS1" s="453"/>
-      <c r="AT1" s="439" t="s">
+      <c r="AS1" s="454"/>
+      <c r="AT1" s="440" t="s">
         <v>5</v>
       </c>
-      <c r="AU1" s="440"/>
-      <c r="AV1" s="440"/>
-      <c r="AW1" s="441"/>
+      <c r="AU1" s="441"/>
+      <c r="AV1" s="441"/>
+      <c r="AW1" s="442"/>
     </row>
     <row r="2" spans="1:49" s="1" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A2" s="424"/>
-      <c r="B2" s="425"/>
-      <c r="C2" s="425"/>
-      <c r="D2" s="425"/>
-      <c r="E2" s="425"/>
-      <c r="F2" s="425"/>
-      <c r="G2" s="425"/>
-      <c r="H2" s="425"/>
-      <c r="I2" s="426"/>
-      <c r="J2" s="430"/>
-      <c r="K2" s="431"/>
-      <c r="L2" s="431"/>
-      <c r="M2" s="431"/>
-      <c r="N2" s="431"/>
-      <c r="O2" s="432"/>
-      <c r="P2" s="430"/>
-      <c r="Q2" s="431"/>
-      <c r="R2" s="431"/>
-      <c r="S2" s="431"/>
-      <c r="T2" s="431"/>
-      <c r="U2" s="432"/>
-      <c r="V2" s="436"/>
-      <c r="W2" s="437"/>
-      <c r="X2" s="437"/>
-      <c r="Y2" s="437"/>
-      <c r="Z2" s="438"/>
-      <c r="AA2" s="451"/>
-      <c r="AB2" s="431"/>
-      <c r="AC2" s="431"/>
-      <c r="AD2" s="431"/>
-      <c r="AE2" s="431"/>
-      <c r="AF2" s="431"/>
-      <c r="AG2" s="431"/>
-      <c r="AH2" s="431"/>
-      <c r="AI2" s="431"/>
-      <c r="AJ2" s="431"/>
-      <c r="AK2" s="431"/>
-      <c r="AL2" s="432"/>
-      <c r="AM2" s="442" t="s">
+      <c r="A2" s="425"/>
+      <c r="B2" s="426"/>
+      <c r="C2" s="426"/>
+      <c r="D2" s="426"/>
+      <c r="E2" s="426"/>
+      <c r="F2" s="426"/>
+      <c r="G2" s="426"/>
+      <c r="H2" s="426"/>
+      <c r="I2" s="427"/>
+      <c r="J2" s="431"/>
+      <c r="K2" s="432"/>
+      <c r="L2" s="432"/>
+      <c r="M2" s="432"/>
+      <c r="N2" s="432"/>
+      <c r="O2" s="433"/>
+      <c r="P2" s="431"/>
+      <c r="Q2" s="432"/>
+      <c r="R2" s="432"/>
+      <c r="S2" s="432"/>
+      <c r="T2" s="432"/>
+      <c r="U2" s="433"/>
+      <c r="V2" s="437"/>
+      <c r="W2" s="438"/>
+      <c r="X2" s="438"/>
+      <c r="Y2" s="438"/>
+      <c r="Z2" s="439"/>
+      <c r="AA2" s="452"/>
+      <c r="AB2" s="432"/>
+      <c r="AC2" s="432"/>
+      <c r="AD2" s="432"/>
+      <c r="AE2" s="432"/>
+      <c r="AF2" s="432"/>
+      <c r="AG2" s="432"/>
+      <c r="AH2" s="432"/>
+      <c r="AI2" s="432"/>
+      <c r="AJ2" s="432"/>
+      <c r="AK2" s="432"/>
+      <c r="AL2" s="433"/>
+      <c r="AM2" s="443" t="s">
         <v>4</v>
       </c>
-      <c r="AN2" s="443"/>
-      <c r="AO2" s="444" t="s">
+      <c r="AN2" s="444"/>
+      <c r="AO2" s="445" t="s">
         <v>6</v>
       </c>
-      <c r="AP2" s="445"/>
-      <c r="AQ2" s="446"/>
-      <c r="AR2" s="442" t="s">
+      <c r="AP2" s="446"/>
+      <c r="AQ2" s="447"/>
+      <c r="AR2" s="443" t="s">
         <v>2</v>
       </c>
-      <c r="AS2" s="443"/>
-      <c r="AT2" s="447" t="s">
+      <c r="AS2" s="444"/>
+      <c r="AT2" s="448" t="s">
         <v>5</v>
       </c>
-      <c r="AU2" s="448"/>
-      <c r="AV2" s="448"/>
-      <c r="AW2" s="449"/>
+      <c r="AU2" s="449"/>
+      <c r="AV2" s="449"/>
+      <c r="AW2" s="450"/>
     </row>
     <row r="3" spans="1:49" s="5" customFormat="1" ht="14.25" customHeight="1" thickTop="1">
       <c r="A3" s="2"/>
